--- a/ServiceInteractions/riv/clinicalprocess/healthcond/actoutcome/trunk/docs/Bilaga MIM_Mappningar_GetLaboratoryOrderOutcome.xlsx
+++ b/ServiceInteractions/riv/clinicalprocess/healthcond/actoutcome/trunk/docs/Bilaga MIM_Mappningar_GetLaboratoryOrderOutcome.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23913"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2480" windowWidth="11380" windowHeight="4960"/>
+    <workbookView xWindow="3975" yWindow="2475" windowWidth="11385" windowHeight="4965"/>
   </bookViews>
   <sheets>
     <sheet name="CDA klinkem" sheetId="14" r:id="rId1"/>
     <sheet name="actrelationshipCodes" sheetId="15" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1410,16 +1410,16 @@
     <t>HSA id för signerande person. Om id saknas anges nullvärde med nullflavor UNK</t>
   </si>
   <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>OrderType</t>
-  </si>
-  <si>
-    <t>orderlId</t>
-  </si>
-  <si>
-    <t>orderlReason</t>
+    <t>referral</t>
+  </si>
+  <si>
+    <t>LaboratoryReferralType</t>
+  </si>
+  <si>
+    <t>referralId</t>
+  </si>
+  <si>
+    <t>referralReason</t>
   </si>
 </sst>
 </file>
@@ -2109,30 +2109,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="AD290" sqref="AD290"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="4.5" customWidth="1"/>
-    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.83203125" style="49"/>
-    <col min="19" max="19" width="21.6640625" customWidth="1"/>
-    <col min="20" max="20" width="45.6640625" customWidth="1"/>
-    <col min="22" max="22" width="25.1640625" style="59" customWidth="1"/>
-    <col min="24" max="24" width="13.83203125" style="70" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.6640625" style="59" customWidth="1"/>
-    <col min="27" max="32" width="6.6640625" style="62" customWidth="1"/>
+    <col min="1" max="16" width="4.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="49"/>
+    <col min="19" max="19" width="21.7109375" customWidth="1"/>
+    <col min="20" max="20" width="45.7109375" customWidth="1"/>
+    <col min="22" max="22" width="25.140625" style="59" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.7109375" style="59" customWidth="1"/>
+    <col min="27" max="32" width="6.7109375" style="62" customWidth="1"/>
     <col min="33" max="33" width="13" style="62" customWidth="1"/>
-    <col min="34" max="34" width="27.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" style="62" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="5" style="79" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="72.33203125" style="62" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="8.83203125" style="58"/>
+    <col min="37" max="37" width="72.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="Q1" t="s">
         <v>133</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="13">
+    <row r="2" spans="1:40" ht="13.5" x14ac:dyDescent="0.2">
       <c r="AA2" s="91" t="s">
         <v>407</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="AM2" s="4"/>
       <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
         <v>25</v>
@@ -2284,7 +2284,7 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B6" s="21"/>
       <c r="C6" s="21" t="s">
         <v>26</v>
@@ -2323,7 +2323,7 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
@@ -2376,7 +2376,7 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
         <v>27</v>
@@ -2416,7 +2416,7 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="1:40" ht="24">
+    <row r="9" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21" t="s">
         <v>26</v>
@@ -2457,7 +2457,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
@@ -2496,7 +2496,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21" t="s">
         <v>24</v>
@@ -2536,7 +2536,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
         <v>28</v>
@@ -2576,7 +2576,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -2619,7 +2619,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -2651,7 +2651,7 @@
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
@@ -2692,7 +2692,7 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="1:40" ht="24">
+    <row r="16" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
         <v>30</v>
@@ -2746,7 +2746,7 @@
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
     </row>
-    <row r="17" spans="2:40">
+    <row r="17" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
         <v>31</v>
       </c>
@@ -2785,7 +2785,7 @@
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
     </row>
-    <row r="18" spans="2:40">
+    <row r="18" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B18" s="13"/>
       <c r="C18" s="24" t="s">
         <v>24</v>
@@ -2826,7 +2826,7 @@
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
     </row>
-    <row r="19" spans="2:40">
+    <row r="19" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B19" s="13"/>
       <c r="C19" s="24" t="s">
         <v>28</v>
@@ -2865,7 +2865,7 @@
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
     </row>
-    <row r="20" spans="2:40">
+    <row r="20" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>9</v>
       </c>
@@ -2903,7 +2903,7 @@
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
     </row>
-    <row r="21" spans="2:40">
+    <row r="21" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B21" s="13"/>
       <c r="C21" s="24" t="s">
         <v>10</v>
@@ -2939,7 +2939,7 @@
       <c r="AM21" s="4"/>
       <c r="AN21" s="4"/>
     </row>
-    <row r="22" spans="2:40" ht="24">
+    <row r="22" spans="2:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="13"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24" t="s">
@@ -2992,7 +2992,7 @@
       <c r="AM22" s="4"/>
       <c r="AN22" s="4"/>
     </row>
-    <row r="23" spans="2:40">
+    <row r="23" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B23" s="24"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -3040,7 +3040,7 @@
       <c r="AM23" s="4"/>
       <c r="AN23" s="4"/>
     </row>
-    <row r="24" spans="2:40" ht="60">
+    <row r="24" spans="2:40" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
       <c r="C24" s="24"/>
       <c r="D24" s="13"/>
@@ -3088,7 +3088,7 @@
       <c r="AM24" s="4"/>
       <c r="AN24" s="4"/>
     </row>
-    <row r="25" spans="2:40" ht="24">
+    <row r="25" spans="2:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>11</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="AM25" s="4"/>
       <c r="AN25" s="4"/>
     </row>
-    <row r="26" spans="2:40">
+    <row r="26" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
       <c r="C26" s="24" t="s">
         <v>35</v>
@@ -3175,7 +3175,7 @@
       <c r="AM26" s="4"/>
       <c r="AN26" s="4"/>
     </row>
-    <row r="27" spans="2:40">
+    <row r="27" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="24" t="s">
@@ -3229,7 +3229,7 @@
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
     </row>
-    <row r="28" spans="2:40">
+    <row r="28" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B28" s="13"/>
       <c r="C28" s="13" t="s">
         <v>12</v>
@@ -3265,7 +3265,7 @@
       <c r="AM28" s="4"/>
       <c r="AN28" s="4"/>
     </row>
-    <row r="29" spans="2:40">
+    <row r="29" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
       <c r="D29" s="24" t="s">
@@ -3306,7 +3306,7 @@
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
     </row>
-    <row r="30" spans="2:40">
+    <row r="30" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
@@ -3360,7 +3360,7 @@
       <c r="AM30" s="4"/>
       <c r="AN30" s="4"/>
     </row>
-    <row r="31" spans="2:40">
+    <row r="31" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -3415,7 +3415,7 @@
       <c r="AM31" s="4"/>
       <c r="AN31" s="4"/>
     </row>
-    <row r="32" spans="2:40" ht="60">
+    <row r="32" spans="2:40" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
       <c r="D32" s="24" t="s">
@@ -3470,7 +3470,7 @@
       <c r="AM32" s="4"/>
       <c r="AN32" s="4"/>
     </row>
-    <row r="33" spans="2:40">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -3521,7 +3521,7 @@
       <c r="AM33" s="4"/>
       <c r="AN33" s="4"/>
     </row>
-    <row r="34" spans="2:40" ht="24">
+    <row r="34" spans="2:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -3569,7 +3569,7 @@
       <c r="AM34" s="4"/>
       <c r="AN34" s="4"/>
     </row>
-    <row r="35" spans="2:40">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -3609,7 +3609,7 @@
       <c r="AM35" s="4"/>
       <c r="AN35" s="4"/>
     </row>
-    <row r="36" spans="2:40">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -3649,7 +3649,7 @@
       <c r="AM36" s="4"/>
       <c r="AN36" s="4"/>
     </row>
-    <row r="37" spans="2:40">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -3697,7 +3697,7 @@
       <c r="AM37" s="4"/>
       <c r="AN37" s="4"/>
     </row>
-    <row r="38" spans="2:40">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
       <c r="D38" s="13" t="s">
@@ -3741,7 +3741,7 @@
       <c r="AM38" s="4"/>
       <c r="AN38" s="4"/>
     </row>
-    <row r="39" spans="2:40">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -3787,7 +3787,7 @@
       <c r="AM39" s="4"/>
       <c r="AN39" s="4"/>
     </row>
-    <row r="40" spans="2:40">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -3830,7 +3830,7 @@
       <c r="AM40" s="4"/>
       <c r="AN40" s="4"/>
     </row>
-    <row r="41" spans="2:40">
+    <row r="41" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -3873,7 +3873,7 @@
       <c r="AM41" s="4"/>
       <c r="AN41" s="4"/>
     </row>
-    <row r="42" spans="2:40">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -3916,7 +3916,7 @@
       <c r="AM42" s="4"/>
       <c r="AN42" s="4"/>
     </row>
-    <row r="43" spans="2:40">
+    <row r="43" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -3959,7 +3959,7 @@
       <c r="AM43" s="4"/>
       <c r="AN43" s="4"/>
     </row>
-    <row r="44" spans="2:40">
+    <row r="44" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B44" s="19"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13" t="s">
@@ -4006,7 +4006,7 @@
       <c r="AM44" s="4"/>
       <c r="AN44" s="4"/>
     </row>
-    <row r="45" spans="2:40" ht="24">
+    <row r="45" spans="2:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -4061,7 +4061,7 @@
       <c r="AM45" s="4"/>
       <c r="AN45" s="4"/>
     </row>
-    <row r="46" spans="2:40">
+    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -4113,7 +4113,7 @@
       <c r="AM46" s="4"/>
       <c r="AN46" s="4"/>
     </row>
-    <row r="47" spans="2:40">
+    <row r="47" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -4146,7 +4146,7 @@
       <c r="AM47" s="4"/>
       <c r="AN47" s="4"/>
     </row>
-    <row r="48" spans="2:40">
+    <row r="48" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -4198,7 +4198,7 @@
       <c r="AM48" s="4"/>
       <c r="AN48" s="4"/>
     </row>
-    <row r="49" spans="2:40">
+    <row r="49" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -4231,7 +4231,7 @@
       <c r="AM49" s="4"/>
       <c r="AN49" s="4"/>
     </row>
-    <row r="50" spans="2:40">
+    <row r="50" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -4275,7 +4275,7 @@
       <c r="AM50" s="4"/>
       <c r="AN50" s="4"/>
     </row>
-    <row r="51" spans="2:40">
+    <row r="51" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -4319,7 +4319,7 @@
       <c r="AM51" s="4"/>
       <c r="AN51" s="4"/>
     </row>
-    <row r="52" spans="2:40">
+    <row r="52" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -4365,7 +4365,7 @@
       <c r="AM52" s="4"/>
       <c r="AN52" s="4"/>
     </row>
-    <row r="53" spans="2:40">
+    <row r="53" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -4403,7 +4403,7 @@
       <c r="AM53" s="4"/>
       <c r="AN53" s="4"/>
     </row>
-    <row r="54" spans="2:40">
+    <row r="54" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -4439,7 +4439,7 @@
       <c r="AM54" s="4"/>
       <c r="AN54" s="4"/>
     </row>
-    <row r="55" spans="2:40">
+    <row r="55" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -4480,7 +4480,7 @@
       <c r="AM55" s="4"/>
       <c r="AN55" s="4"/>
     </row>
-    <row r="56" spans="2:40">
+    <row r="56" spans="2:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -4534,7 +4534,7 @@
       <c r="AM56" s="4"/>
       <c r="AN56" s="4"/>
     </row>
-    <row r="57" spans="2:40">
+    <row r="57" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
@@ -4574,7 +4574,7 @@
       <c r="AM57" s="4"/>
       <c r="AN57" s="4"/>
     </row>
-    <row r="58" spans="2:40">
+    <row r="58" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B58" s="24"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -4606,7 +4606,7 @@
       <c r="AM58" s="4"/>
       <c r="AN58" s="4"/>
     </row>
-    <row r="59" spans="2:40">
+    <row r="59" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -4638,7 +4638,7 @@
       <c r="AM59" s="4"/>
       <c r="AN59" s="4"/>
     </row>
-    <row r="60" spans="2:40" ht="24">
+    <row r="60" spans="2:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B60" s="13" t="s">
         <v>15</v>
       </c>
@@ -4676,7 +4676,7 @@
       <c r="AM60" s="4"/>
       <c r="AN60" s="4"/>
     </row>
-    <row r="61" spans="2:40">
+    <row r="61" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B61" s="13"/>
       <c r="C61" s="13" t="s">
         <v>16</v>
@@ -4712,7 +4712,7 @@
       <c r="AM61" s="4"/>
       <c r="AN61" s="4"/>
     </row>
-    <row r="62" spans="2:40">
+    <row r="62" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13" t="s">
@@ -4748,7 +4748,7 @@
       <c r="AM62" s="4"/>
       <c r="AN62" s="4"/>
     </row>
-    <row r="63" spans="2:40">
+    <row r="63" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -4787,7 +4787,7 @@
       <c r="AM63" s="4"/>
       <c r="AN63" s="4"/>
     </row>
-    <row r="64" spans="2:40">
+    <row r="64" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -4833,7 +4833,7 @@
       <c r="AM64" s="4"/>
       <c r="AN64" s="4"/>
     </row>
-    <row r="65" spans="2:40">
+    <row r="65" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -4874,7 +4874,7 @@
       <c r="AM65" s="4"/>
       <c r="AN65" s="4"/>
     </row>
-    <row r="66" spans="2:40">
+    <row r="66" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -4906,7 +4906,7 @@
       <c r="AM66" s="4"/>
       <c r="AN66" s="4"/>
     </row>
-    <row r="67" spans="2:40">
+    <row r="67" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -4938,7 +4938,7 @@
       <c r="AM67" s="4"/>
       <c r="AN67" s="4"/>
     </row>
-    <row r="68" spans="2:40">
+    <row r="68" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
         <v>18</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="AM68" s="4"/>
       <c r="AN68" s="4"/>
     </row>
-    <row r="69" spans="2:40">
+    <row r="69" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B69" s="13"/>
       <c r="C69" s="24" t="s">
         <v>35</v>
@@ -5023,7 +5023,7 @@
       <c r="AM69" s="4"/>
       <c r="AN69" s="4"/>
     </row>
-    <row r="70" spans="2:40">
+    <row r="70" spans="2:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
       <c r="D70" s="24" t="s">
@@ -5077,7 +5077,7 @@
       <c r="AM70" s="4"/>
       <c r="AN70" s="4"/>
     </row>
-    <row r="71" spans="2:40">
+    <row r="71" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B71" s="13"/>
       <c r="C71" s="24" t="s">
         <v>37</v>
@@ -5116,7 +5116,7 @@
       <c r="AM71" s="4"/>
       <c r="AN71" s="4"/>
     </row>
-    <row r="72" spans="2:40">
+    <row r="72" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
       <c r="D72" s="24" t="s">
@@ -5155,7 +5155,7 @@
       <c r="AM72" s="4"/>
       <c r="AN72" s="4"/>
     </row>
-    <row r="73" spans="2:40">
+    <row r="73" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B73" s="13"/>
       <c r="C73" s="13" t="s">
         <v>19</v>
@@ -5207,7 +5207,7 @@
       <c r="AM73" s="4"/>
       <c r="AN73" s="4"/>
     </row>
-    <row r="74" spans="2:40">
+    <row r="74" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
       <c r="D74" s="24" t="s">
@@ -5251,7 +5251,7 @@
       <c r="AM74" s="4"/>
       <c r="AN74" s="4"/>
     </row>
-    <row r="75" spans="2:40">
+    <row r="75" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -5291,7 +5291,7 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="4"/>
     </row>
-    <row r="76" spans="2:40">
+    <row r="76" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -5332,7 +5332,7 @@
       <c r="AM76" s="4"/>
       <c r="AN76" s="4"/>
     </row>
-    <row r="77" spans="2:40">
+    <row r="77" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="24" t="s">
@@ -5368,7 +5368,7 @@
       <c r="AM77" s="4"/>
       <c r="AN77" s="4"/>
     </row>
-    <row r="78" spans="2:40" ht="24">
+    <row r="78" spans="2:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="24"/>
@@ -5412,7 +5412,7 @@
       <c r="AM78" s="4"/>
       <c r="AN78" s="4"/>
     </row>
-    <row r="79" spans="2:40">
+    <row r="79" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="24"/>
@@ -5452,7 +5452,7 @@
       <c r="AM79" s="4"/>
       <c r="AN79" s="4"/>
     </row>
-    <row r="80" spans="2:40">
+    <row r="80" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="24"/>
@@ -5492,7 +5492,7 @@
       <c r="AM80" s="4"/>
       <c r="AN80" s="4"/>
     </row>
-    <row r="81" spans="2:40">
+    <row r="81" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="24"/>
@@ -5524,7 +5524,7 @@
       <c r="AM81" s="4"/>
       <c r="AN81" s="4"/>
     </row>
-    <row r="82" spans="2:40">
+    <row r="82" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B82" s="24" t="s">
         <v>221</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="AM82" s="4"/>
       <c r="AN82" s="4"/>
     </row>
-    <row r="83" spans="2:40">
+    <row r="83" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="24" t="s">
         <v>185</v>
@@ -5599,7 +5599,7 @@
       <c r="AM83" s="4"/>
       <c r="AN83" s="4"/>
     </row>
-    <row r="84" spans="2:40">
+    <row r="84" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="24" t="s">
         <v>210</v>
@@ -5633,7 +5633,7 @@
       <c r="AM84" s="4"/>
       <c r="AN84" s="4"/>
     </row>
-    <row r="85" spans="2:40">
+    <row r="85" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="24" t="s">
@@ -5674,7 +5674,7 @@
       <c r="AM85" s="4"/>
       <c r="AN85" s="4"/>
     </row>
-    <row r="86" spans="2:40">
+    <row r="86" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
       <c r="D86" s="24" t="s">
@@ -5710,7 +5710,7 @@
       <c r="AM86" s="4"/>
       <c r="AN86" s="4"/>
     </row>
-    <row r="87" spans="2:40">
+    <row r="87" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -5752,7 +5752,7 @@
       <c r="AM87" s="4"/>
       <c r="AN87" s="4"/>
     </row>
-    <row r="88" spans="2:40">
+    <row r="88" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -5792,7 +5792,7 @@
       <c r="AM88" s="4"/>
       <c r="AN88" s="4"/>
     </row>
-    <row r="89" spans="2:40">
+    <row r="89" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
       <c r="D89" s="24"/>
@@ -5824,7 +5824,7 @@
       <c r="AM89" s="4"/>
       <c r="AN89" s="4"/>
     </row>
-    <row r="90" spans="2:40">
+    <row r="90" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
       <c r="D90" s="24"/>
@@ -5856,7 +5856,7 @@
       <c r="AM90" s="4"/>
       <c r="AN90" s="4"/>
     </row>
-    <row r="91" spans="2:40">
+    <row r="91" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
       <c r="D91" s="24"/>
@@ -5888,7 +5888,7 @@
       <c r="AM91" s="4"/>
       <c r="AN91" s="4"/>
     </row>
-    <row r="92" spans="2:40" ht="24">
+    <row r="92" spans="2:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B92" s="46" t="s">
         <v>41</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="AM92" s="4"/>
       <c r="AN92" s="4"/>
     </row>
-    <row r="93" spans="2:40">
+    <row r="93" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B93" s="19"/>
       <c r="C93" s="13" t="s">
         <v>42</v>
@@ -5976,7 +5976,7 @@
       <c r="AM93" s="4"/>
       <c r="AN93" s="4"/>
     </row>
-    <row r="94" spans="2:40">
+    <row r="94" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B94" s="19"/>
       <c r="C94" s="13"/>
       <c r="D94" s="24" t="s">
@@ -6020,7 +6020,7 @@
       <c r="AM94" s="4"/>
       <c r="AN94" s="4"/>
     </row>
-    <row r="95" spans="2:40" ht="36">
+    <row r="95" spans="2:40" ht="51" x14ac:dyDescent="0.2">
       <c r="B95" s="19"/>
       <c r="C95" s="13"/>
       <c r="D95" s="19"/>
@@ -6060,7 +6060,7 @@
       <c r="AM95" s="4"/>
       <c r="AN95" s="4"/>
     </row>
-    <row r="96" spans="2:40">
+    <row r="96" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B96" s="19"/>
       <c r="C96" s="13"/>
       <c r="D96" s="19"/>
@@ -6100,7 +6100,7 @@
       <c r="AM96" s="4"/>
       <c r="AN96" s="4"/>
     </row>
-    <row r="97" spans="1:40">
+    <row r="97" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B97" s="19"/>
       <c r="C97" s="13"/>
       <c r="D97" s="19"/>
@@ -6139,7 +6139,7 @@
       <c r="AM97" s="4"/>
       <c r="AN97" s="4"/>
     </row>
-    <row r="98" spans="1:40">
+    <row r="98" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B98" s="19"/>
       <c r="C98" s="13"/>
       <c r="D98" s="19"/>
@@ -6177,7 +6177,7 @@
       <c r="AM98" s="4"/>
       <c r="AN98" s="4"/>
     </row>
-    <row r="99" spans="1:40">
+    <row r="99" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B99" s="19"/>
       <c r="C99" s="13"/>
       <c r="D99" s="19"/>
@@ -6209,7 +6209,7 @@
       <c r="AM99" s="4"/>
       <c r="AN99" s="4"/>
     </row>
-    <row r="100" spans="1:40">
+    <row r="100" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B100" s="19"/>
       <c r="C100" s="13"/>
       <c r="D100" s="19"/>
@@ -6241,7 +6241,7 @@
       <c r="AM100" s="4"/>
       <c r="AN100" s="4"/>
     </row>
-    <row r="101" spans="1:40">
+    <row r="101" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B101" s="19"/>
       <c r="C101" s="13"/>
       <c r="D101" s="19"/>
@@ -6273,7 +6273,7 @@
       <c r="AM101" s="4"/>
       <c r="AN101" s="4"/>
     </row>
-    <row r="102" spans="1:40">
+    <row r="102" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B102" s="24" t="s">
         <v>44</v>
       </c>
@@ -6312,7 +6312,7 @@
       <c r="AM102" s="4"/>
       <c r="AN102" s="4"/>
     </row>
-    <row r="103" spans="1:40">
+    <row r="103" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B103" s="13"/>
       <c r="C103" s="24" t="s">
         <v>7</v>
@@ -6353,7 +6353,7 @@
       <c r="AM103" s="4"/>
       <c r="AN103" s="4"/>
     </row>
-    <row r="104" spans="1:40" ht="24">
+    <row r="104" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
       <c r="D104" s="24" t="s">
@@ -6407,7 +6407,7 @@
       <c r="AM104" s="4"/>
       <c r="AN104" s="4"/>
     </row>
-    <row r="105" spans="1:40">
+    <row r="105" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="24" t="s">
@@ -6450,7 +6450,7 @@
       <c r="AM105" s="4"/>
       <c r="AN105" s="4"/>
     </row>
-    <row r="106" spans="1:40">
+    <row r="106" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B106" s="13"/>
       <c r="C106" s="21" t="s">
         <v>23</v>
@@ -6489,7 +6489,7 @@
       <c r="AM106" s="4"/>
       <c r="AN106" s="4"/>
     </row>
-    <row r="107" spans="1:40">
+    <row r="107" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
       <c r="D107" s="13" t="s">
@@ -6532,7 +6532,7 @@
       <c r="AM107" s="4"/>
       <c r="AN107" s="4"/>
     </row>
-    <row r="108" spans="1:40">
+    <row r="108" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B108" s="19"/>
       <c r="C108" s="13"/>
       <c r="D108" s="19"/>
@@ -6564,7 +6564,7 @@
       <c r="AM108" s="4"/>
       <c r="AN108" s="4"/>
     </row>
-    <row r="109" spans="1:40">
+    <row r="109" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B109" s="19"/>
       <c r="C109" s="13"/>
       <c r="D109" s="19"/>
@@ -6596,7 +6596,7 @@
       <c r="AM109" s="4"/>
       <c r="AN109" s="4"/>
     </row>
-    <row r="110" spans="1:40">
+    <row r="110" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B110" s="19"/>
       <c r="C110" s="13"/>
       <c r="D110" s="19"/>
@@ -6628,7 +6628,7 @@
       <c r="AM110" s="4"/>
       <c r="AN110" s="4"/>
     </row>
-    <row r="111" spans="1:40">
+    <row r="111" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B111" s="43"/>
       <c r="C111" s="42"/>
       <c r="D111" s="42"/>
@@ -6665,7 +6665,7 @@
       <c r="AM111" s="4"/>
       <c r="AN111" s="4"/>
     </row>
-    <row r="112" spans="1:40">
+    <row r="112" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A112" s="29" t="s">
         <v>4</v>
       </c>
@@ -6700,7 +6700,7 @@
       <c r="AM112" s="4"/>
       <c r="AN112" s="4"/>
     </row>
-    <row r="113" spans="1:40">
+    <row r="113" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A113" s="29" t="s">
         <v>20</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="AM113" s="4"/>
       <c r="AN113" s="4"/>
     </row>
-    <row r="114" spans="1:40">
+    <row r="114" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A114" s="29" t="s">
         <v>4</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="AM114" s="4"/>
       <c r="AN114" s="4"/>
     </row>
-    <row r="115" spans="1:40">
+    <row r="115" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A115" s="13" t="s">
         <v>21</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="AM115" s="4"/>
       <c r="AN115" s="4"/>
     </row>
-    <row r="116" spans="1:40">
+    <row r="116" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
       <c r="B116" s="13" t="s">
         <v>22</v>
@@ -6846,7 +6846,7 @@
       <c r="AM116" s="4"/>
       <c r="AN116" s="4"/>
     </row>
-    <row r="117" spans="1:40">
+    <row r="117" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AA117" s="73"/>
       <c r="AB117" s="73"/>
       <c r="AC117" s="73"/>
@@ -6862,7 +6862,7 @@
       <c r="AM117" s="4"/>
       <c r="AN117" s="4"/>
     </row>
-    <row r="118" spans="1:40">
+    <row r="118" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C118" s="4" t="s">
         <v>21</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="AM118" s="4"/>
       <c r="AN118" s="4"/>
     </row>
-    <row r="119" spans="1:40">
+    <row r="119" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
         <v>124</v>
@@ -6945,7 +6945,7 @@
       <c r="AM119" s="4"/>
       <c r="AN119" s="4"/>
     </row>
-    <row r="120" spans="1:40">
+    <row r="120" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5" t="s">
@@ -6987,7 +6987,7 @@
       <c r="AM120" s="4"/>
       <c r="AN120" s="4"/>
     </row>
-    <row r="121" spans="1:40" ht="60">
+    <row r="121" spans="1:40" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -7043,7 +7043,7 @@
       <c r="AM121" s="4"/>
       <c r="AN121" s="4"/>
     </row>
-    <row r="122" spans="1:40" ht="14">
+    <row r="122" spans="1:40" ht="15" x14ac:dyDescent="0.2">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
@@ -7085,7 +7085,7 @@
       <c r="AM122" s="4"/>
       <c r="AN122" s="4"/>
     </row>
-    <row r="123" spans="1:40">
+    <row r="123" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5"/>
@@ -7119,7 +7119,7 @@
       <c r="AM123" s="4"/>
       <c r="AN123" s="4"/>
     </row>
-    <row r="124" spans="1:40">
+    <row r="124" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
@@ -7163,7 +7163,7 @@
       <c r="AM124" s="4"/>
       <c r="AN124" s="4"/>
     </row>
-    <row r="125" spans="1:40">
+    <row r="125" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
@@ -7201,7 +7201,7 @@
       <c r="AM125" s="4"/>
       <c r="AN125" s="4"/>
     </row>
-    <row r="126" spans="1:40">
+    <row r="126" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
@@ -7250,7 +7250,7 @@
       <c r="AM126" s="4"/>
       <c r="AN126" s="4"/>
     </row>
-    <row r="127" spans="1:40">
+    <row r="127" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -7284,7 +7284,7 @@
       <c r="AM127" s="4"/>
       <c r="AN127" s="4"/>
     </row>
-    <row r="128" spans="1:40">
+    <row r="128" spans="1:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -7340,7 +7340,7 @@
       <c r="AM128" s="4"/>
       <c r="AN128" s="4"/>
     </row>
-    <row r="129" spans="3:40" ht="14">
+    <row r="129" spans="3:40" ht="15" x14ac:dyDescent="0.25">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
@@ -7380,7 +7380,7 @@
       <c r="AM129" s="4"/>
       <c r="AN129" s="4"/>
     </row>
-    <row r="130" spans="3:40">
+    <row r="130" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
@@ -7420,7 +7420,7 @@
       <c r="AM130" s="4"/>
       <c r="AN130" s="4"/>
     </row>
-    <row r="131" spans="3:40">
+    <row r="131" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
@@ -7474,7 +7474,7 @@
       <c r="AM131" s="4"/>
       <c r="AN131" s="4"/>
     </row>
-    <row r="132" spans="3:40">
+    <row r="132" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
@@ -7519,7 +7519,7 @@
       <c r="AM132" s="4"/>
       <c r="AN132" s="4"/>
     </row>
-    <row r="133" spans="3:40">
+    <row r="133" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
@@ -7570,7 +7570,7 @@
       <c r="AM133" s="4"/>
       <c r="AN133" s="4"/>
     </row>
-    <row r="134" spans="3:40">
+    <row r="134" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
@@ -7610,7 +7610,7 @@
       <c r="AM134" s="4"/>
       <c r="AN134" s="4"/>
     </row>
-    <row r="135" spans="3:40">
+    <row r="135" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -7663,7 +7663,7 @@
       <c r="AM135" s="4"/>
       <c r="AN135" s="4"/>
     </row>
-    <row r="136" spans="3:40">
+    <row r="136" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
@@ -7698,7 +7698,7 @@
       <c r="AM136" s="4"/>
       <c r="AN136" s="4"/>
     </row>
-    <row r="137" spans="3:40">
+    <row r="137" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
@@ -7738,7 +7738,7 @@
       <c r="AM137" s="4"/>
       <c r="AN137" s="4"/>
     </row>
-    <row r="138" spans="3:40">
+    <row r="138" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
@@ -7791,7 +7791,7 @@
       <c r="AM138" s="4"/>
       <c r="AN138" s="4"/>
     </row>
-    <row r="139" spans="3:40">
+    <row r="139" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
@@ -7842,7 +7842,7 @@
       <c r="AM139" s="4"/>
       <c r="AN139" s="4"/>
     </row>
-    <row r="140" spans="3:40" ht="60">
+    <row r="140" spans="3:40" ht="63.75" x14ac:dyDescent="0.2">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
@@ -7896,7 +7896,7 @@
       <c r="AM140" s="4"/>
       <c r="AN140" s="4"/>
     </row>
-    <row r="141" spans="3:40" ht="58.5" customHeight="1">
+    <row r="141" spans="3:40" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
@@ -7946,7 +7946,7 @@
       <c r="AM141" s="4"/>
       <c r="AN141" s="4"/>
     </row>
-    <row r="142" spans="3:40" ht="24">
+    <row r="142" spans="3:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
@@ -7993,7 +7993,7 @@
       <c r="AM142" s="4"/>
       <c r="AN142" s="4"/>
     </row>
-    <row r="143" spans="3:40">
+    <row r="143" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
@@ -8032,7 +8032,7 @@
       <c r="AM143" s="4"/>
       <c r="AN143" s="4"/>
     </row>
-    <row r="144" spans="3:40">
+    <row r="144" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
@@ -8071,7 +8071,7 @@
       <c r="AM144" s="4"/>
       <c r="AN144" s="4"/>
     </row>
-    <row r="145" spans="3:40">
+    <row r="145" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
@@ -8110,7 +8110,7 @@
       <c r="AM145" s="4"/>
       <c r="AN145" s="4"/>
     </row>
-    <row r="146" spans="3:40">
+    <row r="146" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -8157,7 +8157,7 @@
       <c r="AM146" s="4"/>
       <c r="AN146" s="4"/>
     </row>
-    <row r="147" spans="3:40">
+    <row r="147" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
@@ -8192,7 +8192,7 @@
       <c r="AM147" s="4"/>
       <c r="AN147" s="4"/>
     </row>
-    <row r="148" spans="3:40">
+    <row r="148" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
@@ -8238,7 +8238,7 @@
       <c r="AM148" s="4"/>
       <c r="AN148" s="4"/>
     </row>
-    <row r="149" spans="3:40">
+    <row r="149" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
@@ -8280,7 +8280,7 @@
       <c r="AM149" s="4"/>
       <c r="AN149" s="4"/>
     </row>
-    <row r="150" spans="3:40">
+    <row r="150" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
@@ -8322,7 +8322,7 @@
       <c r="AM150" s="4"/>
       <c r="AN150" s="4"/>
     </row>
-    <row r="151" spans="3:40">
+    <row r="151" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
@@ -8366,7 +8366,7 @@
       <c r="AM151" s="4"/>
       <c r="AN151" s="4"/>
     </row>
-    <row r="152" spans="3:40">
+    <row r="152" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
@@ -8408,7 +8408,7 @@
       <c r="AM152" s="4"/>
       <c r="AN152" s="4"/>
     </row>
-    <row r="153" spans="3:40">
+    <row r="153" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -8454,7 +8454,7 @@
       <c r="AM153" s="4"/>
       <c r="AN153" s="4"/>
     </row>
-    <row r="154" spans="3:40" ht="24">
+    <row r="154" spans="3:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -8508,7 +8508,7 @@
       <c r="AM154" s="4"/>
       <c r="AN154" s="4"/>
     </row>
-    <row r="155" spans="3:40">
+    <row r="155" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -8558,7 +8558,7 @@
       <c r="AM155" s="4"/>
       <c r="AN155" s="4"/>
     </row>
-    <row r="156" spans="3:40">
+    <row r="156" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
@@ -8598,7 +8598,7 @@
       <c r="AM156" s="4"/>
       <c r="AN156" s="4"/>
     </row>
-    <row r="157" spans="3:40">
+    <row r="157" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
@@ -8630,7 +8630,7 @@
       <c r="AM157" s="4"/>
       <c r="AN157" s="4"/>
     </row>
-    <row r="158" spans="3:40">
+    <row r="158" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
@@ -8674,7 +8674,7 @@
       <c r="AM158" s="4"/>
       <c r="AN158" s="4"/>
     </row>
-    <row r="159" spans="3:40">
+    <row r="159" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
@@ -8718,7 +8718,7 @@
       <c r="AM159" s="4"/>
       <c r="AN159" s="4"/>
     </row>
-    <row r="160" spans="3:40">
+    <row r="160" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
@@ -8764,7 +8764,7 @@
       <c r="AM160" s="4"/>
       <c r="AN160" s="4"/>
     </row>
-    <row r="161" spans="3:40">
+    <row r="161" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
@@ -8795,7 +8795,7 @@
       <c r="AM161" s="4"/>
       <c r="AN161" s="4"/>
     </row>
-    <row r="162" spans="3:40">
+    <row r="162" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
@@ -8826,7 +8826,7 @@
       <c r="AM162" s="4"/>
       <c r="AN162" s="4"/>
     </row>
-    <row r="163" spans="3:40">
+    <row r="163" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
@@ -8858,7 +8858,7 @@
       <c r="AM163" s="4"/>
       <c r="AN163" s="4"/>
     </row>
-    <row r="164" spans="3:40">
+    <row r="164" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
@@ -8891,7 +8891,7 @@
       <c r="AM164" s="4"/>
       <c r="AN164" s="4"/>
     </row>
-    <row r="165" spans="3:40">
+    <row r="165" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
@@ -8922,7 +8922,7 @@
       <c r="AM165" s="4"/>
       <c r="AN165" s="4"/>
     </row>
-    <row r="166" spans="3:40">
+    <row r="166" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
@@ -8953,7 +8953,7 @@
       <c r="AM166" s="4"/>
       <c r="AN166" s="4"/>
     </row>
-    <row r="167" spans="3:40">
+    <row r="167" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
@@ -8987,7 +8987,7 @@
       <c r="AM167" s="4"/>
       <c r="AN167" s="4"/>
     </row>
-    <row r="168" spans="3:40">
+    <row r="168" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
@@ -9021,7 +9021,7 @@
       <c r="AM168" s="4"/>
       <c r="AN168" s="4"/>
     </row>
-    <row r="169" spans="3:40">
+    <row r="169" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
@@ -9059,7 +9059,7 @@
       <c r="AM169" s="4"/>
       <c r="AN169" s="4"/>
     </row>
-    <row r="170" spans="3:40">
+    <row r="170" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
@@ -9099,7 +9099,7 @@
       <c r="AM170" s="4"/>
       <c r="AN170" s="4"/>
     </row>
-    <row r="171" spans="3:40">
+    <row r="171" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
@@ -9135,7 +9135,7 @@
       <c r="AM171" s="4"/>
       <c r="AN171" s="4"/>
     </row>
-    <row r="172" spans="3:40">
+    <row r="172" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
@@ -9173,7 +9173,7 @@
       <c r="AM172" s="4"/>
       <c r="AN172" s="4"/>
     </row>
-    <row r="173" spans="3:40">
+    <row r="173" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
@@ -9210,7 +9210,7 @@
       <c r="AM173" s="4"/>
       <c r="AN173" s="4"/>
     </row>
-    <row r="174" spans="3:40">
+    <row r="174" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5"/>
@@ -9250,7 +9250,7 @@
       <c r="AM174" s="4"/>
       <c r="AN174" s="4"/>
     </row>
-    <row r="175" spans="3:40">
+    <row r="175" spans="3:40" x14ac:dyDescent="0.2">
       <c r="I175" t="s">
         <v>32</v>
       </c>
@@ -9281,7 +9281,7 @@
       <c r="AM175" s="4"/>
       <c r="AN175" s="4"/>
     </row>
-    <row r="176" spans="3:40">
+    <row r="176" spans="3:40" x14ac:dyDescent="0.2">
       <c r="AA176" s="73"/>
       <c r="AB176" s="73"/>
       <c r="AC176" s="73"/>
@@ -9297,7 +9297,7 @@
       <c r="AM176" s="4"/>
       <c r="AN176" s="4"/>
     </row>
-    <row r="177" spans="7:40">
+    <row r="177" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AA177" s="73"/>
       <c r="AB177" s="73"/>
       <c r="AC177" s="73"/>
@@ -9313,7 +9313,7 @@
       <c r="AM177" s="4"/>
       <c r="AN177" s="4"/>
     </row>
-    <row r="178" spans="7:40">
+    <row r="178" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G178" t="s">
         <v>134</v>
       </c>
@@ -9349,7 +9349,7 @@
       <c r="AM178" s="4"/>
       <c r="AN178" s="4"/>
     </row>
-    <row r="179" spans="7:40">
+    <row r="179" spans="7:40" x14ac:dyDescent="0.2">
       <c r="H179" s="30" t="s">
         <v>185</v>
       </c>
@@ -9374,7 +9374,7 @@
       <c r="AM179" s="4"/>
       <c r="AN179" s="4"/>
     </row>
-    <row r="180" spans="7:40">
+    <row r="180" spans="7:40" x14ac:dyDescent="0.2">
       <c r="H180" t="s">
         <v>126</v>
       </c>
@@ -9399,7 +9399,7 @@
       <c r="AM180" s="4"/>
       <c r="AN180" s="4"/>
     </row>
-    <row r="181" spans="7:40">
+    <row r="181" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AA181" s="73"/>
       <c r="AB181" s="73"/>
       <c r="AC181" s="73"/>
@@ -9415,7 +9415,7 @@
       <c r="AM181" s="4"/>
       <c r="AN181" s="4"/>
     </row>
-    <row r="182" spans="7:40" ht="24">
+    <row r="182" spans="7:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="I182" t="s">
         <v>2</v>
       </c>
@@ -9444,7 +9444,7 @@
       <c r="AM182" s="4"/>
       <c r="AN182" s="4"/>
     </row>
-    <row r="183" spans="7:40">
+    <row r="183" spans="7:40" x14ac:dyDescent="0.2">
       <c r="J183" s="30" t="s">
         <v>26</v>
       </c>
@@ -9486,7 +9486,7 @@
       <c r="AM183" s="4"/>
       <c r="AN183" s="4"/>
     </row>
-    <row r="184" spans="7:40">
+    <row r="184" spans="7:40" x14ac:dyDescent="0.2">
       <c r="J184" s="30" t="s">
         <v>27</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="AM184" s="4"/>
       <c r="AN184" s="4"/>
     </row>
-    <row r="185" spans="7:40">
+    <row r="185" spans="7:40" x14ac:dyDescent="0.2">
       <c r="I185" t="s">
         <v>24</v>
       </c>
@@ -9556,7 +9556,7 @@
       <c r="AM185" s="4"/>
       <c r="AN185" s="4"/>
     </row>
-    <row r="186" spans="7:40">
+    <row r="186" spans="7:40" x14ac:dyDescent="0.2">
       <c r="J186" t="s">
         <v>24</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="AM186" s="4"/>
       <c r="AN186" s="4"/>
     </row>
-    <row r="187" spans="7:40">
+    <row r="187" spans="7:40" x14ac:dyDescent="0.2">
       <c r="J187" t="s">
         <v>143</v>
       </c>
@@ -9612,7 +9612,7 @@
       <c r="AM187" s="4"/>
       <c r="AN187" s="4"/>
     </row>
-    <row r="188" spans="7:40">
+    <row r="188" spans="7:40" x14ac:dyDescent="0.2">
       <c r="I188" s="30" t="s">
         <v>23</v>
       </c>
@@ -9654,7 +9654,7 @@
       <c r="AM188" s="4"/>
       <c r="AN188" s="4"/>
     </row>
-    <row r="189" spans="7:40">
+    <row r="189" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AA189" s="73"/>
       <c r="AB189" s="73"/>
       <c r="AC189" s="73"/>
@@ -9678,7 +9678,7 @@
       <c r="AM189" s="4"/>
       <c r="AN189" s="4"/>
     </row>
-    <row r="190" spans="7:40" ht="60">
+    <row r="190" spans="7:40" ht="76.5" x14ac:dyDescent="0.2">
       <c r="I190" t="s">
         <v>32</v>
       </c>
@@ -9711,7 +9711,7 @@
       <c r="AM190" s="4"/>
       <c r="AN190" s="4"/>
     </row>
-    <row r="191" spans="7:40">
+    <row r="191" spans="7:40" x14ac:dyDescent="0.2">
       <c r="J191" s="30" t="s">
         <v>24</v>
       </c>
@@ -9750,7 +9750,7 @@
       <c r="AM191" s="4"/>
       <c r="AN191" s="4"/>
     </row>
-    <row r="192" spans="7:40">
+    <row r="192" spans="7:40" x14ac:dyDescent="0.2">
       <c r="J192" s="30" t="s">
         <v>28</v>
       </c>
@@ -9786,7 +9786,7 @@
       <c r="AM192" s="4"/>
       <c r="AN192" s="4"/>
     </row>
-    <row r="193" spans="9:41">
+    <row r="193" spans="9:41" x14ac:dyDescent="0.2">
       <c r="J193" s="30" t="s">
         <v>312</v>
       </c>
@@ -9823,7 +9823,7 @@
       <c r="AM193" s="4"/>
       <c r="AN193" s="4"/>
     </row>
-    <row r="194" spans="9:41">
+    <row r="194" spans="9:41" x14ac:dyDescent="0.2">
       <c r="J194" s="30" t="s">
         <v>346</v>
       </c>
@@ -9857,7 +9857,7 @@
       <c r="AM194" s="4"/>
       <c r="AN194" s="4"/>
     </row>
-    <row r="195" spans="9:41" ht="48">
+    <row r="195" spans="9:41" ht="51" x14ac:dyDescent="0.2">
       <c r="J195" s="30"/>
       <c r="R195" s="48"/>
       <c r="T195" s="35"/>
@@ -9888,7 +9888,7 @@
       <c r="AM195" s="4"/>
       <c r="AN195" s="4"/>
     </row>
-    <row r="196" spans="9:41">
+    <row r="196" spans="9:41" x14ac:dyDescent="0.2">
       <c r="J196" s="30"/>
       <c r="R196" s="48"/>
       <c r="T196" s="35"/>
@@ -9909,7 +9909,7 @@
       <c r="AN196" s="4"/>
       <c r="AO196" s="4"/>
     </row>
-    <row r="197" spans="9:41">
+    <row r="197" spans="9:41" x14ac:dyDescent="0.2">
       <c r="J197" s="30"/>
       <c r="R197" s="48"/>
       <c r="T197" s="35"/>
@@ -9930,7 +9930,7 @@
       <c r="AN197" s="4"/>
       <c r="AO197" s="4"/>
     </row>
-    <row r="198" spans="9:41">
+    <row r="198" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I198" s="4" t="s">
         <v>134</v>
       </c>
@@ -9959,7 +9959,7 @@
       <c r="AN198" s="4"/>
       <c r="AO198" s="4"/>
     </row>
-    <row r="199" spans="9:41">
+    <row r="199" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I199" s="4"/>
       <c r="J199" s="5" t="s">
         <v>185</v>
@@ -9989,7 +9989,7 @@
       <c r="AN199" s="4"/>
       <c r="AO199" s="4"/>
     </row>
-    <row r="200" spans="9:41">
+    <row r="200" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I200" s="5"/>
       <c r="J200" s="5" t="s">
         <v>135</v>
@@ -10015,7 +10015,7 @@
       <c r="AN200" s="4"/>
       <c r="AO200" s="4"/>
     </row>
-    <row r="201" spans="9:41">
+    <row r="201" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I201" s="5"/>
       <c r="J201" s="4"/>
       <c r="K201" s="4" t="s">
@@ -10043,7 +10043,7 @@
       <c r="AN201" s="4"/>
       <c r="AO201" s="4"/>
     </row>
-    <row r="202" spans="9:41">
+    <row r="202" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I202" s="5"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
@@ -10071,7 +10071,7 @@
       <c r="AN202" s="4"/>
       <c r="AO202" s="4"/>
     </row>
-    <row r="203" spans="9:41">
+    <row r="203" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
@@ -10101,7 +10101,7 @@
       <c r="AM203" s="4"/>
       <c r="AN203" s="4"/>
     </row>
-    <row r="204" spans="9:41" ht="36">
+    <row r="204" spans="9:41" ht="38.25" x14ac:dyDescent="0.2">
       <c r="K204" t="s">
         <v>32</v>
       </c>
@@ -10140,7 +10140,7 @@
       <c r="AM204" s="4"/>
       <c r="AN204" s="4"/>
     </row>
-    <row r="205" spans="9:41">
+    <row r="205" spans="9:41" x14ac:dyDescent="0.2">
       <c r="J205" s="30"/>
       <c r="R205" s="48"/>
       <c r="T205" s="35"/>
@@ -10160,7 +10160,7 @@
       <c r="AM205" s="4"/>
       <c r="AN205" s="4"/>
     </row>
-    <row r="206" spans="9:41">
+    <row r="206" spans="9:41" x14ac:dyDescent="0.2">
       <c r="J206" s="30"/>
       <c r="R206" s="48"/>
       <c r="T206" s="35"/>
@@ -10180,7 +10180,7 @@
       <c r="AM206" s="4"/>
       <c r="AN206" s="4"/>
     </row>
-    <row r="207" spans="9:41">
+    <row r="207" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I207" s="4" t="s">
         <v>134</v>
       </c>
@@ -10207,7 +10207,7 @@
       <c r="AM207" s="4"/>
       <c r="AN207" s="4"/>
     </row>
-    <row r="208" spans="9:41">
+    <row r="208" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I208" s="4"/>
       <c r="J208" s="5" t="s">
         <v>185</v>
@@ -10236,7 +10236,7 @@
       <c r="AM208" s="4"/>
       <c r="AN208" s="4"/>
     </row>
-    <row r="209" spans="9:40">
+    <row r="209" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I209" s="5"/>
       <c r="J209" s="5" t="s">
         <v>135</v>
@@ -10261,7 +10261,7 @@
       <c r="AM209" s="4"/>
       <c r="AN209" s="4"/>
     </row>
-    <row r="210" spans="9:40">
+    <row r="210" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I210" s="5"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4" t="s">
@@ -10288,7 +10288,7 @@
       <c r="AM210" s="4"/>
       <c r="AN210" s="4"/>
     </row>
-    <row r="211" spans="9:40">
+    <row r="211" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I211" s="5"/>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
@@ -10315,7 +10315,7 @@
       <c r="AM211" s="4"/>
       <c r="AN211" s="4"/>
     </row>
-    <row r="212" spans="9:40">
+    <row r="212" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
@@ -10345,7 +10345,7 @@
       <c r="AM212" s="4"/>
       <c r="AN212" s="4"/>
     </row>
-    <row r="213" spans="9:40">
+    <row r="213" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K213" t="s">
         <v>32</v>
       </c>
@@ -10384,7 +10384,7 @@
       <c r="AM213" s="4"/>
       <c r="AN213" s="4"/>
     </row>
-    <row r="214" spans="9:40">
+    <row r="214" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA214" s="73"/>
       <c r="AB214" s="73"/>
       <c r="AC214" s="73"/>
@@ -10400,7 +10400,7 @@
       <c r="AM214" s="4"/>
       <c r="AN214" s="4"/>
     </row>
-    <row r="215" spans="9:40">
+    <row r="215" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I215" t="s">
         <v>146</v>
       </c>
@@ -10422,7 +10422,7 @@
       <c r="AM215" s="4"/>
       <c r="AN215" s="4"/>
     </row>
-    <row r="216" spans="9:40">
+    <row r="216" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J216" t="s">
         <v>147</v>
       </c>
@@ -10444,7 +10444,7 @@
       <c r="AM216" s="4"/>
       <c r="AN216" s="4"/>
     </row>
-    <row r="217" spans="9:40">
+    <row r="217" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K217" t="s">
         <v>148</v>
       </c>
@@ -10466,7 +10466,7 @@
       <c r="AM217" s="4"/>
       <c r="AN217" s="4"/>
     </row>
-    <row r="218" spans="9:40" ht="48">
+    <row r="218" spans="9:40" ht="51" x14ac:dyDescent="0.2">
       <c r="L218" t="s">
         <v>149</v>
       </c>
@@ -10508,7 +10508,7 @@
       <c r="AM218" s="4"/>
       <c r="AN218" s="4"/>
     </row>
-    <row r="219" spans="9:40">
+    <row r="219" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA219" s="73"/>
       <c r="AB219" s="73"/>
       <c r="AC219" s="73"/>
@@ -10524,7 +10524,7 @@
       <c r="AM219" s="4"/>
       <c r="AN219" s="4"/>
     </row>
-    <row r="220" spans="9:40">
+    <row r="220" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA220" s="73"/>
       <c r="AB220" s="73"/>
       <c r="AC220" s="73"/>
@@ -10540,7 +10540,7 @@
       <c r="AM220" s="4"/>
       <c r="AN220" s="4"/>
     </row>
-    <row r="221" spans="9:40">
+    <row r="221" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I221" t="s">
         <v>134</v>
       </c>
@@ -10562,7 +10562,7 @@
       <c r="AM221" s="4"/>
       <c r="AN221" s="4"/>
     </row>
-    <row r="222" spans="9:40">
+    <row r="222" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J222" s="30" t="s">
         <v>185</v>
       </c>
@@ -10587,7 +10587,7 @@
       <c r="AM222" s="4"/>
       <c r="AN222" s="4"/>
     </row>
-    <row r="223" spans="9:40">
+    <row r="223" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J223" t="s">
         <v>126</v>
       </c>
@@ -10609,7 +10609,7 @@
       <c r="AM223" s="4"/>
       <c r="AN223" s="4"/>
     </row>
-    <row r="224" spans="9:40">
+    <row r="224" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K224" t="s">
         <v>24</v>
       </c>
@@ -10634,7 +10634,7 @@
       <c r="AM224" s="4"/>
       <c r="AN224" s="4"/>
     </row>
-    <row r="225" spans="9:40">
+    <row r="225" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L225" t="s">
         <v>24</v>
       </c>
@@ -10660,7 +10660,7 @@
       <c r="AM225" s="4"/>
       <c r="AN225" s="4"/>
     </row>
-    <row r="226" spans="9:40">
+    <row r="226" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L226" t="s">
         <v>143</v>
       </c>
@@ -10689,7 +10689,7 @@
       <c r="AM226" s="4"/>
       <c r="AN226" s="4"/>
     </row>
-    <row r="227" spans="9:40">
+    <row r="227" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K227" t="s">
         <v>32</v>
       </c>
@@ -10728,7 +10728,7 @@
       <c r="AM227" s="4"/>
       <c r="AN227" s="4"/>
     </row>
-    <row r="228" spans="9:40">
+    <row r="228" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA228" s="73"/>
       <c r="AB228" s="73"/>
       <c r="AC228" s="73"/>
@@ -10744,7 +10744,7 @@
       <c r="AM228" s="4"/>
       <c r="AN228" s="4"/>
     </row>
-    <row r="229" spans="9:40">
+    <row r="229" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I229" t="s">
         <v>134</v>
       </c>
@@ -10783,7 +10783,7 @@
       <c r="AM229" s="4"/>
       <c r="AN229" s="4"/>
     </row>
-    <row r="230" spans="9:40">
+    <row r="230" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J230" s="30" t="s">
         <v>185</v>
       </c>
@@ -10808,7 +10808,7 @@
       <c r="AM230" s="4"/>
       <c r="AN230" s="4"/>
     </row>
-    <row r="231" spans="9:40">
+    <row r="231" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J231" t="s">
         <v>126</v>
       </c>
@@ -10827,7 +10827,7 @@
       <c r="AM231" s="4"/>
       <c r="AN231" s="4"/>
     </row>
-    <row r="232" spans="9:40">
+    <row r="232" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K232" t="s">
         <v>2</v>
       </c>
@@ -10853,7 +10853,7 @@
       <c r="AM232" s="4"/>
       <c r="AN232" s="4"/>
     </row>
-    <row r="233" spans="9:40">
+    <row r="233" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L233" t="s">
         <v>24</v>
       </c>
@@ -10892,7 +10892,7 @@
       <c r="AM233" s="4"/>
       <c r="AN233" s="4"/>
     </row>
-    <row r="234" spans="9:40">
+    <row r="234" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L234" t="s">
         <v>140</v>
       </c>
@@ -10929,7 +10929,7 @@
       <c r="AM234" s="4"/>
       <c r="AN234" s="4"/>
     </row>
-    <row r="235" spans="9:40">
+    <row r="235" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K235" t="s">
         <v>24</v>
       </c>
@@ -10962,7 +10962,7 @@
       <c r="AM235" s="4"/>
       <c r="AN235" s="4"/>
     </row>
-    <row r="236" spans="9:40">
+    <row r="236" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L236" t="s">
         <v>24</v>
       </c>
@@ -10990,7 +10990,7 @@
       <c r="AM236" s="4"/>
       <c r="AN236" s="4"/>
     </row>
-    <row r="237" spans="9:40">
+    <row r="237" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L237" t="s">
         <v>143</v>
       </c>
@@ -11018,7 +11018,7 @@
       <c r="AM237" s="4"/>
       <c r="AN237" s="4"/>
     </row>
-    <row r="238" spans="9:40">
+    <row r="238" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA238" s="73"/>
       <c r="AB238" s="73"/>
       <c r="AC238" s="73"/>
@@ -11034,7 +11034,7 @@
       <c r="AM238" s="4"/>
       <c r="AN238" s="4"/>
     </row>
-    <row r="239" spans="9:40">
+    <row r="239" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA239" s="73"/>
       <c r="AB239" s="73"/>
       <c r="AC239" s="73"/>
@@ -11050,7 +11050,7 @@
       <c r="AM239" s="4"/>
       <c r="AN239" s="4"/>
     </row>
-    <row r="240" spans="9:40">
+    <row r="240" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA240" s="73"/>
       <c r="AB240" s="73"/>
       <c r="AC240" s="73"/>
@@ -11066,7 +11066,7 @@
       <c r="AM240" s="4"/>
       <c r="AN240" s="4"/>
     </row>
-    <row r="241" spans="9:40">
+    <row r="241" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I241" t="s">
         <v>134</v>
       </c>
@@ -11088,7 +11088,7 @@
       <c r="AM241" s="4"/>
       <c r="AN241" s="4"/>
     </row>
-    <row r="242" spans="9:40">
+    <row r="242" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J242" s="30" t="s">
         <v>185</v>
       </c>
@@ -11113,7 +11113,7 @@
       <c r="AM242" s="4"/>
       <c r="AN242" s="4"/>
     </row>
-    <row r="243" spans="9:40">
+    <row r="243" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J243" t="s">
         <v>126</v>
       </c>
@@ -11149,7 +11149,7 @@
       <c r="AM243" s="4"/>
       <c r="AN243" s="4"/>
     </row>
-    <row r="244" spans="9:40">
+    <row r="244" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K244" t="s">
         <v>24</v>
       </c>
@@ -11174,7 +11174,7 @@
       <c r="AM244" s="4"/>
       <c r="AN244" s="4"/>
     </row>
-    <row r="245" spans="9:40">
+    <row r="245" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L245" t="s">
         <v>24</v>
       </c>
@@ -11200,7 +11200,7 @@
       <c r="AM245" s="4"/>
       <c r="AN245" s="4"/>
     </row>
-    <row r="246" spans="9:40" ht="34.5" customHeight="1">
+    <row r="246" spans="9:40" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K246" s="30"/>
       <c r="L246" t="s">
         <v>143</v>
@@ -11229,7 +11229,7 @@
       <c r="AM246" s="4"/>
       <c r="AN246" s="4"/>
     </row>
-    <row r="247" spans="9:40" ht="34.5" customHeight="1">
+    <row r="247" spans="9:40" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K247" t="s">
         <v>23</v>
       </c>
@@ -11260,7 +11260,7 @@
       <c r="AM247" s="4"/>
       <c r="AN247" s="4"/>
     </row>
-    <row r="248" spans="9:40" ht="34.5" customHeight="1">
+    <row r="248" spans="9:40" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K248" s="30" t="s">
         <v>32</v>
       </c>
@@ -11303,7 +11303,7 @@
       <c r="AM248" s="4"/>
       <c r="AN248" s="4"/>
     </row>
-    <row r="249" spans="9:40" ht="34.5" customHeight="1">
+    <row r="249" spans="9:40" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K249" s="30"/>
       <c r="L249" s="35" t="s">
         <v>352</v>
@@ -11331,7 +11331,7 @@
       <c r="AM249" s="4"/>
       <c r="AN249" s="4"/>
     </row>
-    <row r="250" spans="9:40" ht="34.5" customHeight="1">
+    <row r="250" spans="9:40" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K250" s="30"/>
       <c r="L250" s="35" t="s">
         <v>353</v>
@@ -11359,7 +11359,7 @@
       <c r="AM250" s="4"/>
       <c r="AN250" s="4"/>
     </row>
-    <row r="251" spans="9:40">
+    <row r="251" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K251" s="30" t="s">
         <v>32</v>
       </c>
@@ -11400,7 +11400,7 @@
       <c r="AM251" s="4"/>
       <c r="AN251" s="4"/>
     </row>
-    <row r="252" spans="9:40">
+    <row r="252" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K252" s="30"/>
       <c r="L252" s="35"/>
       <c r="Q252" s="30"/>
@@ -11433,7 +11433,7 @@
       <c r="AM252" s="4"/>
       <c r="AN252" s="4"/>
     </row>
-    <row r="253" spans="9:40" ht="36">
+    <row r="253" spans="9:40" ht="38.25" x14ac:dyDescent="0.2">
       <c r="K253" s="30" t="s">
         <v>155</v>
       </c>
@@ -11472,7 +11472,7 @@
       <c r="AM253" s="4"/>
       <c r="AN253" s="4"/>
     </row>
-    <row r="254" spans="9:40">
+    <row r="254" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L254" s="30" t="s">
         <v>24</v>
       </c>
@@ -11500,7 +11500,7 @@
       <c r="AM254" s="4"/>
       <c r="AN254" s="4"/>
     </row>
-    <row r="255" spans="9:40">
+    <row r="255" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K255" s="30"/>
       <c r="L255" s="30" t="s">
         <v>143</v>
@@ -11526,7 +11526,7 @@
       <c r="AM255" s="4"/>
       <c r="AN255" s="4"/>
     </row>
-    <row r="256" spans="9:40">
+    <row r="256" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K256" s="4" t="s">
         <v>134</v>
       </c>
@@ -11553,7 +11553,7 @@
       <c r="AM256" s="4"/>
       <c r="AN256" s="4"/>
     </row>
-    <row r="257" spans="5:40">
+    <row r="257" spans="5:40" x14ac:dyDescent="0.2">
       <c r="K257" s="4"/>
       <c r="L257" s="5" t="s">
         <v>185</v>
@@ -11582,7 +11582,7 @@
       <c r="AM257" s="4"/>
       <c r="AN257" s="4"/>
     </row>
-    <row r="258" spans="5:40">
+    <row r="258" spans="5:40" x14ac:dyDescent="0.2">
       <c r="K258" s="5"/>
       <c r="L258" s="5" t="s">
         <v>135</v>
@@ -11607,7 +11607,7 @@
       <c r="AM258" s="4"/>
       <c r="AN258" s="4"/>
     </row>
-    <row r="259" spans="5:40">
+    <row r="259" spans="5:40" x14ac:dyDescent="0.2">
       <c r="K259" s="5"/>
       <c r="L259" s="4"/>
       <c r="M259" s="4" t="s">
@@ -11634,7 +11634,7 @@
       <c r="AM259" s="4"/>
       <c r="AN259" s="4"/>
     </row>
-    <row r="260" spans="5:40">
+    <row r="260" spans="5:40" x14ac:dyDescent="0.2">
       <c r="K260" s="5"/>
       <c r="L260" s="4"/>
       <c r="M260" s="4"/>
@@ -11663,7 +11663,7 @@
       <c r="AM260" s="4"/>
       <c r="AN260" s="4"/>
     </row>
-    <row r="261" spans="5:40">
+    <row r="261" spans="5:40" x14ac:dyDescent="0.2">
       <c r="K261" s="4"/>
       <c r="L261" s="4"/>
       <c r="M261" s="4"/>
@@ -11695,7 +11695,7 @@
       <c r="AM261" s="4"/>
       <c r="AN261" s="4"/>
     </row>
-    <row r="262" spans="5:40">
+    <row r="262" spans="5:40" x14ac:dyDescent="0.2">
       <c r="M262" t="s">
         <v>32</v>
       </c>
@@ -11734,7 +11734,7 @@
       <c r="AM262" s="4"/>
       <c r="AN262" s="4"/>
     </row>
-    <row r="263" spans="5:40">
+    <row r="263" spans="5:40" x14ac:dyDescent="0.2">
       <c r="AA263" s="73"/>
       <c r="AB263" s="73"/>
       <c r="AC263" s="73"/>
@@ -11750,7 +11750,7 @@
       <c r="AM263" s="4"/>
       <c r="AN263" s="4"/>
     </row>
-    <row r="264" spans="5:40">
+    <row r="264" spans="5:40" x14ac:dyDescent="0.2">
       <c r="K264" s="30" t="s">
         <v>159</v>
       </c>
@@ -11772,7 +11772,7 @@
       <c r="AM264" s="4"/>
       <c r="AN264" s="4"/>
     </row>
-    <row r="265" spans="5:40">
+    <row r="265" spans="5:40" x14ac:dyDescent="0.2">
       <c r="K265" s="30"/>
       <c r="L265" s="30" t="s">
         <v>185</v>
@@ -11796,7 +11796,7 @@
       <c r="AM265" s="4"/>
       <c r="AN265" s="4"/>
     </row>
-    <row r="266" spans="5:40">
+    <row r="266" spans="5:40" x14ac:dyDescent="0.2">
       <c r="L266" s="30" t="s">
         <v>160</v>
       </c>
@@ -11829,7 +11829,7 @@
       <c r="AM266" s="4"/>
       <c r="AN266" s="4"/>
     </row>
-    <row r="267" spans="5:40">
+    <row r="267" spans="5:40" x14ac:dyDescent="0.2">
       <c r="M267" s="30" t="s">
         <v>118</v>
       </c>
@@ -11871,7 +11871,7 @@
       <c r="AM267" s="4"/>
       <c r="AN267" s="4"/>
     </row>
-    <row r="268" spans="5:40">
+    <row r="268" spans="5:40" x14ac:dyDescent="0.2">
       <c r="M268" s="30" t="s">
         <v>32</v>
       </c>
@@ -11902,7 +11902,7 @@
       <c r="AM268" s="4"/>
       <c r="AN268" s="4"/>
     </row>
-    <row r="269" spans="5:40">
+    <row r="269" spans="5:40" x14ac:dyDescent="0.2">
       <c r="AA269" s="73"/>
       <c r="AB269" s="73"/>
       <c r="AC269" s="73"/>
@@ -11918,7 +11918,7 @@
       <c r="AM269" s="4"/>
       <c r="AN269" s="4"/>
     </row>
-    <row r="270" spans="5:40">
+    <row r="270" spans="5:40" x14ac:dyDescent="0.2">
       <c r="AA270" s="73"/>
       <c r="AB270" s="73"/>
       <c r="AC270" s="73"/>
@@ -11934,7 +11934,7 @@
       <c r="AM270" s="4"/>
       <c r="AN270" s="4"/>
     </row>
-    <row r="271" spans="5:40">
+    <row r="271" spans="5:40" x14ac:dyDescent="0.2">
       <c r="AA271" s="73"/>
       <c r="AB271" s="73"/>
       <c r="AC271" s="73"/>
@@ -11950,7 +11950,7 @@
       <c r="AM271" s="4"/>
       <c r="AN271" s="4"/>
     </row>
-    <row r="272" spans="5:40">
+    <row r="272" spans="5:40" x14ac:dyDescent="0.2">
       <c r="E272" s="30" t="s">
         <v>21</v>
       </c>
@@ -11972,7 +11972,7 @@
       <c r="AM272" s="4"/>
       <c r="AN272" s="4"/>
     </row>
-    <row r="273" spans="5:40">
+    <row r="273" spans="5:40" x14ac:dyDescent="0.2">
       <c r="E273" s="30"/>
       <c r="F273" s="30" t="s">
         <v>226</v>
@@ -11995,7 +11995,7 @@
       <c r="AM273" s="4"/>
       <c r="AN273" s="4"/>
     </row>
-    <row r="274" spans="5:40">
+    <row r="274" spans="5:40" x14ac:dyDescent="0.2">
       <c r="E274" s="30"/>
       <c r="G274" s="30" t="s">
         <v>24</v>
@@ -12022,7 +12022,7 @@
       <c r="AM274" s="4"/>
       <c r="AN274" s="4"/>
     </row>
-    <row r="275" spans="5:40">
+    <row r="275" spans="5:40" x14ac:dyDescent="0.2">
       <c r="E275" s="30"/>
       <c r="H275" s="30" t="s">
         <v>24</v>
@@ -12049,7 +12049,7 @@
       <c r="AM275" s="4"/>
       <c r="AN275" s="4"/>
     </row>
-    <row r="276" spans="5:40">
+    <row r="276" spans="5:40" x14ac:dyDescent="0.2">
       <c r="E276" s="30"/>
       <c r="H276" s="30" t="s">
         <v>28</v>
@@ -12078,7 +12078,7 @@
       <c r="AM276" s="4"/>
       <c r="AN276" s="4"/>
     </row>
-    <row r="277" spans="5:40">
+    <row r="277" spans="5:40" x14ac:dyDescent="0.2">
       <c r="E277" s="30"/>
       <c r="T277" s="30"/>
       <c r="AA277" s="73"/>
@@ -12096,7 +12096,7 @@
       <c r="AM277" s="4"/>
       <c r="AN277" s="4"/>
     </row>
-    <row r="278" spans="5:40">
+    <row r="278" spans="5:40" x14ac:dyDescent="0.2">
       <c r="E278" s="30"/>
       <c r="T278" s="30"/>
       <c r="AA278" s="73"/>
@@ -12114,7 +12114,7 @@
       <c r="AM278" s="4"/>
       <c r="AN278" s="4"/>
     </row>
-    <row r="279" spans="5:40">
+    <row r="279" spans="5:40" x14ac:dyDescent="0.2">
       <c r="G279" s="5" t="s">
         <v>125</v>
       </c>
@@ -12138,7 +12138,7 @@
       <c r="AM279" s="4"/>
       <c r="AN279" s="4"/>
     </row>
-    <row r="280" spans="5:40">
+    <row r="280" spans="5:40" x14ac:dyDescent="0.2">
       <c r="G280" s="4"/>
       <c r="H280" s="5" t="s">
         <v>185</v>
@@ -12165,7 +12165,7 @@
       <c r="AM280" s="4"/>
       <c r="AN280" s="4"/>
     </row>
-    <row r="281" spans="5:40">
+    <row r="281" spans="5:40" x14ac:dyDescent="0.2">
       <c r="H281" s="30" t="s">
         <v>135</v>
       </c>
@@ -12184,7 +12184,7 @@
       <c r="AM281" s="4"/>
       <c r="AN281" s="4"/>
     </row>
-    <row r="282" spans="5:40">
+    <row r="282" spans="5:40" x14ac:dyDescent="0.2">
       <c r="I282" s="4" t="s">
         <v>24</v>
       </c>
@@ -12213,7 +12213,7 @@
       <c r="AM282" s="4"/>
       <c r="AN282" s="4"/>
     </row>
-    <row r="283" spans="5:40">
+    <row r="283" spans="5:40" x14ac:dyDescent="0.2">
       <c r="I283" s="4"/>
       <c r="J283" s="5" t="s">
         <v>24</v>
@@ -12239,7 +12239,7 @@
       <c r="AM283" s="4"/>
       <c r="AN283" s="4"/>
     </row>
-    <row r="284" spans="5:40">
+    <row r="284" spans="5:40" x14ac:dyDescent="0.2">
       <c r="I284" s="4"/>
       <c r="J284" s="5" t="s">
         <v>28</v>
@@ -12255,14 +12255,14 @@
       <c r="V284" s="32"/>
       <c r="AA284" s="73"/>
       <c r="AB284" s="73"/>
-      <c r="AC284" s="82" t="s">
+      <c r="AC284" s="68" t="s">
         <v>426</v>
       </c>
       <c r="AD284" s="73"/>
       <c r="AE284" s="73"/>
       <c r="AF284" s="73"/>
       <c r="AG284" s="73"/>
-      <c r="AH284" s="56" t="s">
+      <c r="AH284" s="55" t="s">
         <v>427</v>
       </c>
       <c r="AI284" s="73"/>
@@ -12276,7 +12276,7 @@
       <c r="AM284" s="4"/>
       <c r="AN284" s="4"/>
     </row>
-    <row r="285" spans="5:40">
+    <row r="285" spans="5:40" x14ac:dyDescent="0.2">
       <c r="I285" s="30" t="s">
         <v>2</v>
       </c>
@@ -12292,7 +12292,7 @@
       <c r="AA285" s="73"/>
       <c r="AB285" s="73"/>
       <c r="AC285" s="73"/>
-      <c r="AD285" s="82" t="s">
+      <c r="AD285" s="68" t="s">
         <v>428</v>
       </c>
       <c r="AE285" s="73"/>
@@ -12312,7 +12312,7 @@
       <c r="AM285" s="4"/>
       <c r="AN285" s="4"/>
     </row>
-    <row r="286" spans="5:40">
+    <row r="286" spans="5:40" x14ac:dyDescent="0.2">
       <c r="I286" s="30"/>
       <c r="J286" s="30" t="s">
         <v>26</v>
@@ -12345,7 +12345,7 @@
       <c r="AM286" s="4"/>
       <c r="AN286" s="4"/>
     </row>
-    <row r="287" spans="5:40">
+    <row r="287" spans="5:40" x14ac:dyDescent="0.2">
       <c r="I287" s="30"/>
       <c r="J287" s="30" t="s">
         <v>27</v>
@@ -12379,7 +12379,7 @@
       <c r="AM287" s="4"/>
       <c r="AN287" s="4"/>
     </row>
-    <row r="288" spans="5:40">
+    <row r="288" spans="5:40" x14ac:dyDescent="0.2">
       <c r="I288" s="30"/>
       <c r="Q288" s="30"/>
       <c r="S288" s="30"/>
@@ -12400,7 +12400,7 @@
       <c r="AM288" s="4"/>
       <c r="AN288" s="4"/>
     </row>
-    <row r="289" spans="8:40">
+    <row r="289" spans="8:40" x14ac:dyDescent="0.2">
       <c r="I289" s="30" t="s">
         <v>32</v>
       </c>
@@ -12425,7 +12425,7 @@
       <c r="AA289" s="73"/>
       <c r="AB289" s="73"/>
       <c r="AC289" s="73"/>
-      <c r="AD289" s="82" t="s">
+      <c r="AD289" s="68" t="s">
         <v>429</v>
       </c>
       <c r="AE289" s="73"/>
@@ -12445,7 +12445,7 @@
       <c r="AM289" s="4"/>
       <c r="AN289" s="4"/>
     </row>
-    <row r="290" spans="8:40">
+    <row r="290" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA290" s="73"/>
       <c r="AB290" s="73"/>
       <c r="AC290" s="73"/>
@@ -12461,7 +12461,7 @@
       <c r="AM290" s="4"/>
       <c r="AN290" s="4"/>
     </row>
-    <row r="291" spans="8:40">
+    <row r="291" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA291" s="73"/>
       <c r="AB291" s="73"/>
       <c r="AC291" s="73"/>
@@ -12477,7 +12477,7 @@
       <c r="AM291" s="4"/>
       <c r="AN291" s="4"/>
     </row>
-    <row r="292" spans="8:40">
+    <row r="292" spans="8:40" x14ac:dyDescent="0.2">
       <c r="I292" s="30"/>
       <c r="J292" s="30"/>
       <c r="K292" s="30"/>
@@ -12507,7 +12507,7 @@
       <c r="AM292" s="4"/>
       <c r="AN292" s="4"/>
     </row>
-    <row r="293" spans="8:40">
+    <row r="293" spans="8:40" x14ac:dyDescent="0.2">
       <c r="I293" s="30"/>
       <c r="J293" s="30"/>
       <c r="K293" s="30"/>
@@ -12537,7 +12537,7 @@
       <c r="AM293" s="4"/>
       <c r="AN293" s="4"/>
     </row>
-    <row r="294" spans="8:40">
+    <row r="294" spans="8:40" x14ac:dyDescent="0.2">
       <c r="I294" s="5"/>
       <c r="J294" s="30"/>
       <c r="K294" s="30"/>
@@ -12567,7 +12567,7 @@
       <c r="AM294" s="4"/>
       <c r="AN294" s="4"/>
     </row>
-    <row r="295" spans="8:40">
+    <row r="295" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H295" s="30"/>
       <c r="I295" s="5"/>
       <c r="J295" s="5"/>
@@ -12598,7 +12598,7 @@
       <c r="AM295" s="4"/>
       <c r="AN295" s="4"/>
     </row>
-    <row r="296" spans="8:40">
+    <row r="296" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H296" s="30"/>
       <c r="I296" s="30"/>
       <c r="J296" s="5"/>
@@ -12629,7 +12629,7 @@
       <c r="AM296" s="4"/>
       <c r="AN296" s="4"/>
     </row>
-    <row r="297" spans="8:40">
+    <row r="297" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H297" s="30"/>
       <c r="I297" s="30"/>
       <c r="J297" s="5"/>
@@ -12660,7 +12660,7 @@
       <c r="AM297" s="4"/>
       <c r="AN297" s="4"/>
     </row>
-    <row r="298" spans="8:40">
+    <row r="298" spans="8:40" x14ac:dyDescent="0.2">
       <c r="I298" s="30"/>
       <c r="J298" s="5"/>
       <c r="K298" s="5"/>
@@ -12690,7 +12690,7 @@
       <c r="AM298" s="4"/>
       <c r="AN298" s="4"/>
     </row>
-    <row r="299" spans="8:40">
+    <row r="299" spans="8:40" x14ac:dyDescent="0.2">
       <c r="I299" s="30"/>
       <c r="J299" s="5"/>
       <c r="K299" s="5"/>
@@ -12720,7 +12720,7 @@
       <c r="AM299" s="4"/>
       <c r="AN299" s="4"/>
     </row>
-    <row r="300" spans="8:40">
+    <row r="300" spans="8:40" x14ac:dyDescent="0.2">
       <c r="I300" s="30"/>
       <c r="J300" s="30"/>
       <c r="K300" s="5"/>
@@ -12750,7 +12750,7 @@
       <c r="AM300" s="4"/>
       <c r="AN300" s="4"/>
     </row>
-    <row r="301" spans="8:40">
+    <row r="301" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA301" s="73"/>
       <c r="AB301" s="73"/>
       <c r="AC301" s="73"/>
@@ -12766,7 +12766,7 @@
       <c r="AM301" s="4"/>
       <c r="AN301" s="4"/>
     </row>
-    <row r="302" spans="8:40">
+    <row r="302" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA302" s="73"/>
       <c r="AB302" s="73"/>
       <c r="AC302" s="73"/>
@@ -12782,7 +12782,7 @@
       <c r="AM302" s="4"/>
       <c r="AN302" s="4"/>
     </row>
-    <row r="303" spans="8:40">
+    <row r="303" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA303" s="73"/>
       <c r="AB303" s="73"/>
       <c r="AC303" s="73"/>
@@ -12798,7 +12798,7 @@
       <c r="AM303" s="4"/>
       <c r="AN303" s="4"/>
     </row>
-    <row r="304" spans="8:40">
+    <row r="304" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA304" s="73"/>
       <c r="AB304" s="73"/>
       <c r="AC304" s="73"/>
@@ -12814,7 +12814,7 @@
       <c r="AM304" s="4"/>
       <c r="AN304" s="4"/>
     </row>
-    <row r="305" spans="8:40">
+    <row r="305" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H305" s="30"/>
       <c r="AA305" s="73"/>
       <c r="AB305" s="73"/>
@@ -12831,7 +12831,7 @@
       <c r="AM305" s="4"/>
       <c r="AN305" s="4"/>
     </row>
-    <row r="306" spans="8:40">
+    <row r="306" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H306" s="30"/>
       <c r="AA306" s="73"/>
       <c r="AB306" s="73"/>
@@ -12848,7 +12848,7 @@
       <c r="AM306" s="4"/>
       <c r="AN306" s="4"/>
     </row>
-    <row r="307" spans="8:40">
+    <row r="307" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H307" s="5"/>
       <c r="AA307" s="73"/>
       <c r="AB307" s="73"/>
@@ -12865,7 +12865,7 @@
       <c r="AM307" s="4"/>
       <c r="AN307" s="4"/>
     </row>
-    <row r="308" spans="8:40">
+    <row r="308" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H308" s="5"/>
       <c r="AA308" s="73"/>
       <c r="AB308" s="73"/>
@@ -12882,7 +12882,7 @@
       <c r="AM308" s="4"/>
       <c r="AN308" s="4"/>
     </row>
-    <row r="309" spans="8:40">
+    <row r="309" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H309" s="30"/>
       <c r="AA309" s="73"/>
       <c r="AB309" s="73"/>
@@ -12899,7 +12899,7 @@
       <c r="AM309" s="4"/>
       <c r="AN309" s="4"/>
     </row>
-    <row r="310" spans="8:40">
+    <row r="310" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H310" s="30"/>
       <c r="AA310" s="73"/>
       <c r="AB310" s="73"/>
@@ -12916,7 +12916,7 @@
       <c r="AM310" s="4"/>
       <c r="AN310" s="4"/>
     </row>
-    <row r="311" spans="8:40">
+    <row r="311" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H311" s="30"/>
       <c r="AA311" s="73"/>
       <c r="AB311" s="73"/>
@@ -12933,7 +12933,7 @@
       <c r="AM311" s="4"/>
       <c r="AN311" s="4"/>
     </row>
-    <row r="312" spans="8:40">
+    <row r="312" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H312" s="30"/>
       <c r="AA312" s="73"/>
       <c r="AB312" s="73"/>
@@ -12950,7 +12950,7 @@
       <c r="AM312" s="4"/>
       <c r="AN312" s="4"/>
     </row>
-    <row r="313" spans="8:40">
+    <row r="313" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H313" s="30"/>
       <c r="AA313" s="73"/>
       <c r="AB313" s="73"/>
@@ -12967,7 +12967,7 @@
       <c r="AM313" s="4"/>
       <c r="AN313" s="4"/>
     </row>
-    <row r="314" spans="8:40">
+    <row r="314" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA314" s="73"/>
       <c r="AB314" s="73"/>
       <c r="AC314" s="73"/>
@@ -12983,7 +12983,7 @@
       <c r="AM314" s="4"/>
       <c r="AN314" s="4"/>
     </row>
-    <row r="315" spans="8:40">
+    <row r="315" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA315" s="73"/>
       <c r="AB315" s="73"/>
       <c r="AC315" s="73"/>
@@ -12999,7 +12999,7 @@
       <c r="AM315" s="4"/>
       <c r="AN315" s="4"/>
     </row>
-    <row r="316" spans="8:40">
+    <row r="316" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA316" s="73"/>
       <c r="AB316" s="73"/>
       <c r="AC316" s="73"/>
@@ -13015,7 +13015,7 @@
       <c r="AM316" s="4"/>
       <c r="AN316" s="4"/>
     </row>
-    <row r="317" spans="8:40">
+    <row r="317" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA317" s="73"/>
       <c r="AB317" s="73"/>
       <c r="AC317" s="73"/>
@@ -13031,7 +13031,7 @@
       <c r="AM317" s="4"/>
       <c r="AN317" s="4"/>
     </row>
-    <row r="318" spans="8:40">
+    <row r="318" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA318" s="73"/>
       <c r="AB318" s="73"/>
       <c r="AC318" s="73"/>
@@ -13047,7 +13047,7 @@
       <c r="AM318" s="4"/>
       <c r="AN318" s="4"/>
     </row>
-    <row r="319" spans="8:40">
+    <row r="319" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA319" s="73"/>
       <c r="AB319" s="73"/>
       <c r="AC319" s="73"/>
@@ -13063,7 +13063,7 @@
       <c r="AM319" s="4"/>
       <c r="AN319" s="4"/>
     </row>
-    <row r="320" spans="8:40">
+    <row r="320" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA320" s="73"/>
       <c r="AB320" s="73"/>
       <c r="AC320" s="73"/>
@@ -13079,7 +13079,7 @@
       <c r="AM320" s="4"/>
       <c r="AN320" s="4"/>
     </row>
-    <row r="321" spans="9:40">
+    <row r="321" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA321" s="73"/>
       <c r="AB321" s="73"/>
       <c r="AC321" s="73"/>
@@ -13095,7 +13095,7 @@
       <c r="AM321" s="4"/>
       <c r="AN321" s="4"/>
     </row>
-    <row r="322" spans="9:40">
+    <row r="322" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA322" s="73"/>
       <c r="AB322" s="73"/>
       <c r="AC322" s="73"/>
@@ -13111,7 +13111,7 @@
       <c r="AM322" s="4"/>
       <c r="AN322" s="4"/>
     </row>
-    <row r="323" spans="9:40">
+    <row r="323" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA323" s="73"/>
       <c r="AB323" s="73"/>
       <c r="AC323" s="73"/>
@@ -13127,7 +13127,7 @@
       <c r="AM323" s="4"/>
       <c r="AN323" s="4"/>
     </row>
-    <row r="324" spans="9:40">
+    <row r="324" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA324" s="73"/>
       <c r="AB324" s="73"/>
       <c r="AC324" s="73"/>
@@ -13143,7 +13143,7 @@
       <c r="AM324" s="4"/>
       <c r="AN324" s="4"/>
     </row>
-    <row r="325" spans="9:40">
+    <row r="325" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA325" s="73"/>
       <c r="AB325" s="73"/>
       <c r="AC325" s="73"/>
@@ -13159,7 +13159,7 @@
       <c r="AM325" s="4"/>
       <c r="AN325" s="4"/>
     </row>
-    <row r="326" spans="9:40">
+    <row r="326" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA326" s="73"/>
       <c r="AB326" s="73"/>
       <c r="AC326" s="73"/>
@@ -13175,7 +13175,7 @@
       <c r="AM326" s="4"/>
       <c r="AN326" s="4"/>
     </row>
-    <row r="327" spans="9:40">
+    <row r="327" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA327" s="73"/>
       <c r="AB327" s="73"/>
       <c r="AC327" s="73"/>
@@ -13191,7 +13191,7 @@
       <c r="AM327" s="4"/>
       <c r="AN327" s="4"/>
     </row>
-    <row r="328" spans="9:40">
+    <row r="328" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA328" s="73"/>
       <c r="AB328" s="73"/>
       <c r="AC328" s="73"/>
@@ -13207,7 +13207,7 @@
       <c r="AM328" s="4"/>
       <c r="AN328" s="4"/>
     </row>
-    <row r="329" spans="9:40">
+    <row r="329" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA329" s="73"/>
       <c r="AB329" s="73"/>
       <c r="AC329" s="73"/>
@@ -13223,7 +13223,7 @@
       <c r="AM329" s="4"/>
       <c r="AN329" s="4"/>
     </row>
-    <row r="330" spans="9:40">
+    <row r="330" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA330" s="73"/>
       <c r="AB330" s="73"/>
       <c r="AC330" s="73"/>
@@ -13239,7 +13239,7 @@
       <c r="AM330" s="4"/>
       <c r="AN330" s="4"/>
     </row>
-    <row r="331" spans="9:40">
+    <row r="331" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I331" s="35"/>
       <c r="J331" s="35"/>
       <c r="K331" s="35"/>
@@ -13264,7 +13264,7 @@
       <c r="AM331" s="4"/>
       <c r="AN331" s="4"/>
     </row>
-    <row r="332" spans="9:40">
+    <row r="332" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I332" s="13"/>
       <c r="J332" s="13"/>
       <c r="K332" s="13"/>
@@ -13289,7 +13289,7 @@
       <c r="AM332" s="4"/>
       <c r="AN332" s="4"/>
     </row>
-    <row r="333" spans="9:40">
+    <row r="333" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA333" s="73"/>
       <c r="AB333" s="73"/>
       <c r="AC333" s="73"/>
@@ -13305,7 +13305,7 @@
       <c r="AM333" s="4"/>
       <c r="AN333" s="4"/>
     </row>
-    <row r="334" spans="9:40">
+    <row r="334" spans="9:40" x14ac:dyDescent="0.2">
       <c r="W334" s="30"/>
       <c r="Y334" s="30"/>
       <c r="Z334" s="32"/>
@@ -13324,7 +13324,7 @@
       <c r="AM334" s="4"/>
       <c r="AN334" s="4"/>
     </row>
-    <row r="335" spans="9:40">
+    <row r="335" spans="9:40" x14ac:dyDescent="0.2">
       <c r="W335" s="30"/>
       <c r="Y335" s="30"/>
       <c r="Z335" s="32"/>
@@ -13343,7 +13343,7 @@
       <c r="AM335" s="4"/>
       <c r="AN335" s="4"/>
     </row>
-    <row r="336" spans="9:40">
+    <row r="336" spans="9:40" x14ac:dyDescent="0.2">
       <c r="W336" s="30"/>
       <c r="X336" s="69"/>
       <c r="Y336" s="30"/>
@@ -13363,7 +13363,7 @@
       <c r="AM336" s="4"/>
       <c r="AN336" s="4"/>
     </row>
-    <row r="337" spans="6:40">
+    <row r="337" spans="6:40" x14ac:dyDescent="0.2">
       <c r="W337" s="30"/>
       <c r="X337" s="69"/>
       <c r="Y337" s="30"/>
@@ -13383,7 +13383,7 @@
       <c r="AM337" s="4"/>
       <c r="AN337" s="4"/>
     </row>
-    <row r="338" spans="6:40">
+    <row r="338" spans="6:40" x14ac:dyDescent="0.2">
       <c r="W338" s="30"/>
       <c r="X338" s="69"/>
       <c r="Y338" s="30"/>
@@ -13403,7 +13403,7 @@
       <c r="AM338" s="4"/>
       <c r="AN338" s="4"/>
     </row>
-    <row r="339" spans="6:40">
+    <row r="339" spans="6:40" x14ac:dyDescent="0.2">
       <c r="W339" s="30"/>
       <c r="X339" s="69"/>
       <c r="Y339" s="30"/>
@@ -13423,7 +13423,7 @@
       <c r="AM339" s="4"/>
       <c r="AN339" s="4"/>
     </row>
-    <row r="340" spans="6:40">
+    <row r="340" spans="6:40" x14ac:dyDescent="0.2">
       <c r="W340" s="30"/>
       <c r="X340" s="69"/>
       <c r="Y340" s="30"/>
@@ -13443,7 +13443,7 @@
       <c r="AM340" s="4"/>
       <c r="AN340" s="4"/>
     </row>
-    <row r="341" spans="6:40">
+    <row r="341" spans="6:40" x14ac:dyDescent="0.2">
       <c r="W341" s="30"/>
       <c r="X341" s="69"/>
       <c r="Y341" s="30"/>
@@ -13463,7 +13463,7 @@
       <c r="AM341" s="4"/>
       <c r="AN341" s="4"/>
     </row>
-    <row r="342" spans="6:40">
+    <row r="342" spans="6:40" x14ac:dyDescent="0.2">
       <c r="W342" s="30"/>
       <c r="X342" s="69"/>
       <c r="Y342" s="30"/>
@@ -13483,7 +13483,7 @@
       <c r="AM342" s="4"/>
       <c r="AN342" s="4"/>
     </row>
-    <row r="343" spans="6:40">
+    <row r="343" spans="6:40" x14ac:dyDescent="0.2">
       <c r="I343" s="35"/>
       <c r="J343" s="35"/>
       <c r="K343" s="35"/>
@@ -13524,7 +13524,7 @@
       <c r="AM343" s="4"/>
       <c r="AN343" s="4"/>
     </row>
-    <row r="344" spans="6:40">
+    <row r="344" spans="6:40" x14ac:dyDescent="0.2">
       <c r="G344" s="35"/>
       <c r="H344" s="35"/>
       <c r="X344" s="69"/>
@@ -13543,7 +13543,7 @@
       <c r="AM344" s="4"/>
       <c r="AN344" s="4"/>
     </row>
-    <row r="345" spans="6:40">
+    <row r="345" spans="6:40" x14ac:dyDescent="0.2">
       <c r="G345" s="24"/>
       <c r="H345" s="13"/>
       <c r="X345" s="71"/>
@@ -13562,7 +13562,7 @@
       <c r="AM345" s="4"/>
       <c r="AN345" s="4"/>
     </row>
-    <row r="346" spans="6:40">
+    <row r="346" spans="6:40" x14ac:dyDescent="0.2">
       <c r="AA346" s="73"/>
       <c r="AB346" s="73"/>
       <c r="AC346" s="73"/>
@@ -13578,7 +13578,7 @@
       <c r="AM346" s="4"/>
       <c r="AN346" s="4"/>
     </row>
-    <row r="347" spans="6:40">
+    <row r="347" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F347" s="30"/>
       <c r="AA347" s="73"/>
       <c r="AB347" s="73"/>
@@ -13595,7 +13595,7 @@
       <c r="AM347" s="4"/>
       <c r="AN347" s="4"/>
     </row>
-    <row r="348" spans="6:40">
+    <row r="348" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F348" s="30"/>
       <c r="AA348" s="73"/>
       <c r="AB348" s="73"/>
@@ -13612,7 +13612,7 @@
       <c r="AM348" s="4"/>
       <c r="AN348" s="4"/>
     </row>
-    <row r="349" spans="6:40">
+    <row r="349" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F349" s="30"/>
       <c r="AA349" s="73"/>
       <c r="AB349" s="73"/>
@@ -13629,7 +13629,7 @@
       <c r="AM349" s="4"/>
       <c r="AN349" s="4"/>
     </row>
-    <row r="350" spans="6:40">
+    <row r="350" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F350" s="30"/>
       <c r="AA350" s="73"/>
       <c r="AB350" s="73"/>
@@ -13646,7 +13646,7 @@
       <c r="AM350" s="4"/>
       <c r="AN350" s="4"/>
     </row>
-    <row r="351" spans="6:40">
+    <row r="351" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F351" s="30"/>
       <c r="AA351" s="73"/>
       <c r="AB351" s="73"/>
@@ -13663,7 +13663,7 @@
       <c r="AM351" s="4"/>
       <c r="AN351" s="4"/>
     </row>
-    <row r="352" spans="6:40">
+    <row r="352" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F352" s="30"/>
       <c r="AA352" s="73"/>
       <c r="AB352" s="73"/>
@@ -13680,7 +13680,7 @@
       <c r="AM352" s="4"/>
       <c r="AN352" s="4"/>
     </row>
-    <row r="353" spans="6:40">
+    <row r="353" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F353" s="30"/>
       <c r="AA353" s="73"/>
       <c r="AB353" s="73"/>
@@ -13697,7 +13697,7 @@
       <c r="AM353" s="4"/>
       <c r="AN353" s="4"/>
     </row>
-    <row r="354" spans="6:40">
+    <row r="354" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F354" s="30"/>
       <c r="AA354" s="73"/>
       <c r="AB354" s="73"/>
@@ -13714,7 +13714,7 @@
       <c r="AM354" s="4"/>
       <c r="AN354" s="4"/>
     </row>
-    <row r="355" spans="6:40">
+    <row r="355" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F355" s="30"/>
       <c r="AA355" s="73"/>
       <c r="AB355" s="73"/>
@@ -13731,7 +13731,7 @@
       <c r="AM355" s="4"/>
       <c r="AN355" s="4"/>
     </row>
-    <row r="356" spans="6:40">
+    <row r="356" spans="6:40" x14ac:dyDescent="0.2">
       <c r="G356" s="35"/>
       <c r="H356" s="35"/>
       <c r="AA356" s="73"/>
@@ -13749,7 +13749,7 @@
       <c r="AM356" s="4"/>
       <c r="AN356" s="4"/>
     </row>
-    <row r="357" spans="6:40">
+    <row r="357" spans="6:40" x14ac:dyDescent="0.2">
       <c r="AA357" s="73"/>
       <c r="AB357" s="73"/>
       <c r="AC357" s="73"/>
@@ -13765,7 +13765,7 @@
       <c r="AM357" s="4"/>
       <c r="AN357" s="4"/>
     </row>
-    <row r="358" spans="6:40">
+    <row r="358" spans="6:40" x14ac:dyDescent="0.2">
       <c r="AA358" s="73"/>
       <c r="AB358" s="73"/>
       <c r="AC358" s="73"/>
@@ -13781,7 +13781,7 @@
       <c r="AM358" s="4"/>
       <c r="AN358" s="4"/>
     </row>
-    <row r="359" spans="6:40">
+    <row r="359" spans="6:40" x14ac:dyDescent="0.2">
       <c r="AA359" s="73"/>
       <c r="AB359" s="73"/>
       <c r="AC359" s="73"/>
@@ -13797,7 +13797,7 @@
       <c r="AM359" s="4"/>
       <c r="AN359" s="4"/>
     </row>
-    <row r="360" spans="6:40">
+    <row r="360" spans="6:40" x14ac:dyDescent="0.2">
       <c r="AA360" s="73"/>
       <c r="AB360" s="73"/>
       <c r="AC360" s="73"/>
@@ -13813,7 +13813,7 @@
       <c r="AM360" s="4"/>
       <c r="AN360" s="4"/>
     </row>
-    <row r="361" spans="6:40">
+    <row r="361" spans="6:40" x14ac:dyDescent="0.2">
       <c r="AA361" s="73"/>
       <c r="AB361" s="73"/>
       <c r="AC361" s="73"/>
@@ -13829,7 +13829,7 @@
       <c r="AM361" s="4"/>
       <c r="AN361" s="4"/>
     </row>
-    <row r="362" spans="6:40">
+    <row r="362" spans="6:40" x14ac:dyDescent="0.2">
       <c r="AA362" s="73"/>
       <c r="AB362" s="73"/>
       <c r="AC362" s="73"/>
@@ -13845,7 +13845,7 @@
       <c r="AM362" s="4"/>
       <c r="AN362" s="4"/>
     </row>
-    <row r="363" spans="6:40">
+    <row r="363" spans="6:40" x14ac:dyDescent="0.2">
       <c r="AA363" s="73"/>
       <c r="AB363" s="73"/>
       <c r="AC363" s="73"/>
@@ -13861,7 +13861,7 @@
       <c r="AM363" s="4"/>
       <c r="AN363" s="4"/>
     </row>
-    <row r="364" spans="6:40">
+    <row r="364" spans="6:40" x14ac:dyDescent="0.2">
       <c r="AA364" s="73"/>
       <c r="AB364" s="73"/>
       <c r="AC364" s="73"/>
@@ -13897,12 +13897,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" customHeight="1">
+    <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
         <v>184</v>
       </c>
@@ -13911,7 +13911,7 @@
       <c r="D1" s="93"/>
       <c r="E1" s="94"/>
     </row>
-    <row r="2" spans="1:5" ht="13">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
         <v>163</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>164</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
         <v>165</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>166</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
         <v>167</v>
       </c>
@@ -13954,7 +13954,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>168</v>
       </c>
@@ -13962,7 +13962,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
         <v>169</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
         <v>170</v>
       </c>
@@ -13978,7 +13978,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
         <v>171</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
         <v>172</v>
       </c>
@@ -13994,7 +13994,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="38"/>
     </row>
   </sheetData>

--- a/ServiceInteractions/riv/clinicalprocess/healthcond/actoutcome/trunk/docs/Bilaga MIM_Mappningar_GetLaboratoryOrderOutcome.xlsx
+++ b/ServiceInteractions/riv/clinicalprocess/healthcond/actoutcome/trunk/docs/Bilaga MIM_Mappningar_GetLaboratoryOrderOutcome.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2475" windowWidth="11385" windowHeight="4965"/>
+    <workbookView xWindow="3975" yWindow="2535" windowWidth="11385" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="CDA klinkem" sheetId="14" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="439">
   <si>
     <t>1..1</t>
   </si>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>documentTime</t>
-  </si>
-  <si>
-    <t>Information om vem som signerat informationen i dokumentet.</t>
   </si>
   <si>
     <t>careContactID</t>
@@ -1420,6 +1417,36 @@
   </si>
   <si>
     <t>referralReason</t>
+  </si>
+  <si>
+    <t>attested</t>
+  </si>
+  <si>
+    <t>Information om vidimering av enskild analys med tillhörande resultat. Finns attester är analysen vidimerad. Med vidimerat menas att information om analysen har lästs och den som läst har tagit ansvar.</t>
+  </si>
+  <si>
+    <t>Tidpunkten för vidimering</t>
+  </si>
+  <si>
+    <t>HSA-id för person som vidimerat</t>
+  </si>
+  <si>
+    <t>Namn på person som vidimerat</t>
+  </si>
+  <si>
+    <t>Information om vem som signerat informationen i dokumentet. Det är normalt laboratorieläkeren som signerar laboratoriesvar.</t>
+  </si>
+  <si>
+    <t>attestedType</t>
+  </si>
+  <si>
+    <t>attesterTime</t>
+  </si>
+  <si>
+    <t>attesterHSAId</t>
+  </si>
+  <si>
+    <t>attesterName</t>
   </si>
 </sst>
 </file>
@@ -2107,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO364"/>
+  <dimension ref="A1:AO374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="V246" workbookViewId="0">
+      <selection activeCell="AD270" sqref="AD270:AK273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2134,19 +2161,19 @@
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="Q1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R1" s="48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="V1" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="X1" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="X1" s="69" t="s">
-        <v>255</v>
-      </c>
       <c r="Z1" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AA1" s="61" t="s">
         <v>72</v>
@@ -2155,18 +2182,18 @@
         <v>84</v>
       </c>
       <c r="AI1" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ1" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="AK1" s="61" t="s">
         <v>250</v>
-      </c>
-      <c r="AJ1" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK1" s="61" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="13.5" x14ac:dyDescent="0.2">
       <c r="AA2" s="91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AB2" s="54"/>
       <c r="AC2" s="54"/>
@@ -2175,7 +2202,7 @@
       <c r="AF2" s="54"/>
       <c r="AG2" s="54"/>
       <c r="AH2" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI2" s="55"/>
       <c r="AJ2" s="77"/>
@@ -2190,7 +2217,7 @@
       </c>
       <c r="AA3" s="64"/>
       <c r="AB3" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AC3" s="54"/>
       <c r="AD3" s="54"/>
@@ -2198,7 +2225,7 @@
       <c r="AF3" s="54"/>
       <c r="AG3" s="54"/>
       <c r="AH3" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AI3" s="55"/>
       <c r="AJ3" s="77"/>
@@ -2340,7 +2367,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="Q7" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R7" s="50" t="s">
         <v>0</v>
@@ -2348,15 +2375,15 @@
       <c r="S7" s="13"/>
       <c r="T7" s="15"/>
       <c r="V7" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Z7" s="59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AA7" s="66"/>
       <c r="AB7" s="66"/>
       <c r="AC7" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AD7" s="55"/>
       <c r="AE7" s="55"/>
@@ -2370,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="55" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
@@ -2474,7 +2501,7 @@
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
       <c r="Q10" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R10" s="50" t="s">
         <v>0</v>
@@ -2516,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T11" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA11" s="52"/>
       <c r="AB11" s="52"/>
@@ -2556,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AA12" s="67"/>
       <c r="AB12" s="67"/>
@@ -2594,12 +2621,12 @@
       <c r="S13" s="19"/>
       <c r="T13" s="10"/>
       <c r="Z13" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AA13" s="67"/>
       <c r="AB13" s="67"/>
       <c r="AC13" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AD13" s="55"/>
       <c r="AE13" s="55"/>
@@ -2613,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
@@ -2668,7 +2695,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="Q15" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R15" s="50" t="s">
         <v>0</v>
@@ -2715,13 +2742,13 @@
         <v>64</v>
       </c>
       <c r="T16" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V16" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z16" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA16" s="67"/>
       <c r="AB16" s="67"/>
@@ -2740,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="72" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
@@ -2763,7 +2790,7 @@
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="Q17" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R17" s="52" t="s">
         <v>0</v>
@@ -2956,7 +2983,7 @@
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="Q22" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R22" s="52" t="s">
         <v>0</v>
@@ -2964,29 +2991,29 @@
       <c r="S22" s="13"/>
       <c r="T22" s="8"/>
       <c r="V22" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Z22" s="32" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA22" s="52"/>
       <c r="AB22" s="52"/>
       <c r="AC22" s="55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AD22" s="55"/>
       <c r="AE22" s="55"/>
       <c r="AF22" s="55"/>
       <c r="AG22" s="55"/>
       <c r="AH22" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AI22" s="72"/>
       <c r="AJ22" s="77" t="s">
         <v>75</v>
       </c>
       <c r="AK22" s="72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
@@ -3015,7 +3042,7 @@
         <v>64</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA23" s="52"/>
       <c r="AB23" s="52"/>
@@ -3034,7 +3061,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="90" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
@@ -3069,7 +3096,7 @@
       <c r="AB24" s="66"/>
       <c r="AC24" s="55"/>
       <c r="AD24" s="55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AE24" s="55"/>
       <c r="AF24" s="55"/>
@@ -3082,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
@@ -3109,26 +3136,26 @@
       </c>
       <c r="S25" s="13"/>
       <c r="T25" s="12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
       <c r="AC25" s="55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AD25" s="55"/>
       <c r="AE25" s="55"/>
       <c r="AF25" s="55"/>
       <c r="AG25" s="55"/>
       <c r="AH25" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AI25" s="55"/>
       <c r="AJ25" s="77" t="s">
         <v>0</v>
       </c>
       <c r="AK25" s="72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AL25" s="84"/>
       <c r="AM25" s="4"/>
@@ -3151,7 +3178,7 @@
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
       <c r="Q26" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R26" s="52" t="s">
         <v>0</v>
@@ -3201,16 +3228,16 @@
         <v>67</v>
       </c>
       <c r="V27" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z27" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA27" s="67"/>
       <c r="AB27" s="67"/>
       <c r="AC27" s="55"/>
       <c r="AD27" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AE27" s="55"/>
       <c r="AF27" s="55"/>
@@ -3223,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AL27" s="84"/>
       <c r="AM27" s="4"/>
@@ -3282,7 +3309,7 @@
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="Q29" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R29" s="52" t="s">
         <v>0</v>
@@ -3329,19 +3356,19 @@
         <v>64</v>
       </c>
       <c r="T30" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V30" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Z30" s="32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AA30" s="23"/>
       <c r="AB30" s="23"/>
       <c r="AC30" s="55"/>
       <c r="AD30" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE30" s="55"/>
       <c r="AF30" s="55"/>
@@ -3387,16 +3414,16 @@
         <v>70</v>
       </c>
       <c r="X31" s="71" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Z31" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA31" s="64"/>
       <c r="AB31" s="64"/>
       <c r="AC31" s="55"/>
       <c r="AD31" s="55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE31" s="55"/>
       <c r="AF31" s="55"/>
@@ -3409,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="AK31" s="72" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4"/>
@@ -3432,7 +3459,7 @@
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="Q32" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R32" s="52" t="s">
         <v>1</v>
@@ -3442,29 +3469,29 @@
         <v>69</v>
       </c>
       <c r="V32" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="Z32" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA32" s="64"/>
       <c r="AB32" s="64"/>
       <c r="AC32" s="55"/>
       <c r="AD32" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AE32" s="68"/>
       <c r="AF32" s="68"/>
       <c r="AG32" s="68"/>
       <c r="AH32" s="68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AI32" s="55"/>
       <c r="AJ32" s="77" t="s">
         <v>1</v>
       </c>
       <c r="AK32" s="72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4"/>
@@ -3493,10 +3520,10 @@
         <v>64</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z33" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AA33" s="64"/>
       <c r="AB33" s="64"/>
@@ -3515,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="AK33" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4"/>
@@ -3544,7 +3571,7 @@
         <v>64</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA34" s="67"/>
       <c r="AB34" s="67"/>
@@ -3563,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="AK34" s="55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL34" s="4"/>
       <c r="AM34" s="4"/>
@@ -3591,7 +3618,7 @@
       <c r="AC35" s="55"/>
       <c r="AD35" s="55"/>
       <c r="AE35" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF35" s="55"/>
       <c r="AG35" s="55"/>
@@ -3603,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="AK35" s="55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
@@ -3631,7 +3658,7 @@
       <c r="AC36" s="55"/>
       <c r="AD36" s="55"/>
       <c r="AE36" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF36" s="55"/>
       <c r="AG36" s="55"/>
@@ -3643,7 +3670,7 @@
         <v>1</v>
       </c>
       <c r="AK36" s="55" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4"/>
@@ -3691,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="AK37" s="55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4"/>
@@ -3723,7 +3750,7 @@
       <c r="AC38" s="55"/>
       <c r="AD38" s="55"/>
       <c r="AE38" s="55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF38" s="55"/>
       <c r="AG38" s="55"/>
@@ -3735,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="AK38" s="55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4"/>
@@ -3758,7 +3785,7 @@
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="Q39" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R39" s="52" t="s">
         <v>1</v>
@@ -3767,10 +3794,10 @@
         <v>64</v>
       </c>
       <c r="T39" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AA39" s="67"/>
       <c r="AB39" s="67"/>
@@ -3811,20 +3838,20 @@
       <c r="AB40" s="67"/>
       <c r="AC40" s="55"/>
       <c r="AD40" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AE40" s="55"/>
       <c r="AF40" s="55"/>
       <c r="AG40" s="55"/>
       <c r="AH40" s="55" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AI40" s="55"/>
       <c r="AJ40" s="77" t="s">
         <v>0</v>
       </c>
       <c r="AK40" s="72" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4"/>
@@ -3848,14 +3875,14 @@
       <c r="S41" s="13"/>
       <c r="T41" s="10"/>
       <c r="Z41" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA41" s="67"/>
       <c r="AB41" s="67"/>
       <c r="AC41" s="55"/>
       <c r="AD41" s="73"/>
       <c r="AE41" s="55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF41" s="55"/>
       <c r="AG41" s="55"/>
@@ -3867,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="AK41" s="72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4"/>
@@ -3891,14 +3918,14 @@
       <c r="S42" s="13"/>
       <c r="T42" s="10"/>
       <c r="Z42" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA42" s="67"/>
       <c r="AB42" s="67"/>
       <c r="AC42" s="55"/>
       <c r="AD42" s="73"/>
       <c r="AE42" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF42" s="55"/>
       <c r="AG42" s="55"/>
@@ -3910,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL42" s="4"/>
       <c r="AM42" s="4"/>
@@ -3934,14 +3961,14 @@
       <c r="S43" s="13"/>
       <c r="T43" s="10"/>
       <c r="Z43" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA43" s="73"/>
       <c r="AB43" s="73"/>
       <c r="AC43" s="73"/>
       <c r="AD43" s="73"/>
       <c r="AE43" s="68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF43" s="73"/>
       <c r="AG43" s="73"/>
@@ -3953,7 +3980,7 @@
         <v>1</v>
       </c>
       <c r="AK43" s="68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL43" s="4"/>
       <c r="AM43" s="4"/>
@@ -3981,14 +4008,14 @@
       <c r="S44" s="13"/>
       <c r="T44" s="10"/>
       <c r="Z44" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA44" s="73"/>
       <c r="AB44" s="73"/>
       <c r="AC44" s="73"/>
       <c r="AD44" s="73"/>
       <c r="AE44" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF44" s="73"/>
       <c r="AG44" s="73"/>
@@ -4000,7 +4027,7 @@
         <v>1</v>
       </c>
       <c r="AK44" s="73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL44" s="4"/>
       <c r="AM44" s="4"/>
@@ -4023,7 +4050,7 @@
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="Q45" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R45" s="53" t="s">
         <v>0</v>
@@ -4033,17 +4060,17 @@
         <v>51</v>
       </c>
       <c r="V45" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z45" s="32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AA45" s="67"/>
       <c r="AB45" s="67"/>
       <c r="AC45" s="55"/>
       <c r="AD45" s="73"/>
       <c r="AE45" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF45" s="55"/>
       <c r="AG45" s="55"/>
@@ -4055,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="AK45" s="72" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4"/>
@@ -4084,18 +4111,18 @@
         <v>64</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V46" s="32"/>
       <c r="Z46" s="32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA46" s="73"/>
       <c r="AB46" s="73"/>
       <c r="AC46" s="73"/>
       <c r="AD46" s="73"/>
       <c r="AE46" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF46" s="55"/>
       <c r="AG46" s="55"/>
@@ -4107,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="AK46" s="68" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4"/>
@@ -4173,13 +4200,13 @@
       </c>
       <c r="V48" s="32"/>
       <c r="Z48" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA48" s="67"/>
       <c r="AB48" s="67"/>
       <c r="AC48" s="55"/>
       <c r="AD48" s="55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AE48" s="55"/>
       <c r="AF48" s="55"/>
@@ -4192,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="AK48" s="72" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AL48" s="4"/>
       <c r="AM48" s="4"/>
@@ -4248,7 +4275,7 @@
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="Q50" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R50" s="46" t="s">
         <v>0</v>
@@ -4258,7 +4285,7 @@
       </c>
       <c r="T50" s="9"/>
       <c r="V50" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA50" s="64"/>
       <c r="AB50" s="64"/>
@@ -4280,7 +4307,7 @@
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -4292,7 +4319,7 @@
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="Q51" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R51" s="46" t="s">
         <v>1</v>
@@ -4302,7 +4329,7 @@
       </c>
       <c r="T51" s="9"/>
       <c r="V51" s="60" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA51" s="64"/>
       <c r="AB51" s="64"/>
@@ -4336,7 +4363,7 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="Q52" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R52" s="53" t="s">
         <v>1</v>
@@ -4345,10 +4372,10 @@
         <v>64</v>
       </c>
       <c r="T52" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V52" s="60" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AA52" s="67"/>
       <c r="AB52" s="67"/>
@@ -4456,7 +4483,7 @@
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
       <c r="Q55" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R55" s="53" t="s">
         <v>0</v>
@@ -4503,19 +4530,19 @@
         <v>64</v>
       </c>
       <c r="T56" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V56" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Z56" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AA56" s="46"/>
       <c r="AB56" s="46"/>
       <c r="AC56" s="55"/>
       <c r="AD56" s="55" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AE56" s="55"/>
       <c r="AF56" s="55"/>
@@ -4765,7 +4792,7 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="Q63" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R63" s="52" t="s">
         <v>0</v>
@@ -4810,13 +4837,13 @@
         <v>64</v>
       </c>
       <c r="T64" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V64" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Z64" s="32" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA64" s="52"/>
       <c r="AB64" s="52"/>
@@ -4938,7 +4965,7 @@
       <c r="AM67" s="4"/>
       <c r="AN67" s="4"/>
     </row>
-    <row r="68" spans="2:40" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:40" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
         <v>18</v>
       </c>
@@ -4978,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="AK68" s="72" t="s">
-        <v>87</v>
+        <v>434</v>
       </c>
       <c r="AL68" s="84"/>
       <c r="AM68" s="4"/>
@@ -5001,7 +5028,7 @@
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
       <c r="Q69" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R69" s="52" t="s">
         <v>0</v>
@@ -5046,13 +5073,13 @@
         <v>64</v>
       </c>
       <c r="T70" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V70" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z70" s="32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AA70" s="64"/>
       <c r="AB70" s="64"/>
@@ -5071,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="AK70" s="72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL70" s="4"/>
       <c r="AM70" s="4"/>
@@ -5094,7 +5121,7 @@
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
       <c r="Q71" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R71" s="52" t="s">
         <v>0</v>
@@ -5176,19 +5203,19 @@
       </c>
       <c r="S73" s="13"/>
       <c r="T73" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V73" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Z73" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA73" s="26"/>
       <c r="AB73" s="26"/>
       <c r="AC73" s="55"/>
       <c r="AD73" s="55" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AE73" s="55"/>
       <c r="AF73" s="55"/>
@@ -5201,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="AK73" s="72" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AL73" s="4"/>
       <c r="AM73" s="4"/>
@@ -5224,17 +5251,17 @@
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
       <c r="Q74" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R74" s="52" t="s">
         <v>0</v>
       </c>
       <c r="S74" s="13"/>
       <c r="T74" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="V74" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA74" s="64"/>
       <c r="AB74" s="64"/>
@@ -5349,7 +5376,7 @@
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
       <c r="R77" s="46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S77" s="13"/>
       <c r="T77" s="8"/>
@@ -5385,17 +5412,17 @@
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
       <c r="Q78" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R78" s="46" t="s">
         <v>0</v>
       </c>
       <c r="S78" s="13"/>
       <c r="T78" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V78" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA78" s="64"/>
       <c r="AB78" s="64"/>
@@ -5526,7 +5553,7 @@
     </row>
     <row r="82" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B82" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -5561,7 +5588,7 @@
     <row r="83" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B83" s="13"/>
       <c r="C83" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
@@ -5575,13 +5602,13 @@
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
       <c r="Q83" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R83" s="53" t="s">
         <v>0</v>
       </c>
       <c r="S83" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T83" s="18"/>
       <c r="AA83" s="23"/>
@@ -5602,7 +5629,7 @@
     <row r="84" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B84" s="13"/>
       <c r="C84" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
@@ -5637,7 +5664,7 @@
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="24"/>
@@ -5650,13 +5677,13 @@
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
       <c r="Q85" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R85" s="46" t="s">
         <v>0</v>
       </c>
       <c r="S85" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T85" s="18"/>
       <c r="AA85" s="64"/>
@@ -5690,7 +5717,7 @@
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
       <c r="Q86" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R86" s="52"/>
       <c r="S86" s="13"/>
@@ -5732,10 +5759,10 @@
         <v>64</v>
       </c>
       <c r="T87" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V87" s="32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AA87" s="73"/>
       <c r="AB87" s="73"/>
@@ -5909,13 +5936,13 @@
       </c>
       <c r="S92" s="13"/>
       <c r="T92" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V92" s="32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z92" s="32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA92" s="52"/>
       <c r="AB92" s="52"/>
@@ -5934,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="AK92" s="72" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL92" s="4"/>
       <c r="AM92" s="4"/>
@@ -5993,17 +6020,17 @@
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
       <c r="Q94" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R94" s="52" t="s">
         <v>0</v>
       </c>
       <c r="S94" s="13"/>
       <c r="T94" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V94" s="59" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AA94" s="73"/>
       <c r="AB94" s="73"/>
@@ -6043,7 +6070,7 @@
         <v>310866003</v>
       </c>
       <c r="T95" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AA95" s="73"/>
       <c r="AB95" s="73"/>
@@ -6117,7 +6144,7 @@
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
       <c r="Q97" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R97" s="53" t="s">
         <v>0</v>
@@ -6379,15 +6406,15 @@
         <v>64</v>
       </c>
       <c r="T104" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="V104" s="59" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AA104" s="73"/>
       <c r="AB104" s="73"/>
       <c r="AC104" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD104" s="73"/>
       <c r="AE104" s="73"/>
@@ -6401,7 +6428,7 @@
         <v>1</v>
       </c>
       <c r="AK104" s="23" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AL104" s="4"/>
       <c r="AM104" s="4"/>
@@ -6433,7 +6460,7 @@
         <v>45</v>
       </c>
       <c r="T105" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AA105" s="73"/>
       <c r="AB105" s="73"/>
@@ -6512,10 +6539,10 @@
         <v>0</v>
       </c>
       <c r="S107" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T107" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AA107" s="73"/>
       <c r="AB107" s="73"/>
@@ -6791,7 +6818,7 @@
       </c>
       <c r="AA115" s="73"/>
       <c r="AB115" s="65" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AC115" s="65"/>
       <c r="AD115" s="65"/>
@@ -6799,7 +6826,7 @@
       <c r="AF115" s="65"/>
       <c r="AG115" s="65"/>
       <c r="AH115" s="65" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AI115" s="73"/>
       <c r="AJ115" s="76"/>
@@ -6885,7 +6912,7 @@
       </c>
       <c r="S118" s="4"/>
       <c r="T118" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AA118" s="73"/>
       <c r="AB118" s="73"/>
@@ -6905,7 +6932,7 @@
     <row r="119" spans="1:40" x14ac:dyDescent="0.2">
       <c r="C119" s="4"/>
       <c r="D119" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -6925,10 +6952,10 @@
       </c>
       <c r="S119" s="4"/>
       <c r="T119" s="87" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V119" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AA119" s="73"/>
       <c r="AB119" s="73"/>
@@ -6963,14 +6990,14 @@
       <c r="O120" s="4"/>
       <c r="P120" s="4"/>
       <c r="Q120" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R120" s="54" t="s">
         <v>0</v>
       </c>
       <c r="S120" s="4"/>
       <c r="T120" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA120" s="73"/>
       <c r="AB120" s="73"/>
@@ -7012,18 +7039,18 @@
         <v>64</v>
       </c>
       <c r="T121" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="V121" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z121" s="32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AA121" s="73"/>
       <c r="AB121" s="73"/>
       <c r="AC121" s="68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AD121" s="73"/>
       <c r="AE121" s="73"/>
@@ -7037,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AK121" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL121" s="4"/>
       <c r="AM121" s="4"/>
@@ -7065,10 +7092,10 @@
         <v>0</v>
       </c>
       <c r="S122" s="85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T122" s="30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AA122" s="73"/>
       <c r="AB122" s="73"/>
@@ -7123,7 +7150,7 @@
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -7137,7 +7164,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
       <c r="Q124" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R124" s="54" t="s">
         <v>0</v>
@@ -7146,7 +7173,7 @@
         <v>64</v>
       </c>
       <c r="T124" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA124" s="73"/>
       <c r="AB124" s="73"/>
@@ -7167,7 +7194,7 @@
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -7206,7 +7233,7 @@
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -7223,12 +7250,12 @@
       <c r="S126" s="4"/>
       <c r="T126" s="12"/>
       <c r="Z126" s="32" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA126" s="73"/>
       <c r="AB126" s="73"/>
       <c r="AC126" s="68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD126" s="73"/>
       <c r="AE126" s="73"/>
@@ -7238,13 +7265,13 @@
         <v>83</v>
       </c>
       <c r="AI126" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AJ126" s="77" t="s">
         <v>0</v>
       </c>
       <c r="AK126" s="68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL126" s="4"/>
       <c r="AM126" s="4"/>
@@ -7302,25 +7329,25 @@
       <c r="O128" s="4"/>
       <c r="P128" s="4"/>
       <c r="Q128" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R128" s="56" t="s">
         <v>0</v>
       </c>
       <c r="S128" s="4"/>
       <c r="T128" s="12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V128" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Z128" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AA128" s="73"/>
       <c r="AB128" s="73"/>
       <c r="AC128" s="68" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AD128" s="73"/>
       <c r="AE128" s="73"/>
@@ -7334,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="AK128" s="68" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AL128" s="4"/>
       <c r="AM128" s="4"/>
@@ -7363,7 +7390,7 @@
         <v>55284006</v>
       </c>
       <c r="T129" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AA129" s="73"/>
       <c r="AB129" s="73"/>
@@ -7438,7 +7465,7 @@
       <c r="O131" s="4"/>
       <c r="P131" s="4"/>
       <c r="Q131" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R131" s="55" t="s">
         <v>1</v>
@@ -7446,15 +7473,15 @@
       <c r="S131" s="4"/>
       <c r="T131" s="12"/>
       <c r="V131" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z131" s="59" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AA131" s="73"/>
       <c r="AB131" s="73"/>
       <c r="AC131" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AD131" s="73"/>
       <c r="AE131" s="73"/>
@@ -7468,7 +7495,7 @@
         <v>1</v>
       </c>
       <c r="AK131" s="73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AL131" s="4"/>
       <c r="AM131" s="4"/>
@@ -7494,12 +7521,12 @@
       <c r="S132" s="4"/>
       <c r="T132" s="12"/>
       <c r="Z132" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA132" s="73"/>
       <c r="AB132" s="73"/>
       <c r="AC132" s="68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AD132" s="73"/>
       <c r="AE132" s="73"/>
@@ -7513,7 +7540,7 @@
         <v>1</v>
       </c>
       <c r="AK132" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AL132" s="4"/>
       <c r="AM132" s="4"/>
@@ -7539,32 +7566,32 @@
       </c>
       <c r="S133" s="13"/>
       <c r="T133" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="V133" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="V133" s="32" t="s">
-        <v>311</v>
-      </c>
       <c r="Z133" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AA133" s="73"/>
       <c r="AB133" s="73"/>
       <c r="AC133" s="68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AD133" s="81"/>
       <c r="AE133" s="73"/>
       <c r="AF133" s="73"/>
       <c r="AG133" s="73"/>
       <c r="AH133" s="55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AI133" s="73"/>
       <c r="AJ133" s="77" t="s">
         <v>1</v>
       </c>
       <c r="AK133" s="68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL133" s="4"/>
       <c r="AM133" s="4"/>
@@ -7586,7 +7613,7 @@
       <c r="M134" s="13"/>
       <c r="N134" s="13"/>
       <c r="Q134" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R134" s="52" t="s">
         <v>0</v>
@@ -7635,16 +7662,16 @@
         <v>67</v>
       </c>
       <c r="V135" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Z135" s="32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AA135" s="73"/>
       <c r="AB135" s="73"/>
       <c r="AC135" s="73"/>
       <c r="AD135" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AE135" s="55"/>
       <c r="AF135" s="55"/>
@@ -7657,7 +7684,7 @@
         <v>0</v>
       </c>
       <c r="AK135" s="88" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL135" s="4"/>
       <c r="AM135" s="4"/>
@@ -7714,7 +7741,7 @@
       <c r="M137" s="13"/>
       <c r="N137" s="13"/>
       <c r="Q137" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R137" s="52" t="s">
         <v>0</v>
@@ -7760,32 +7787,32 @@
         <v>64</v>
       </c>
       <c r="T138" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="V138" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z138" s="32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA138" s="73"/>
       <c r="AB138" s="73"/>
       <c r="AC138" s="73"/>
       <c r="AD138" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AE138" s="55"/>
       <c r="AF138" s="55"/>
       <c r="AG138" s="73"/>
       <c r="AH138" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI138" s="55"/>
       <c r="AJ138" s="77" t="s">
         <v>0</v>
       </c>
       <c r="AK138" s="72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AL138" s="4"/>
       <c r="AM138" s="4"/>
@@ -7817,13 +7844,13 @@
         <v>70</v>
       </c>
       <c r="Z139" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AA139" s="73"/>
       <c r="AB139" s="73"/>
       <c r="AC139" s="73"/>
       <c r="AD139" s="55" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AE139" s="55"/>
       <c r="AF139" s="55"/>
@@ -7836,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="AK139" s="72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AL139" s="4"/>
       <c r="AM139" s="4"/>
@@ -7858,7 +7885,7 @@
       <c r="M140" s="13"/>
       <c r="N140" s="13"/>
       <c r="Q140" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R140" s="52" t="s">
         <v>1</v>
@@ -7868,29 +7895,29 @@
         <v>69</v>
       </c>
       <c r="V140" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z140" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA140" s="73"/>
       <c r="AB140" s="73"/>
       <c r="AC140" s="73"/>
       <c r="AD140" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AE140" s="81"/>
       <c r="AF140" s="68"/>
       <c r="AG140" s="73"/>
       <c r="AH140" s="68" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AI140" s="55"/>
       <c r="AJ140" s="77" t="s">
         <v>1</v>
       </c>
       <c r="AK140" s="72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AL140" s="4"/>
       <c r="AM140" s="4"/>
@@ -7918,10 +7945,10 @@
         <v>64</v>
       </c>
       <c r="T141" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z141" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AA141" s="73"/>
       <c r="AB141" s="73"/>
@@ -7940,7 +7967,7 @@
         <v>1</v>
       </c>
       <c r="AK141" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AL141" s="4"/>
       <c r="AM141" s="4"/>
@@ -7968,7 +7995,7 @@
         <v>64</v>
       </c>
       <c r="T142" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA142" s="73"/>
       <c r="AB142" s="73"/>
@@ -7987,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="AK142" s="55" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL142" s="4"/>
       <c r="AM142" s="4"/>
@@ -8014,7 +8041,7 @@
       <c r="AC143" s="73"/>
       <c r="AD143" s="55"/>
       <c r="AE143" s="55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF143" s="55"/>
       <c r="AG143" s="73"/>
@@ -8026,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="AK143" s="55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AL143" s="4"/>
       <c r="AM143" s="4"/>
@@ -8053,7 +8080,7 @@
       <c r="AC144" s="73"/>
       <c r="AD144" s="55"/>
       <c r="AE144" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF144" s="55"/>
       <c r="AG144" s="73"/>
@@ -8065,7 +8092,7 @@
         <v>1</v>
       </c>
       <c r="AK144" s="55" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AL144" s="4"/>
       <c r="AM144" s="4"/>
@@ -8104,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="AK145" s="55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AL145" s="4"/>
       <c r="AM145" s="4"/>
@@ -8139,7 +8166,7 @@
       <c r="AC146" s="73"/>
       <c r="AD146" s="55"/>
       <c r="AE146" s="55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AF146" s="55"/>
       <c r="AG146" s="73"/>
@@ -8151,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="AK146" s="55" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AL146" s="4"/>
       <c r="AM146" s="4"/>
@@ -8208,7 +8235,7 @@
       <c r="M148" s="13"/>
       <c r="N148" s="13"/>
       <c r="Q148" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R148" s="52" t="s">
         <v>1</v>
@@ -8217,10 +8244,10 @@
         <v>64</v>
       </c>
       <c r="T148" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V148" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z148" s="32"/>
       <c r="AA148" s="73"/>
@@ -8261,20 +8288,20 @@
       <c r="AB149" s="73"/>
       <c r="AC149" s="73"/>
       <c r="AD149" s="55" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AE149" s="55"/>
       <c r="AF149" s="55"/>
       <c r="AG149" s="73"/>
       <c r="AH149" s="68" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AI149" s="55"/>
       <c r="AJ149" s="77" t="s">
         <v>0</v>
       </c>
       <c r="AK149" s="72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AL149" s="4"/>
       <c r="AM149" s="4"/>
@@ -8297,26 +8324,26 @@
       <c r="S150" s="13"/>
       <c r="T150" s="10"/>
       <c r="Z150" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA150" s="73"/>
       <c r="AB150" s="73"/>
       <c r="AC150" s="73"/>
       <c r="AD150" s="55"/>
       <c r="AE150" s="55" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF150" s="55"/>
       <c r="AG150" s="73"/>
       <c r="AH150" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI150" s="55"/>
       <c r="AJ150" s="77" t="s">
         <v>0</v>
       </c>
       <c r="AK150" s="72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AL150" s="4"/>
       <c r="AM150" s="4"/>
@@ -8339,14 +8366,14 @@
       <c r="S151" s="13"/>
       <c r="T151" s="10"/>
       <c r="Z151" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA151" s="73"/>
       <c r="AB151" s="73"/>
       <c r="AC151" s="73"/>
       <c r="AD151" s="55"/>
       <c r="AE151" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF151" s="55"/>
       <c r="AG151" s="73"/>
@@ -8358,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="AK151" s="72" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AL151" s="5" t="s">
         <v>50</v>
@@ -8383,14 +8410,14 @@
       <c r="S152" s="13"/>
       <c r="T152" s="10"/>
       <c r="Z152" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AA152" s="73"/>
       <c r="AB152" s="73"/>
       <c r="AC152" s="73"/>
       <c r="AD152" s="68"/>
       <c r="AE152" s="68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF152" s="73"/>
       <c r="AG152" s="73"/>
@@ -8402,7 +8429,7 @@
         <v>1</v>
       </c>
       <c r="AK152" s="68" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL152" s="4"/>
       <c r="AM152" s="4"/>
@@ -8429,14 +8456,14 @@
       <c r="S153" s="13"/>
       <c r="T153" s="10"/>
       <c r="Z153" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AA153" s="73"/>
       <c r="AB153" s="73"/>
       <c r="AC153" s="73"/>
       <c r="AD153" s="68"/>
       <c r="AE153" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF153" s="73"/>
       <c r="AG153" s="73"/>
@@ -8448,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="AK153" s="73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AL153" s="4"/>
       <c r="AM153" s="4"/>
@@ -8470,7 +8497,7 @@
       <c r="M154" s="13"/>
       <c r="N154" s="13"/>
       <c r="Q154" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R154" s="53" t="s">
         <v>0</v>
@@ -8480,17 +8507,17 @@
         <v>51</v>
       </c>
       <c r="V154" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z154" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AA154" s="73"/>
       <c r="AB154" s="73"/>
       <c r="AC154" s="73"/>
       <c r="AD154" s="55"/>
       <c r="AE154" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF154" s="55"/>
       <c r="AG154" s="73"/>
@@ -8502,7 +8529,7 @@
         <v>1</v>
       </c>
       <c r="AK154" s="72" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AL154" s="4"/>
       <c r="AM154" s="4"/>
@@ -8530,17 +8557,17 @@
         <v>64</v>
       </c>
       <c r="T155" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z155" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA155" s="73"/>
       <c r="AB155" s="73"/>
       <c r="AC155" s="73"/>
       <c r="AD155" s="55"/>
       <c r="AE155" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF155" s="55"/>
       <c r="AG155" s="73"/>
@@ -8552,7 +8579,7 @@
         <v>1</v>
       </c>
       <c r="AK155" s="68" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AL155" s="4"/>
       <c r="AM155" s="4"/>
@@ -8646,7 +8673,7 @@
       <c r="M158" s="13"/>
       <c r="N158" s="2"/>
       <c r="Q158" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R158" s="46" t="s">
         <v>0</v>
@@ -8656,7 +8683,7 @@
       </c>
       <c r="T158" s="9"/>
       <c r="V158" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z158" s="32"/>
       <c r="AA158" s="73"/>
@@ -8683,14 +8710,14 @@
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
       <c r="J159" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K159" s="13"/>
       <c r="L159" s="13"/>
       <c r="M159" s="13"/>
       <c r="N159" s="2"/>
       <c r="Q159" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R159" s="46" t="s">
         <v>1</v>
@@ -8700,7 +8727,7 @@
       </c>
       <c r="T159" s="9"/>
       <c r="V159" s="60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Z159" s="32"/>
       <c r="AA159" s="73"/>
@@ -8734,7 +8761,7 @@
       <c r="M160" s="13"/>
       <c r="N160" s="19"/>
       <c r="Q160" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R160" s="53" t="s">
         <v>1</v>
@@ -8743,10 +8770,10 @@
         <v>64</v>
       </c>
       <c r="T160" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="V160" s="60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Z160" s="32"/>
       <c r="AA160" s="67"/>
@@ -9027,7 +9054,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H169" s="5"/>
       <c r="I169" s="4"/>
@@ -9066,7 +9093,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -9081,7 +9108,7 @@
         <v>1</v>
       </c>
       <c r="S170" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T170" s="12"/>
       <c r="AA170" s="73"/>
@@ -9106,7 +9133,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
@@ -9153,7 +9180,7 @@
       <c r="O172" s="4"/>
       <c r="P172" s="4"/>
       <c r="Q172" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R172" s="54">
         <v>1</v>
@@ -9193,7 +9220,7 @@
       <c r="Q173" s="5"/>
       <c r="R173" s="54"/>
       <c r="S173" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA173" s="73"/>
       <c r="AB173" s="73"/>
@@ -9230,10 +9257,10 @@
       <c r="Q174" s="4"/>
       <c r="R174" s="55"/>
       <c r="S174" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T174" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA174" s="73"/>
       <c r="AB174" s="73"/>
@@ -9255,16 +9282,16 @@
         <v>32</v>
       </c>
       <c r="Q175" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R175" s="48" t="s">
         <v>1</v>
       </c>
       <c r="T175" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V175" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AA175" s="73"/>
       <c r="AB175" s="73"/>
@@ -9315,35 +9342,35 @@
     </row>
     <row r="178" spans="7:40" x14ac:dyDescent="0.2">
       <c r="G178" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R178" s="49" t="s">
         <v>3</v>
       </c>
       <c r="V178" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Z178" s="32" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AA178" s="73"/>
       <c r="AB178" s="73"/>
       <c r="AC178" s="68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AD178" s="73"/>
       <c r="AE178" s="73"/>
       <c r="AF178" s="73"/>
       <c r="AG178" s="73"/>
       <c r="AH178" s="68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AI178" s="68"/>
       <c r="AJ178" s="77" t="s">
         <v>3</v>
       </c>
       <c r="AK178" s="68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AL178" s="4"/>
       <c r="AM178" s="4"/>
@@ -9351,13 +9378,13 @@
     </row>
     <row r="179" spans="7:40" x14ac:dyDescent="0.2">
       <c r="H179" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R179" s="49">
         <v>1</v>
       </c>
       <c r="S179" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA179" s="73"/>
       <c r="AB179" s="73"/>
@@ -9376,13 +9403,13 @@
     </row>
     <row r="180" spans="7:40" x14ac:dyDescent="0.2">
       <c r="H180" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R180" s="49">
         <v>1</v>
       </c>
       <c r="T180" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA180" s="73"/>
       <c r="AB180" s="73"/>
@@ -9420,13 +9447,13 @@
         <v>2</v>
       </c>
       <c r="Q182" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R182" s="48" t="s">
         <v>1</v>
       </c>
       <c r="T182" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X182" s="71"/>
       <c r="AA182" s="73"/>
@@ -9455,32 +9482,32 @@
         <v>64</v>
       </c>
       <c r="T183" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V183" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z183" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA183" s="73"/>
       <c r="AB183" s="73"/>
       <c r="AC183" s="73"/>
       <c r="AD183" s="68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AE183" s="68"/>
       <c r="AF183" s="68"/>
       <c r="AG183" s="73"/>
       <c r="AH183" s="73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AI183" s="68"/>
       <c r="AJ183" s="77" t="s">
         <v>0</v>
       </c>
       <c r="AK183" s="73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL183" s="82"/>
       <c r="AM183" s="4"/>
@@ -9498,7 +9525,7 @@
         <v>1.2.752.129.2.1.2.1</v>
       </c>
       <c r="T184" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA184" s="73"/>
       <c r="AB184" s="73"/>
@@ -9517,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="AK184" s="68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL184" s="4"/>
       <c r="AM184" s="4"/>
@@ -9528,7 +9555,7 @@
         <v>24</v>
       </c>
       <c r="Q185" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R185" s="49">
         <v>1</v>
@@ -9550,7 +9577,7 @@
         <v>1</v>
       </c>
       <c r="AK185" s="68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL185" s="4"/>
       <c r="AM185" s="4"/>
@@ -9564,10 +9591,10 @@
         <v>1</v>
       </c>
       <c r="S186" t="s">
+        <v>140</v>
+      </c>
+      <c r="T186" t="s">
         <v>141</v>
-      </c>
-      <c r="T186" t="s">
-        <v>142</v>
       </c>
       <c r="AA186" s="73"/>
       <c r="AB186" s="73"/>
@@ -9586,16 +9613,16 @@
     </row>
     <row r="187" spans="7:40" x14ac:dyDescent="0.2">
       <c r="J187" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R187" s="49">
         <v>1</v>
       </c>
       <c r="S187" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T187" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA187" s="73"/>
       <c r="AB187" s="73"/>
@@ -9617,38 +9644,38 @@
         <v>23</v>
       </c>
       <c r="Q188" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R188" s="48" t="s">
         <v>1</v>
       </c>
       <c r="T188" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V188" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z188" s="59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AA188" s="73"/>
       <c r="AB188" s="73"/>
       <c r="AC188" s="73"/>
       <c r="AD188" s="68" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AE188" s="68"/>
       <c r="AF188" s="68"/>
       <c r="AG188" s="73"/>
       <c r="AH188" s="73" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AI188" s="68"/>
       <c r="AJ188" s="77" t="s">
         <v>1</v>
       </c>
       <c r="AK188" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL188" s="4"/>
       <c r="AM188" s="4"/>
@@ -9660,7 +9687,7 @@
       <c r="AC189" s="73"/>
       <c r="AD189" s="73"/>
       <c r="AE189" s="68" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF189" s="73"/>
       <c r="AG189" s="73"/>
@@ -9672,7 +9699,7 @@
         <v>1</v>
       </c>
       <c r="AK189" s="73" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AL189" s="4"/>
       <c r="AM189" s="4"/>
@@ -9683,17 +9710,17 @@
         <v>32</v>
       </c>
       <c r="Q190" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T190" s="45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA190" s="73"/>
       <c r="AB190" s="73"/>
       <c r="AC190" s="73"/>
       <c r="AD190" s="81"/>
       <c r="AE190" s="68" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF190" s="73"/>
       <c r="AG190" s="73"/>
@@ -9705,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="AK190" s="73" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AL190" s="4"/>
       <c r="AM190" s="4"/>
@@ -9722,29 +9749,29 @@
         <v>64</v>
       </c>
       <c r="V191" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Z191" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA191" s="73"/>
       <c r="AB191" s="73"/>
       <c r="AC191" s="73"/>
       <c r="AD191" s="68" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AE191" s="68"/>
       <c r="AF191" s="68"/>
       <c r="AG191" s="73"/>
       <c r="AH191" s="68" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AI191" s="68"/>
       <c r="AJ191" s="77" t="s">
         <v>1</v>
       </c>
       <c r="AK191" s="68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL191" s="4"/>
       <c r="AM191" s="4"/>
@@ -9761,7 +9788,7 @@
         <v>64</v>
       </c>
       <c r="T192" s="35" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AA192" s="73"/>
       <c r="AB192" s="73"/>
@@ -9780,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="AK192" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AL192" s="4"/>
       <c r="AM192" s="4"/>
@@ -9788,7 +9815,7 @@
     </row>
     <row r="193" spans="9:41" x14ac:dyDescent="0.2">
       <c r="J193" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="R193" s="49">
         <v>1</v>
@@ -9798,7 +9825,7 @@
       </c>
       <c r="T193" s="30"/>
       <c r="V193" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AA193" s="73"/>
       <c r="AB193" s="73"/>
@@ -9817,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="AK193" s="68" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AL193" s="4"/>
       <c r="AM193" s="4"/>
@@ -9825,13 +9852,13 @@
     </row>
     <row r="194" spans="9:41" x14ac:dyDescent="0.2">
       <c r="J194" s="30" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R194" s="48" t="s">
         <v>1</v>
       </c>
       <c r="T194" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="V194" s="32"/>
       <c r="AA194" s="73"/>
@@ -9851,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="AK194" s="68" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL194" s="4"/>
       <c r="AM194" s="4"/>
@@ -9863,13 +9890,13 @@
       <c r="T195" s="35"/>
       <c r="V195" s="32"/>
       <c r="Z195" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AA195" s="73"/>
       <c r="AB195" s="73"/>
       <c r="AC195" s="73"/>
       <c r="AD195" s="68" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AE195" s="68"/>
       <c r="AF195" s="68"/>
@@ -9882,7 +9909,7 @@
         <v>1</v>
       </c>
       <c r="AK195" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AL195" s="4"/>
       <c r="AM195" s="4"/>
@@ -9932,7 +9959,7 @@
     </row>
     <row r="198" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I198" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J198" s="5"/>
       <c r="K198" s="4"/>
@@ -9962,7 +9989,7 @@
     <row r="199" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I199" s="4"/>
       <c r="J199" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K199" s="4"/>
       <c r="Q199" s="4"/>
@@ -9970,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="S199" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T199" s="12"/>
       <c r="AA199" s="73"/>
@@ -9992,7 +10019,7 @@
     <row r="200" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I200" s="5"/>
       <c r="J200" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K200" s="4"/>
       <c r="Q200" s="4"/>
@@ -10022,7 +10049,7 @@
         <v>24</v>
       </c>
       <c r="Q201" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R201" s="54">
         <v>1</v>
@@ -10053,7 +10080,7 @@
       <c r="Q202" s="5"/>
       <c r="R202" s="54"/>
       <c r="S202" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AA202" s="73"/>
       <c r="AB202" s="73"/>
@@ -10076,15 +10103,15 @@
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
       <c r="L203" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q203" s="4"/>
       <c r="R203" s="55"/>
       <c r="S203" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T203" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA203" s="73"/>
       <c r="AB203" s="73"/>
@@ -10106,22 +10133,22 @@
         <v>32</v>
       </c>
       <c r="Q204" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R204" s="49" t="s">
         <v>0</v>
       </c>
       <c r="V204" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z204" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AA204" s="68"/>
       <c r="AB204" s="68"/>
       <c r="AC204" s="68"/>
       <c r="AD204" s="68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AE204" s="73"/>
       <c r="AF204" s="73"/>
@@ -10134,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="AK204" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AL204" s="5"/>
       <c r="AM204" s="4"/>
@@ -10182,7 +10209,7 @@
     </row>
     <row r="207" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I207" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J207" s="5"/>
       <c r="K207" s="4"/>
@@ -10210,7 +10237,7 @@
     <row r="208" spans="9:41" x14ac:dyDescent="0.2">
       <c r="I208" s="4"/>
       <c r="J208" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K208" s="4"/>
       <c r="Q208" s="4"/>
@@ -10218,7 +10245,7 @@
         <v>1</v>
       </c>
       <c r="S208" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T208" s="12"/>
       <c r="AA208" s="73"/>
@@ -10239,7 +10266,7 @@
     <row r="209" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I209" s="5"/>
       <c r="J209" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K209" s="4"/>
       <c r="Q209" s="4"/>
@@ -10268,7 +10295,7 @@
         <v>24</v>
       </c>
       <c r="Q210" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R210" s="54">
         <v>1</v>
@@ -10298,7 +10325,7 @@
       <c r="Q211" s="5"/>
       <c r="R211" s="54"/>
       <c r="S211" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AA211" s="73"/>
       <c r="AB211" s="73"/>
@@ -10320,15 +10347,15 @@
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
       <c r="L212" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q212" s="4"/>
       <c r="R212" s="55"/>
       <c r="S212" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T212" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA212" s="73"/>
       <c r="AB212" s="73"/>
@@ -10350,22 +10377,22 @@
         <v>32</v>
       </c>
       <c r="Q213" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R213" s="49" t="s">
         <v>0</v>
       </c>
       <c r="V213" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Z213" s="59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AA213" s="73"/>
       <c r="AB213" s="73"/>
       <c r="AC213" s="73"/>
       <c r="AD213" s="68" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AE213" s="68"/>
       <c r="AF213" s="68"/>
@@ -10378,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="AK213" s="73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AL213" s="4"/>
       <c r="AM213" s="4"/>
@@ -10402,7 +10429,7 @@
     </row>
     <row r="215" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I215" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R215" s="49" t="s">
         <v>1</v>
@@ -10424,7 +10451,7 @@
     </row>
     <row r="216" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J216" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R216" s="49">
         <v>1</v>
@@ -10446,7 +10473,7 @@
     </row>
     <row r="217" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K217" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R217" s="49">
         <v>1</v>
@@ -10468,28 +10495,28 @@
     </row>
     <row r="218" spans="9:40" ht="51" x14ac:dyDescent="0.2">
       <c r="L218" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q218" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R218" s="49" t="s">
         <v>1</v>
       </c>
       <c r="T218" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V218" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z218" s="59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA218" s="73"/>
       <c r="AB218" s="73"/>
       <c r="AC218" s="73"/>
       <c r="AD218" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE218" s="68"/>
       <c r="AF218" s="68"/>
@@ -10502,7 +10529,7 @@
         <v>1</v>
       </c>
       <c r="AK218" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AL218" s="4"/>
       <c r="AM218" s="4"/>
@@ -10542,7 +10569,7 @@
     </row>
     <row r="221" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I221" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R221" s="49" t="s">
         <v>1</v>
@@ -10564,13 +10591,13 @@
     </row>
     <row r="222" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J222" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R222" s="49">
         <v>1</v>
       </c>
       <c r="S222" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA222" s="73"/>
       <c r="AB222" s="73"/>
@@ -10589,7 +10616,7 @@
     </row>
     <row r="223" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J223" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R223" s="49">
         <v>1</v>
@@ -10614,7 +10641,7 @@
         <v>24</v>
       </c>
       <c r="Q224" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R224" s="49">
         <v>1</v>
@@ -10643,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="S225" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA225" s="73"/>
       <c r="AB225" s="73"/>
@@ -10662,17 +10689,17 @@
     </row>
     <row r="226" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L226" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q226" s="30"/>
       <c r="R226" s="49">
         <v>1</v>
       </c>
       <c r="S226" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T226" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA226" s="73"/>
       <c r="AB226" s="73"/>
@@ -10694,22 +10721,22 @@
         <v>32</v>
       </c>
       <c r="Q227" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R227" s="49">
         <v>1</v>
       </c>
       <c r="V227" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z227" s="59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA227" s="73"/>
       <c r="AB227" s="73"/>
       <c r="AC227" s="73"/>
       <c r="AD227" s="68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE227" s="68"/>
       <c r="AF227" s="68"/>
@@ -10722,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="AK227" s="73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AL227" s="4"/>
       <c r="AM227" s="4"/>
@@ -10746,38 +10773,38 @@
     </row>
     <row r="229" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I229" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R229" s="48" t="s">
         <v>3</v>
       </c>
       <c r="T229" s="30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="V229" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z229" s="32" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AA229" s="73"/>
       <c r="AB229" s="73"/>
       <c r="AC229" s="73"/>
       <c r="AD229" s="68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AE229" s="68"/>
       <c r="AF229" s="68"/>
       <c r="AG229" s="73"/>
       <c r="AH229" s="68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AI229" s="68"/>
       <c r="AJ229" s="77" t="s">
         <v>3</v>
       </c>
       <c r="AK229" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AL229" s="4"/>
       <c r="AM229" s="4"/>
@@ -10785,13 +10812,13 @@
     </row>
     <row r="230" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J230" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R230" s="49">
         <v>1</v>
       </c>
       <c r="S230" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA230" s="73"/>
       <c r="AB230" s="73"/>
@@ -10810,7 +10837,7 @@
     </row>
     <row r="231" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J231" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA231" s="73"/>
       <c r="AB231" s="73"/>
@@ -10832,7 +10859,7 @@
         <v>2</v>
       </c>
       <c r="Q232" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R232" s="49" t="s">
         <v>0</v>
@@ -10861,32 +10888,32 @@
         <v>1</v>
       </c>
       <c r="T233" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V233" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z233" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AA233" s="73"/>
       <c r="AB233" s="73"/>
       <c r="AC233" s="73"/>
       <c r="AD233" s="73"/>
       <c r="AE233" s="68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF233" s="73"/>
       <c r="AG233" s="73"/>
       <c r="AH233" s="73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AI233" s="68"/>
       <c r="AJ233" s="77" t="s">
         <v>0</v>
       </c>
       <c r="AK233" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AL233" s="81"/>
       <c r="AM233" s="4"/>
@@ -10894,7 +10921,7 @@
     </row>
     <row r="234" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L234" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R234" s="49">
         <v>1</v>
@@ -10904,7 +10931,7 @@
         <v>1.2.752.129.2.1.2.1</v>
       </c>
       <c r="T234" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA234" s="73"/>
       <c r="AB234" s="73"/>
@@ -10923,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="AK234" s="68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL234" s="4"/>
       <c r="AM234" s="4"/>
@@ -10934,7 +10961,7 @@
         <v>24</v>
       </c>
       <c r="Q235" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R235" s="49">
         <v>1</v>
@@ -10956,7 +10983,7 @@
         <v>1</v>
       </c>
       <c r="AK235" s="68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL235" s="4"/>
       <c r="AM235" s="4"/>
@@ -10970,10 +10997,10 @@
         <v>1</v>
       </c>
       <c r="S236" t="s">
+        <v>140</v>
+      </c>
+      <c r="T236" t="s">
         <v>141</v>
-      </c>
-      <c r="T236" t="s">
-        <v>142</v>
       </c>
       <c r="AA236" s="73"/>
       <c r="AB236" s="73"/>
@@ -10992,16 +11019,16 @@
     </row>
     <row r="237" spans="9:40" x14ac:dyDescent="0.2">
       <c r="L237" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R237" s="49">
         <v>1</v>
       </c>
       <c r="S237" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T237" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA237" s="73"/>
       <c r="AB237" s="73"/>
@@ -11068,7 +11095,7 @@
     </row>
     <row r="241" spans="9:40" x14ac:dyDescent="0.2">
       <c r="I241" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R241" s="49" t="s">
         <v>1</v>
@@ -11090,13 +11117,13 @@
     </row>
     <row r="242" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J242" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R242" s="49">
         <v>1</v>
       </c>
       <c r="S242" s="30" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AA242" s="73"/>
       <c r="AB242" s="73"/>
@@ -11115,35 +11142,35 @@
     </row>
     <row r="243" spans="9:40" x14ac:dyDescent="0.2">
       <c r="J243" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R243" s="49">
         <v>1</v>
       </c>
       <c r="V243" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z243" s="32" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA243" s="73"/>
       <c r="AB243" s="73"/>
       <c r="AC243" s="73"/>
       <c r="AD243" s="68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AE243" s="73"/>
       <c r="AF243" s="73"/>
       <c r="AG243" s="73"/>
       <c r="AH243" s="68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI243" s="68"/>
       <c r="AJ243" s="77" t="s">
         <v>1</v>
       </c>
       <c r="AK243" s="68" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AL243" s="4"/>
       <c r="AM243" s="4"/>
@@ -11154,7 +11181,7 @@
         <v>24</v>
       </c>
       <c r="Q244" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R244" s="49">
         <v>1</v>
@@ -11183,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="S245" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA245" s="73"/>
       <c r="AB245" s="73"/>
@@ -11203,16 +11230,16 @@
     <row r="246" spans="9:40" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K246" s="30"/>
       <c r="L246" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R246" s="48">
         <v>1</v>
       </c>
       <c r="S246" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T246" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA246" s="73"/>
       <c r="AB246" s="73"/>
@@ -11234,16 +11261,16 @@
         <v>23</v>
       </c>
       <c r="Q247" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R247" s="48" t="s">
         <v>1</v>
       </c>
       <c r="T247" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="V247" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA247" s="73"/>
       <c r="AB247" s="73"/>
@@ -11265,27 +11292,27 @@
         <v>32</v>
       </c>
       <c r="Q248" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R248" s="57">
         <v>1</v>
       </c>
       <c r="S248" s="35"/>
       <c r="T248" s="45" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="V248" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Z248" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA248" s="73"/>
       <c r="AB248" s="73"/>
       <c r="AC248" s="73"/>
       <c r="AD248" s="73"/>
       <c r="AE248" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF248" s="73"/>
       <c r="AG248" s="73"/>
@@ -11297,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="AK248" s="73" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AL248" s="4"/>
       <c r="AM248" s="4"/>
@@ -11306,7 +11333,7 @@
     <row r="249" spans="9:40" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K249" s="30"/>
       <c r="L249" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q249" s="35"/>
       <c r="R249" s="57">
@@ -11334,7 +11361,7 @@
     <row r="250" spans="9:40" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K250" s="30"/>
       <c r="L250" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q250" s="35"/>
       <c r="R250" s="57">
@@ -11365,24 +11392,24 @@
       </c>
       <c r="L251" s="35"/>
       <c r="Q251" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R251" s="48">
         <v>1</v>
       </c>
       <c r="T251" s="45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="V251" s="32"/>
       <c r="Z251" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AA251" s="73"/>
       <c r="AB251" s="73"/>
       <c r="AC251" s="73"/>
       <c r="AD251" s="73"/>
       <c r="AE251" s="68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF251" s="73"/>
       <c r="AG251" s="73"/>
@@ -11394,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="AK251" s="68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AL251" s="4"/>
       <c r="AM251" s="4"/>
@@ -11408,14 +11435,14 @@
       <c r="T252" s="31"/>
       <c r="V252" s="32"/>
       <c r="Z252" s="32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA252" s="73"/>
       <c r="AB252" s="73"/>
       <c r="AC252" s="73"/>
       <c r="AD252" s="73"/>
       <c r="AE252" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF252" s="73"/>
       <c r="AG252" s="73"/>
@@ -11427,7 +11454,7 @@
         <v>1</v>
       </c>
       <c r="AK252" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL252" s="4"/>
       <c r="AM252" s="4"/>
@@ -11435,26 +11462,26 @@
     </row>
     <row r="253" spans="9:40" ht="38.25" x14ac:dyDescent="0.2">
       <c r="K253" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q253" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="Q253" s="30" t="s">
-        <v>156</v>
       </c>
       <c r="R253" s="48" t="s">
         <v>1</v>
       </c>
       <c r="V253" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z253" s="32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AA253" s="73"/>
       <c r="AB253" s="73"/>
       <c r="AC253" s="73"/>
       <c r="AD253" s="73"/>
       <c r="AE253" s="68" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF253" s="73"/>
       <c r="AG253" s="73"/>
@@ -11466,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="AK253" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AL253" s="4"/>
       <c r="AM253" s="4"/>
@@ -11483,7 +11510,7 @@
         <v>64</v>
       </c>
       <c r="T254" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AA254" s="73"/>
       <c r="AB254" s="73"/>
@@ -11503,13 +11530,13 @@
     <row r="255" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K255" s="30"/>
       <c r="L255" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R255" s="49">
         <v>1</v>
       </c>
       <c r="S255" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AA255" s="73"/>
       <c r="AB255" s="73"/>
@@ -11528,7 +11555,7 @@
     </row>
     <row r="256" spans="9:40" x14ac:dyDescent="0.2">
       <c r="K256" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L256" s="5"/>
       <c r="M256" s="4"/>
@@ -11553,10 +11580,10 @@
       <c r="AM256" s="4"/>
       <c r="AN256" s="4"/>
     </row>
-    <row r="257" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="257" spans="11:40" x14ac:dyDescent="0.2">
       <c r="K257" s="4"/>
       <c r="L257" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M257" s="4"/>
       <c r="Q257" s="4"/>
@@ -11564,7 +11591,7 @@
         <v>1</v>
       </c>
       <c r="S257" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T257" s="12"/>
       <c r="AA257" s="73"/>
@@ -11582,10 +11609,10 @@
       <c r="AM257" s="4"/>
       <c r="AN257" s="4"/>
     </row>
-    <row r="258" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="258" spans="11:40" x14ac:dyDescent="0.2">
       <c r="K258" s="5"/>
       <c r="L258" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M258" s="4"/>
       <c r="Q258" s="4"/>
@@ -11607,14 +11634,14 @@
       <c r="AM258" s="4"/>
       <c r="AN258" s="4"/>
     </row>
-    <row r="259" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="259" spans="11:40" x14ac:dyDescent="0.2">
       <c r="K259" s="5"/>
       <c r="L259" s="4"/>
       <c r="M259" s="4" t="s">
         <v>24</v>
       </c>
       <c r="Q259" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R259" s="54">
         <v>1</v>
@@ -11634,7 +11661,7 @@
       <c r="AM259" s="4"/>
       <c r="AN259" s="4"/>
     </row>
-    <row r="260" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="260" spans="11:40" x14ac:dyDescent="0.2">
       <c r="K260" s="5"/>
       <c r="L260" s="4"/>
       <c r="M260" s="4"/>
@@ -11646,7 +11673,7 @@
         <v>1</v>
       </c>
       <c r="S260" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AA260" s="73"/>
       <c r="AB260" s="73"/>
@@ -11663,22 +11690,22 @@
       <c r="AM260" s="4"/>
       <c r="AN260" s="4"/>
     </row>
-    <row r="261" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="261" spans="11:40" x14ac:dyDescent="0.2">
       <c r="K261" s="4"/>
       <c r="L261" s="4"/>
       <c r="M261" s="4"/>
       <c r="N261" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q261" s="4"/>
       <c r="R261" s="55">
         <v>1</v>
       </c>
       <c r="S261" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T261" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA261" s="73"/>
       <c r="AB261" s="73"/>
@@ -11695,28 +11722,28 @@
       <c r="AM261" s="4"/>
       <c r="AN261" s="4"/>
     </row>
-    <row r="262" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="262" spans="11:40" x14ac:dyDescent="0.2">
       <c r="M262" t="s">
         <v>32</v>
       </c>
       <c r="Q262" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R262" s="49" t="s">
         <v>0</v>
       </c>
       <c r="V262" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z262" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA262" s="73"/>
       <c r="AB262" s="73"/>
       <c r="AC262" s="73"/>
       <c r="AD262" s="73"/>
       <c r="AE262" s="68" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF262" s="73"/>
       <c r="AG262" s="73"/>
@@ -11728,13 +11755,13 @@
         <v>1</v>
       </c>
       <c r="AK262" s="73" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AL262" s="4"/>
       <c r="AM262" s="4"/>
       <c r="AN262" s="4"/>
     </row>
-    <row r="263" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="263" spans="11:40" x14ac:dyDescent="0.2">
       <c r="AA263" s="73"/>
       <c r="AB263" s="73"/>
       <c r="AC263" s="73"/>
@@ -11750,9 +11777,9 @@
       <c r="AM263" s="4"/>
       <c r="AN263" s="4"/>
     </row>
-    <row r="264" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="264" spans="11:40" x14ac:dyDescent="0.2">
       <c r="K264" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R264" s="48" t="s">
         <v>1</v>
@@ -11772,14 +11799,14 @@
       <c r="AM264" s="4"/>
       <c r="AN264" s="4"/>
     </row>
-    <row r="265" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="265" spans="11:40" x14ac:dyDescent="0.2">
       <c r="K265" s="30"/>
       <c r="L265" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R265" s="48"/>
       <c r="S265" s="30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA265" s="73"/>
       <c r="AB265" s="73"/>
@@ -11796,22 +11823,22 @@
       <c r="AM265" s="4"/>
       <c r="AN265" s="4"/>
     </row>
-    <row r="266" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="266" spans="11:40" x14ac:dyDescent="0.2">
       <c r="L266" s="30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R266" s="49">
         <v>1</v>
       </c>
       <c r="Z266" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA266" s="73"/>
       <c r="AB266" s="73"/>
       <c r="AC266" s="73"/>
       <c r="AD266" s="73"/>
       <c r="AE266" s="68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF266" s="73"/>
       <c r="AG266" s="73"/>
@@ -11823,37 +11850,37 @@
         <v>1</v>
       </c>
       <c r="AK266" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL266" s="4"/>
       <c r="AM266" s="4"/>
       <c r="AN266" s="4"/>
     </row>
-    <row r="267" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="267" spans="11:40" x14ac:dyDescent="0.2">
       <c r="M267" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q267" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R267" s="48" t="s">
         <v>1</v>
       </c>
       <c r="T267" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V267" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z267" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA267" s="73"/>
       <c r="AB267" s="73"/>
       <c r="AC267" s="73"/>
       <c r="AD267" s="73"/>
       <c r="AE267" s="68" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF267" s="73"/>
       <c r="AG267" s="73"/>
@@ -11865,27 +11892,27 @@
         <v>1</v>
       </c>
       <c r="AK267" s="73" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL267" s="4"/>
       <c r="AM267" s="4"/>
       <c r="AN267" s="4"/>
     </row>
-    <row r="268" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="268" spans="11:40" x14ac:dyDescent="0.2">
       <c r="M268" s="30" t="s">
         <v>32</v>
       </c>
       <c r="Q268" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="R268" s="48" t="s">
         <v>1</v>
       </c>
       <c r="T268" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V268" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AA268" s="73"/>
       <c r="AB268" s="73"/>
@@ -11902,7 +11929,7 @@
       <c r="AM268" s="4"/>
       <c r="AN268" s="4"/>
     </row>
-    <row r="269" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="269" spans="11:40" x14ac:dyDescent="0.2">
       <c r="AA269" s="73"/>
       <c r="AB269" s="73"/>
       <c r="AC269" s="73"/>
@@ -11918,95 +11945,103 @@
       <c r="AM269" s="4"/>
       <c r="AN269" s="4"/>
     </row>
-    <row r="270" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="270" spans="11:40" x14ac:dyDescent="0.2">
       <c r="AA270" s="73"/>
       <c r="AB270" s="73"/>
       <c r="AC270" s="73"/>
-      <c r="AD270" s="73"/>
-      <c r="AE270" s="73"/>
-      <c r="AF270" s="73"/>
-      <c r="AG270" s="73"/>
-      <c r="AH270" s="73"/>
-      <c r="AI270" s="73"/>
-      <c r="AJ270" s="76"/>
-      <c r="AK270" s="73"/>
+      <c r="AD270" s="68" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE270" s="68"/>
+      <c r="AF270" s="68"/>
+      <c r="AG270" s="68"/>
+      <c r="AH270" s="68" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI270" s="68"/>
+      <c r="AJ270" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK270" s="68" t="s">
+        <v>430</v>
+      </c>
       <c r="AL270" s="4"/>
       <c r="AM270" s="4"/>
       <c r="AN270" s="4"/>
     </row>
-    <row r="271" spans="5:40" x14ac:dyDescent="0.2">
+    <row r="271" spans="11:40" x14ac:dyDescent="0.2">
       <c r="AA271" s="73"/>
       <c r="AB271" s="73"/>
       <c r="AC271" s="73"/>
-      <c r="AD271" s="73"/>
-      <c r="AE271" s="73"/>
-      <c r="AF271" s="73"/>
-      <c r="AG271" s="73"/>
-      <c r="AH271" s="73"/>
-      <c r="AI271" s="73"/>
-      <c r="AJ271" s="76"/>
-      <c r="AK271" s="73"/>
+      <c r="AD271" s="55"/>
+      <c r="AE271" s="68" t="s">
+        <v>436</v>
+      </c>
+      <c r="AF271" s="68"/>
+      <c r="AG271" s="68"/>
+      <c r="AH271" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI271" s="55"/>
+      <c r="AJ271" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK271" s="72" t="s">
+        <v>431</v>
+      </c>
       <c r="AL271" s="4"/>
       <c r="AM271" s="4"/>
       <c r="AN271" s="4"/>
     </row>
-    <row r="272" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="E272" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="T272" s="30" t="s">
-        <v>300</v>
-      </c>
+    <row r="272" spans="11:40" x14ac:dyDescent="0.2">
       <c r="AA272" s="73"/>
       <c r="AB272" s="73"/>
       <c r="AC272" s="73"/>
-      <c r="AD272" s="73"/>
-      <c r="AE272" s="73"/>
-      <c r="AF272" s="73"/>
-      <c r="AG272" s="73"/>
-      <c r="AH272" s="73"/>
-      <c r="AI272" s="73"/>
-      <c r="AJ272" s="76"/>
-      <c r="AK272" s="73"/>
+      <c r="AD272" s="55"/>
+      <c r="AE272" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="AF272" s="68"/>
+      <c r="AG272" s="68"/>
+      <c r="AH272" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI272" s="55"/>
+      <c r="AJ272" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK272" s="72" t="s">
+        <v>432</v>
+      </c>
       <c r="AL272" s="4"/>
       <c r="AM272" s="4"/>
       <c r="AN272" s="4"/>
     </row>
     <row r="273" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="E273" s="30"/>
-      <c r="F273" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="T273" s="14" t="s">
-        <v>331</v>
-      </c>
       <c r="AA273" s="73"/>
       <c r="AB273" s="73"/>
       <c r="AC273" s="73"/>
-      <c r="AD273" s="73"/>
-      <c r="AE273" s="73"/>
-      <c r="AF273" s="73"/>
-      <c r="AG273" s="73"/>
-      <c r="AH273" s="73"/>
-      <c r="AI273" s="73"/>
-      <c r="AJ273" s="76"/>
-      <c r="AK273" s="73"/>
+      <c r="AD273" s="55"/>
+      <c r="AE273" s="68" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF273" s="68"/>
+      <c r="AG273" s="68"/>
+      <c r="AH273" s="55"/>
+      <c r="AI273" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ273" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK273" s="72" t="s">
+        <v>433</v>
+      </c>
       <c r="AL273" s="4"/>
       <c r="AM273" s="4"/>
       <c r="AN273" s="4"/>
     </row>
     <row r="274" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="E274" s="30"/>
-      <c r="G274" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q274" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="R274" s="49">
-        <v>1</v>
-      </c>
-      <c r="T274" s="30"/>
       <c r="AA274" s="73"/>
       <c r="AB274" s="73"/>
       <c r="AC274" s="73"/>
@@ -12023,17 +12058,6 @@
       <c r="AN274" s="4"/>
     </row>
     <row r="275" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="E275" s="30"/>
-      <c r="H275" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="R275" s="49">
-        <v>1</v>
-      </c>
-      <c r="S275" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="T275" s="30"/>
       <c r="AA275" s="73"/>
       <c r="AB275" s="73"/>
       <c r="AC275" s="73"/>
@@ -12050,19 +12074,6 @@
       <c r="AN275" s="4"/>
     </row>
     <row r="276" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="E276" s="30"/>
-      <c r="H276" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="R276" s="49">
-        <v>1</v>
-      </c>
-      <c r="S276" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T276" s="30" t="s">
-        <v>188</v>
-      </c>
       <c r="AA276" s="73"/>
       <c r="AB276" s="73"/>
       <c r="AC276" s="73"/>
@@ -12079,8 +12090,6 @@
       <c r="AN276" s="4"/>
     </row>
     <row r="277" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="E277" s="30"/>
-      <c r="T277" s="30"/>
       <c r="AA277" s="73"/>
       <c r="AB277" s="73"/>
       <c r="AC277" s="73"/>
@@ -12097,8 +12106,6 @@
       <c r="AN277" s="4"/>
     </row>
     <row r="278" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="E278" s="30"/>
-      <c r="T278" s="30"/>
       <c r="AA278" s="73"/>
       <c r="AB278" s="73"/>
       <c r="AC278" s="73"/>
@@ -12115,14 +12122,6 @@
       <c r="AN278" s="4"/>
     </row>
     <row r="279" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="G279" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H279" s="5"/>
-      <c r="Q279" s="4"/>
-      <c r="R279" s="56">
-        <v>1</v>
-      </c>
       <c r="AA279" s="73"/>
       <c r="AB279" s="73"/>
       <c r="AC279" s="73"/>
@@ -12139,17 +12138,6 @@
       <c r="AN279" s="4"/>
     </row>
     <row r="280" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="G280" s="4"/>
-      <c r="H280" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q280" s="4"/>
-      <c r="R280" s="56">
-        <v>1</v>
-      </c>
-      <c r="S280" s="30" t="s">
-        <v>164</v>
-      </c>
       <c r="AA280" s="73"/>
       <c r="AB280" s="73"/>
       <c r="AC280" s="73"/>
@@ -12166,9 +12154,6 @@
       <c r="AN280" s="4"/>
     </row>
     <row r="281" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="H281" s="30" t="s">
-        <v>135</v>
-      </c>
       <c r="AA281" s="73"/>
       <c r="AB281" s="73"/>
       <c r="AC281" s="73"/>
@@ -12185,18 +12170,11 @@
       <c r="AN281" s="4"/>
     </row>
     <row r="282" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="I282" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J282" s="4"/>
-      <c r="Q282" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="R282" s="54">
-        <v>1</v>
-      </c>
-      <c r="V282" s="32" t="s">
-        <v>193</v>
+      <c r="E282" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="T282" s="30" t="s">
+        <v>299</v>
       </c>
       <c r="AA282" s="73"/>
       <c r="AB282" s="73"/>
@@ -12214,16 +12192,13 @@
       <c r="AN282" s="4"/>
     </row>
     <row r="283" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="I283" s="4"/>
-      <c r="J283" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q283" s="5"/>
-      <c r="R283" s="54"/>
-      <c r="S283" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="V283" s="32"/>
+      <c r="E283" s="30"/>
+      <c r="F283" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="T283" s="14" t="s">
+        <v>330</v>
+      </c>
       <c r="AA283" s="73"/>
       <c r="AB283" s="73"/>
       <c r="AC283" s="73"/>
@@ -12240,96 +12215,73 @@
       <c r="AN283" s="4"/>
     </row>
     <row r="284" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="I284" s="4"/>
-      <c r="J284" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q284" s="4"/>
-      <c r="R284" s="55"/>
-      <c r="S284" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T284" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="V284" s="32"/>
+      <c r="E284" s="30"/>
+      <c r="G284" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q284" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="R284" s="49">
+        <v>1</v>
+      </c>
+      <c r="T284" s="30"/>
       <c r="AA284" s="73"/>
       <c r="AB284" s="73"/>
-      <c r="AC284" s="68" t="s">
-        <v>426</v>
-      </c>
+      <c r="AC284" s="73"/>
       <c r="AD284" s="73"/>
       <c r="AE284" s="73"/>
       <c r="AF284" s="73"/>
       <c r="AG284" s="73"/>
-      <c r="AH284" s="55" t="s">
-        <v>427</v>
-      </c>
+      <c r="AH284" s="73"/>
       <c r="AI284" s="73"/>
-      <c r="AJ284" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK284" s="68" t="s">
-        <v>283</v>
-      </c>
+      <c r="AJ284" s="76"/>
+      <c r="AK284" s="73"/>
       <c r="AL284" s="4"/>
       <c r="AM284" s="4"/>
       <c r="AN284" s="4"/>
     </row>
     <row r="285" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="I285" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q285" s="30" t="s">
-        <v>119</v>
+      <c r="E285" s="30"/>
+      <c r="H285" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="R285" s="49">
         <v>1</v>
       </c>
-      <c r="Z285" s="32" t="s">
-        <v>190</v>
-      </c>
+      <c r="S285" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="T285" s="30"/>
       <c r="AA285" s="73"/>
       <c r="AB285" s="73"/>
       <c r="AC285" s="73"/>
-      <c r="AD285" s="68" t="s">
-        <v>428</v>
-      </c>
+      <c r="AD285" s="73"/>
       <c r="AE285" s="73"/>
       <c r="AF285" s="73"/>
       <c r="AG285" s="73"/>
       <c r="AH285" s="73"/>
-      <c r="AI285" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ285" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK285" s="73" t="s">
-        <v>372</v>
-      </c>
+      <c r="AI285" s="73"/>
+      <c r="AJ285" s="76"/>
+      <c r="AK285" s="73"/>
       <c r="AL285" s="4"/>
       <c r="AM285" s="4"/>
       <c r="AN285" s="4"/>
     </row>
     <row r="286" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="I286" s="30"/>
-      <c r="J286" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q286" s="30"/>
+      <c r="E286" s="30"/>
+      <c r="H286" s="30" t="s">
+        <v>28</v>
+      </c>
       <c r="R286" s="49">
         <v>1</v>
       </c>
-      <c r="S286" s="13" t="str">
-        <f>"1.2.752.129.2.1.2.1"</f>
-        <v>1.2.752.129.2.1.2.1</v>
+      <c r="S286" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="T286" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="V286" s="32"/>
-      <c r="Z286" s="32"/>
+        <v>187</v>
+      </c>
       <c r="AA286" s="73"/>
       <c r="AB286" s="73"/>
       <c r="AC286" s="73"/>
@@ -12346,24 +12298,8 @@
       <c r="AN286" s="4"/>
     </row>
     <row r="287" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="I287" s="30"/>
-      <c r="J287" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q287" s="30"/>
-      <c r="R287" s="49">
-        <v>1</v>
-      </c>
-      <c r="S287" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="T287" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="V287" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z287" s="32"/>
+      <c r="E287" s="30"/>
+      <c r="T287" s="30"/>
       <c r="AA287" s="73"/>
       <c r="AB287" s="73"/>
       <c r="AC287" s="73"/>
@@ -12380,72 +12316,59 @@
       <c r="AN287" s="4"/>
     </row>
     <row r="288" spans="5:40" x14ac:dyDescent="0.2">
-      <c r="I288" s="30"/>
-      <c r="Q288" s="30"/>
-      <c r="S288" s="30"/>
-      <c r="V288" s="32"/>
-      <c r="Z288" s="32"/>
+      <c r="E288" s="30"/>
+      <c r="T288" s="30"/>
       <c r="AA288" s="73"/>
       <c r="AB288" s="73"/>
       <c r="AC288" s="73"/>
-      <c r="AD288" s="68"/>
+      <c r="AD288" s="73"/>
       <c r="AE288" s="73"/>
       <c r="AF288" s="73"/>
       <c r="AG288" s="73"/>
       <c r="AH288" s="73"/>
-      <c r="AI288" s="68"/>
-      <c r="AJ288" s="77"/>
+      <c r="AI288" s="73"/>
+      <c r="AJ288" s="76"/>
       <c r="AK288" s="73"/>
       <c r="AL288" s="4"/>
       <c r="AM288" s="4"/>
       <c r="AN288" s="4"/>
     </row>
-    <row r="289" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="I289" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q289" s="30" t="s">
-        <v>187</v>
-      </c>
-      <c r="R289" s="48" t="s">
+    <row r="289" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="G289" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H289" s="5"/>
+      <c r="Q289" s="4"/>
+      <c r="R289" s="56">
         <v>1</v>
-      </c>
-      <c r="S289" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="T289" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="V289" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z289" s="32" t="s">
-        <v>191</v>
       </c>
       <c r="AA289" s="73"/>
       <c r="AB289" s="73"/>
       <c r="AC289" s="73"/>
-      <c r="AD289" s="68" t="s">
-        <v>429</v>
-      </c>
+      <c r="AD289" s="73"/>
       <c r="AE289" s="73"/>
       <c r="AF289" s="73"/>
       <c r="AG289" s="73"/>
       <c r="AH289" s="73"/>
-      <c r="AI289" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ289" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK289" s="73" t="s">
-        <v>341</v>
-      </c>
+      <c r="AI289" s="73"/>
+      <c r="AJ289" s="76"/>
+      <c r="AK289" s="73"/>
       <c r="AL289" s="4"/>
       <c r="AM289" s="4"/>
       <c r="AN289" s="4"/>
     </row>
-    <row r="290" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="290" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="G290" s="4"/>
+      <c r="H290" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q290" s="4"/>
+      <c r="R290" s="56">
+        <v>1</v>
+      </c>
+      <c r="S290" s="30" t="s">
+        <v>163</v>
+      </c>
       <c r="AA290" s="73"/>
       <c r="AB290" s="73"/>
       <c r="AC290" s="73"/>
@@ -12461,7 +12384,10 @@
       <c r="AM290" s="4"/>
       <c r="AN290" s="4"/>
     </row>
-    <row r="291" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="291" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="H291" s="30" t="s">
+        <v>134</v>
+      </c>
       <c r="AA291" s="73"/>
       <c r="AB291" s="73"/>
       <c r="AC291" s="73"/>
@@ -12477,21 +12403,20 @@
       <c r="AM291" s="4"/>
       <c r="AN291" s="4"/>
     </row>
-    <row r="292" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="I292" s="30"/>
-      <c r="J292" s="30"/>
-      <c r="K292" s="30"/>
-      <c r="L292" s="30"/>
-      <c r="M292" s="30"/>
-      <c r="N292" s="30"/>
-      <c r="O292" s="30"/>
-      <c r="P292" s="30"/>
-      <c r="Q292" s="30"/>
-      <c r="R292" s="48"/>
-      <c r="S292" s="30"/>
-      <c r="T292" s="30"/>
-      <c r="U292" s="30"/>
-      <c r="V292" s="32"/>
+    <row r="292" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="I292" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J292" s="4"/>
+      <c r="Q292" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="R292" s="54">
+        <v>1</v>
+      </c>
+      <c r="V292" s="32" t="s">
+        <v>192</v>
+      </c>
       <c r="AA292" s="73"/>
       <c r="AB292" s="73"/>
       <c r="AC292" s="73"/>
@@ -12507,20 +12432,16 @@
       <c r="AM292" s="4"/>
       <c r="AN292" s="4"/>
     </row>
-    <row r="293" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="I293" s="30"/>
-      <c r="J293" s="30"/>
-      <c r="K293" s="30"/>
-      <c r="L293" s="30"/>
-      <c r="M293" s="30"/>
-      <c r="N293" s="30"/>
-      <c r="O293" s="30"/>
-      <c r="P293" s="30"/>
-      <c r="Q293" s="30"/>
-      <c r="R293" s="48"/>
-      <c r="S293" s="30"/>
-      <c r="T293" s="30"/>
-      <c r="U293" s="30"/>
+    <row r="293" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="I293" s="4"/>
+      <c r="J293" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q293" s="5"/>
+      <c r="R293" s="54"/>
+      <c r="S293" s="41" t="s">
+        <v>191</v>
+      </c>
       <c r="V293" s="32"/>
       <c r="AA293" s="73"/>
       <c r="AB293" s="73"/>
@@ -12537,83 +12458,97 @@
       <c r="AM293" s="4"/>
       <c r="AN293" s="4"/>
     </row>
-    <row r="294" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="I294" s="5"/>
-      <c r="J294" s="30"/>
-      <c r="K294" s="30"/>
-      <c r="L294" s="30"/>
-      <c r="M294" s="30"/>
-      <c r="N294" s="30"/>
-      <c r="O294" s="30"/>
-      <c r="P294" s="30"/>
-      <c r="Q294" s="30"/>
-      <c r="R294" s="48"/>
-      <c r="S294" s="30"/>
-      <c r="T294" s="30"/>
-      <c r="U294" s="30"/>
+    <row r="294" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="I294" s="4"/>
+      <c r="J294" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q294" s="4"/>
+      <c r="R294" s="55"/>
+      <c r="S294" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T294" s="30" t="s">
+        <v>187</v>
+      </c>
       <c r="V294" s="32"/>
       <c r="AA294" s="73"/>
       <c r="AB294" s="73"/>
-      <c r="AC294" s="73"/>
+      <c r="AC294" s="68" t="s">
+        <v>425</v>
+      </c>
       <c r="AD294" s="73"/>
       <c r="AE294" s="73"/>
       <c r="AF294" s="73"/>
       <c r="AG294" s="73"/>
-      <c r="AH294" s="73"/>
+      <c r="AH294" s="55" t="s">
+        <v>426</v>
+      </c>
       <c r="AI294" s="73"/>
-      <c r="AJ294" s="76"/>
-      <c r="AK294" s="73"/>
+      <c r="AJ294" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK294" s="68" t="s">
+        <v>282</v>
+      </c>
       <c r="AL294" s="4"/>
       <c r="AM294" s="4"/>
       <c r="AN294" s="4"/>
     </row>
-    <row r="295" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H295" s="30"/>
-      <c r="I295" s="5"/>
-      <c r="J295" s="5"/>
-      <c r="K295" s="5"/>
-      <c r="L295" s="30"/>
-      <c r="M295" s="30"/>
-      <c r="N295" s="30"/>
-      <c r="O295" s="30"/>
-      <c r="P295" s="30"/>
-      <c r="Q295" s="5"/>
-      <c r="R295" s="55"/>
-      <c r="S295" s="30"/>
-      <c r="T295" s="30"/>
-      <c r="U295" s="30"/>
-      <c r="V295" s="32"/>
+    <row r="295" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="I295" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q295" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="R295" s="49">
+        <v>1</v>
+      </c>
+      <c r="Z295" s="32" t="s">
+        <v>189</v>
+      </c>
       <c r="AA295" s="73"/>
       <c r="AB295" s="73"/>
       <c r="AC295" s="73"/>
-      <c r="AD295" s="73"/>
+      <c r="AD295" s="68" t="s">
+        <v>427</v>
+      </c>
       <c r="AE295" s="73"/>
       <c r="AF295" s="73"/>
       <c r="AG295" s="73"/>
       <c r="AH295" s="73"/>
-      <c r="AI295" s="73"/>
-      <c r="AJ295" s="76"/>
-      <c r="AK295" s="73"/>
+      <c r="AI295" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ295" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK295" s="73" t="s">
+        <v>371</v>
+      </c>
       <c r="AL295" s="4"/>
       <c r="AM295" s="4"/>
       <c r="AN295" s="4"/>
     </row>
-    <row r="296" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H296" s="30"/>
+    <row r="296" spans="7:40" x14ac:dyDescent="0.2">
       <c r="I296" s="30"/>
-      <c r="J296" s="5"/>
-      <c r="K296" s="5"/>
-      <c r="L296" s="30"/>
-      <c r="M296" s="30"/>
-      <c r="N296" s="30"/>
-      <c r="O296" s="30"/>
-      <c r="P296" s="30"/>
+      <c r="J296" s="30" t="s">
+        <v>26</v>
+      </c>
       <c r="Q296" s="30"/>
-      <c r="R296" s="48"/>
-      <c r="S296" s="30"/>
-      <c r="T296" s="30"/>
-      <c r="U296" s="30"/>
+      <c r="R296" s="49">
+        <v>1</v>
+      </c>
+      <c r="S296" s="13" t="str">
+        <f>"1.2.752.129.2.1.2.1"</f>
+        <v>1.2.752.129.2.1.2.1</v>
+      </c>
+      <c r="T296" s="30" t="s">
+        <v>194</v>
+      </c>
       <c r="V296" s="32"/>
+      <c r="Z296" s="32"/>
       <c r="AA296" s="73"/>
       <c r="AB296" s="73"/>
       <c r="AC296" s="73"/>
@@ -12629,22 +12564,25 @@
       <c r="AM296" s="4"/>
       <c r="AN296" s="4"/>
     </row>
-    <row r="297" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H297" s="30"/>
+    <row r="297" spans="7:40" x14ac:dyDescent="0.2">
       <c r="I297" s="30"/>
-      <c r="J297" s="5"/>
-      <c r="K297" s="5"/>
-      <c r="L297" s="30"/>
-      <c r="M297" s="30"/>
-      <c r="N297" s="30"/>
-      <c r="O297" s="30"/>
-      <c r="P297" s="30"/>
+      <c r="J297" s="30" t="s">
+        <v>27</v>
+      </c>
       <c r="Q297" s="30"/>
-      <c r="R297" s="48"/>
-      <c r="S297" s="5"/>
-      <c r="T297" s="30"/>
-      <c r="U297" s="30"/>
-      <c r="V297" s="32"/>
+      <c r="R297" s="49">
+        <v>1</v>
+      </c>
+      <c r="S297" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="T297" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="V297" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z297" s="32"/>
       <c r="AA297" s="73"/>
       <c r="AB297" s="73"/>
       <c r="AC297" s="73"/>
@@ -12660,81 +12598,73 @@
       <c r="AM297" s="4"/>
       <c r="AN297" s="4"/>
     </row>
-    <row r="298" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="298" spans="7:40" x14ac:dyDescent="0.2">
       <c r="I298" s="30"/>
-      <c r="J298" s="5"/>
-      <c r="K298" s="5"/>
-      <c r="L298" s="30"/>
-      <c r="M298" s="30"/>
-      <c r="N298" s="30"/>
-      <c r="O298" s="30"/>
-      <c r="P298" s="30"/>
       <c r="Q298" s="30"/>
-      <c r="R298" s="48"/>
       <c r="S298" s="30"/>
-      <c r="T298" s="30"/>
-      <c r="U298" s="30"/>
       <c r="V298" s="32"/>
+      <c r="Z298" s="32"/>
       <c r="AA298" s="73"/>
       <c r="AB298" s="73"/>
       <c r="AC298" s="73"/>
-      <c r="AD298" s="73"/>
+      <c r="AD298" s="68"/>
       <c r="AE298" s="73"/>
       <c r="AF298" s="73"/>
       <c r="AG298" s="73"/>
       <c r="AH298" s="73"/>
-      <c r="AI298" s="73"/>
-      <c r="AJ298" s="76"/>
+      <c r="AI298" s="68"/>
+      <c r="AJ298" s="77"/>
       <c r="AK298" s="73"/>
       <c r="AL298" s="4"/>
       <c r="AM298" s="4"/>
       <c r="AN298" s="4"/>
     </row>
-    <row r="299" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="I299" s="30"/>
-      <c r="J299" s="5"/>
-      <c r="K299" s="5"/>
-      <c r="L299" s="30"/>
-      <c r="M299" s="30"/>
-      <c r="N299" s="30"/>
-      <c r="O299" s="30"/>
-      <c r="P299" s="30"/>
-      <c r="Q299" s="30"/>
-      <c r="R299" s="55"/>
-      <c r="S299" s="24"/>
-      <c r="T299" s="30"/>
-      <c r="U299" s="30"/>
-      <c r="V299" s="32"/>
+    <row r="299" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="I299" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q299" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="R299" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="S299" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="T299" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="V299" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z299" s="32" t="s">
+        <v>190</v>
+      </c>
       <c r="AA299" s="73"/>
       <c r="AB299" s="73"/>
       <c r="AC299" s="73"/>
-      <c r="AD299" s="73"/>
+      <c r="AD299" s="68" t="s">
+        <v>428</v>
+      </c>
       <c r="AE299" s="73"/>
       <c r="AF299" s="73"/>
       <c r="AG299" s="73"/>
       <c r="AH299" s="73"/>
-      <c r="AI299" s="73"/>
-      <c r="AJ299" s="76"/>
-      <c r="AK299" s="73"/>
+      <c r="AI299" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ299" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK299" s="73" t="s">
+        <v>340</v>
+      </c>
       <c r="AL299" s="4"/>
       <c r="AM299" s="4"/>
       <c r="AN299" s="4"/>
     </row>
-    <row r="300" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="I300" s="30"/>
-      <c r="J300" s="30"/>
-      <c r="K300" s="5"/>
-      <c r="L300" s="30"/>
-      <c r="M300" s="30"/>
-      <c r="N300" s="30"/>
-      <c r="O300" s="30"/>
-      <c r="P300" s="30"/>
-      <c r="Q300" s="30"/>
-      <c r="R300" s="48"/>
-      <c r="S300" s="30"/>
-      <c r="T300" s="30"/>
-      <c r="U300" s="30"/>
-      <c r="V300" s="32"/>
+    <row r="300" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AA300" s="73"/>
       <c r="AB300" s="73"/>
       <c r="AC300" s="73"/>
@@ -12750,7 +12680,7 @@
       <c r="AM300" s="4"/>
       <c r="AN300" s="4"/>
     </row>
-    <row r="301" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="301" spans="7:40" x14ac:dyDescent="0.2">
       <c r="AA301" s="73"/>
       <c r="AB301" s="73"/>
       <c r="AC301" s="73"/>
@@ -12766,7 +12696,21 @@
       <c r="AM301" s="4"/>
       <c r="AN301" s="4"/>
     </row>
-    <row r="302" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="302" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="I302" s="30"/>
+      <c r="J302" s="30"/>
+      <c r="K302" s="30"/>
+      <c r="L302" s="30"/>
+      <c r="M302" s="30"/>
+      <c r="N302" s="30"/>
+      <c r="O302" s="30"/>
+      <c r="P302" s="30"/>
+      <c r="Q302" s="30"/>
+      <c r="R302" s="48"/>
+      <c r="S302" s="30"/>
+      <c r="T302" s="30"/>
+      <c r="U302" s="30"/>
+      <c r="V302" s="32"/>
       <c r="AA302" s="73"/>
       <c r="AB302" s="73"/>
       <c r="AC302" s="73"/>
@@ -12782,7 +12726,21 @@
       <c r="AM302" s="4"/>
       <c r="AN302" s="4"/>
     </row>
-    <row r="303" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="303" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="I303" s="30"/>
+      <c r="J303" s="30"/>
+      <c r="K303" s="30"/>
+      <c r="L303" s="30"/>
+      <c r="M303" s="30"/>
+      <c r="N303" s="30"/>
+      <c r="O303" s="30"/>
+      <c r="P303" s="30"/>
+      <c r="Q303" s="30"/>
+      <c r="R303" s="48"/>
+      <c r="S303" s="30"/>
+      <c r="T303" s="30"/>
+      <c r="U303" s="30"/>
+      <c r="V303" s="32"/>
       <c r="AA303" s="73"/>
       <c r="AB303" s="73"/>
       <c r="AC303" s="73"/>
@@ -12798,7 +12756,21 @@
       <c r="AM303" s="4"/>
       <c r="AN303" s="4"/>
     </row>
-    <row r="304" spans="8:40" x14ac:dyDescent="0.2">
+    <row r="304" spans="7:40" x14ac:dyDescent="0.2">
+      <c r="I304" s="5"/>
+      <c r="J304" s="30"/>
+      <c r="K304" s="30"/>
+      <c r="L304" s="30"/>
+      <c r="M304" s="30"/>
+      <c r="N304" s="30"/>
+      <c r="O304" s="30"/>
+      <c r="P304" s="30"/>
+      <c r="Q304" s="30"/>
+      <c r="R304" s="48"/>
+      <c r="S304" s="30"/>
+      <c r="T304" s="30"/>
+      <c r="U304" s="30"/>
+      <c r="V304" s="32"/>
       <c r="AA304" s="73"/>
       <c r="AB304" s="73"/>
       <c r="AC304" s="73"/>
@@ -12816,6 +12788,20 @@
     </row>
     <row r="305" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H305" s="30"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5"/>
+      <c r="K305" s="5"/>
+      <c r="L305" s="30"/>
+      <c r="M305" s="30"/>
+      <c r="N305" s="30"/>
+      <c r="O305" s="30"/>
+      <c r="P305" s="30"/>
+      <c r="Q305" s="5"/>
+      <c r="R305" s="55"/>
+      <c r="S305" s="30"/>
+      <c r="T305" s="30"/>
+      <c r="U305" s="30"/>
+      <c r="V305" s="32"/>
       <c r="AA305" s="73"/>
       <c r="AB305" s="73"/>
       <c r="AC305" s="73"/>
@@ -12833,6 +12819,20 @@
     </row>
     <row r="306" spans="8:40" x14ac:dyDescent="0.2">
       <c r="H306" s="30"/>
+      <c r="I306" s="30"/>
+      <c r="J306" s="5"/>
+      <c r="K306" s="5"/>
+      <c r="L306" s="30"/>
+      <c r="M306" s="30"/>
+      <c r="N306" s="30"/>
+      <c r="O306" s="30"/>
+      <c r="P306" s="30"/>
+      <c r="Q306" s="30"/>
+      <c r="R306" s="48"/>
+      <c r="S306" s="30"/>
+      <c r="T306" s="30"/>
+      <c r="U306" s="30"/>
+      <c r="V306" s="32"/>
       <c r="AA306" s="73"/>
       <c r="AB306" s="73"/>
       <c r="AC306" s="73"/>
@@ -12849,7 +12849,21 @@
       <c r="AN306" s="4"/>
     </row>
     <row r="307" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H307" s="5"/>
+      <c r="H307" s="30"/>
+      <c r="I307" s="30"/>
+      <c r="J307" s="5"/>
+      <c r="K307" s="5"/>
+      <c r="L307" s="30"/>
+      <c r="M307" s="30"/>
+      <c r="N307" s="30"/>
+      <c r="O307" s="30"/>
+      <c r="P307" s="30"/>
+      <c r="Q307" s="30"/>
+      <c r="R307" s="48"/>
+      <c r="S307" s="5"/>
+      <c r="T307" s="30"/>
+      <c r="U307" s="30"/>
+      <c r="V307" s="32"/>
       <c r="AA307" s="73"/>
       <c r="AB307" s="73"/>
       <c r="AC307" s="73"/>
@@ -12866,7 +12880,20 @@
       <c r="AN307" s="4"/>
     </row>
     <row r="308" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H308" s="5"/>
+      <c r="I308" s="30"/>
+      <c r="J308" s="5"/>
+      <c r="K308" s="5"/>
+      <c r="L308" s="30"/>
+      <c r="M308" s="30"/>
+      <c r="N308" s="30"/>
+      <c r="O308" s="30"/>
+      <c r="P308" s="30"/>
+      <c r="Q308" s="30"/>
+      <c r="R308" s="48"/>
+      <c r="S308" s="30"/>
+      <c r="T308" s="30"/>
+      <c r="U308" s="30"/>
+      <c r="V308" s="32"/>
       <c r="AA308" s="73"/>
       <c r="AB308" s="73"/>
       <c r="AC308" s="73"/>
@@ -12883,7 +12910,20 @@
       <c r="AN308" s="4"/>
     </row>
     <row r="309" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H309" s="30"/>
+      <c r="I309" s="30"/>
+      <c r="J309" s="5"/>
+      <c r="K309" s="5"/>
+      <c r="L309" s="30"/>
+      <c r="M309" s="30"/>
+      <c r="N309" s="30"/>
+      <c r="O309" s="30"/>
+      <c r="P309" s="30"/>
+      <c r="Q309" s="30"/>
+      <c r="R309" s="55"/>
+      <c r="S309" s="24"/>
+      <c r="T309" s="30"/>
+      <c r="U309" s="30"/>
+      <c r="V309" s="32"/>
       <c r="AA309" s="73"/>
       <c r="AB309" s="73"/>
       <c r="AC309" s="73"/>
@@ -12900,7 +12940,20 @@
       <c r="AN309" s="4"/>
     </row>
     <row r="310" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H310" s="30"/>
+      <c r="I310" s="30"/>
+      <c r="J310" s="30"/>
+      <c r="K310" s="5"/>
+      <c r="L310" s="30"/>
+      <c r="M310" s="30"/>
+      <c r="N310" s="30"/>
+      <c r="O310" s="30"/>
+      <c r="P310" s="30"/>
+      <c r="Q310" s="30"/>
+      <c r="R310" s="48"/>
+      <c r="S310" s="30"/>
+      <c r="T310" s="30"/>
+      <c r="U310" s="30"/>
+      <c r="V310" s="32"/>
       <c r="AA310" s="73"/>
       <c r="AB310" s="73"/>
       <c r="AC310" s="73"/>
@@ -12917,7 +12970,6 @@
       <c r="AN310" s="4"/>
     </row>
     <row r="311" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H311" s="30"/>
       <c r="AA311" s="73"/>
       <c r="AB311" s="73"/>
       <c r="AC311" s="73"/>
@@ -12934,7 +12986,6 @@
       <c r="AN311" s="4"/>
     </row>
     <row r="312" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H312" s="30"/>
       <c r="AA312" s="73"/>
       <c r="AB312" s="73"/>
       <c r="AC312" s="73"/>
@@ -12951,7 +13002,6 @@
       <c r="AN312" s="4"/>
     </row>
     <row r="313" spans="8:40" x14ac:dyDescent="0.2">
-      <c r="H313" s="30"/>
       <c r="AA313" s="73"/>
       <c r="AB313" s="73"/>
       <c r="AC313" s="73"/>
@@ -12984,6 +13034,7 @@
       <c r="AN314" s="4"/>
     </row>
     <row r="315" spans="8:40" x14ac:dyDescent="0.2">
+      <c r="H315" s="30"/>
       <c r="AA315" s="73"/>
       <c r="AB315" s="73"/>
       <c r="AC315" s="73"/>
@@ -13000,6 +13051,7 @@
       <c r="AN315" s="4"/>
     </row>
     <row r="316" spans="8:40" x14ac:dyDescent="0.2">
+      <c r="H316" s="30"/>
       <c r="AA316" s="73"/>
       <c r="AB316" s="73"/>
       <c r="AC316" s="73"/>
@@ -13016,6 +13068,7 @@
       <c r="AN316" s="4"/>
     </row>
     <row r="317" spans="8:40" x14ac:dyDescent="0.2">
+      <c r="H317" s="5"/>
       <c r="AA317" s="73"/>
       <c r="AB317" s="73"/>
       <c r="AC317" s="73"/>
@@ -13032,6 +13085,7 @@
       <c r="AN317" s="4"/>
     </row>
     <row r="318" spans="8:40" x14ac:dyDescent="0.2">
+      <c r="H318" s="5"/>
       <c r="AA318" s="73"/>
       <c r="AB318" s="73"/>
       <c r="AC318" s="73"/>
@@ -13048,6 +13102,7 @@
       <c r="AN318" s="4"/>
     </row>
     <row r="319" spans="8:40" x14ac:dyDescent="0.2">
+      <c r="H319" s="30"/>
       <c r="AA319" s="73"/>
       <c r="AB319" s="73"/>
       <c r="AC319" s="73"/>
@@ -13064,6 +13119,7 @@
       <c r="AN319" s="4"/>
     </row>
     <row r="320" spans="8:40" x14ac:dyDescent="0.2">
+      <c r="H320" s="30"/>
       <c r="AA320" s="73"/>
       <c r="AB320" s="73"/>
       <c r="AC320" s="73"/>
@@ -13079,14 +13135,15 @@
       <c r="AM320" s="4"/>
       <c r="AN320" s="4"/>
     </row>
-    <row r="321" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="321" spans="8:40" x14ac:dyDescent="0.2">
+      <c r="H321" s="30"/>
       <c r="AA321" s="73"/>
       <c r="AB321" s="73"/>
       <c r="AC321" s="73"/>
       <c r="AD321" s="73"/>
-      <c r="AE321" s="55"/>
-      <c r="AF321" s="55"/>
-      <c r="AG321" s="55"/>
+      <c r="AE321" s="73"/>
+      <c r="AF321" s="73"/>
+      <c r="AG321" s="73"/>
       <c r="AH321" s="73"/>
       <c r="AI321" s="73"/>
       <c r="AJ321" s="76"/>
@@ -13095,14 +13152,15 @@
       <c r="AM321" s="4"/>
       <c r="AN321" s="4"/>
     </row>
-    <row r="322" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="322" spans="8:40" x14ac:dyDescent="0.2">
+      <c r="H322" s="30"/>
       <c r="AA322" s="73"/>
       <c r="AB322" s="73"/>
       <c r="AC322" s="73"/>
       <c r="AD322" s="73"/>
-      <c r="AE322" s="55"/>
-      <c r="AF322" s="55"/>
-      <c r="AG322" s="55"/>
+      <c r="AE322" s="73"/>
+      <c r="AF322" s="73"/>
+      <c r="AG322" s="73"/>
       <c r="AH322" s="73"/>
       <c r="AI322" s="73"/>
       <c r="AJ322" s="76"/>
@@ -13111,14 +13169,15 @@
       <c r="AM322" s="4"/>
       <c r="AN322" s="4"/>
     </row>
-    <row r="323" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="323" spans="8:40" x14ac:dyDescent="0.2">
+      <c r="H323" s="30"/>
       <c r="AA323" s="73"/>
       <c r="AB323" s="73"/>
       <c r="AC323" s="73"/>
       <c r="AD323" s="73"/>
-      <c r="AE323" s="55"/>
-      <c r="AF323" s="55"/>
-      <c r="AG323" s="55"/>
+      <c r="AE323" s="73"/>
+      <c r="AF323" s="73"/>
+      <c r="AG323" s="73"/>
       <c r="AH323" s="73"/>
       <c r="AI323" s="73"/>
       <c r="AJ323" s="76"/>
@@ -13127,14 +13186,14 @@
       <c r="AM323" s="4"/>
       <c r="AN323" s="4"/>
     </row>
-    <row r="324" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="324" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA324" s="73"/>
       <c r="AB324" s="73"/>
       <c r="AC324" s="73"/>
       <c r="AD324" s="73"/>
-      <c r="AE324" s="55"/>
-      <c r="AF324" s="55"/>
-      <c r="AG324" s="55"/>
+      <c r="AE324" s="73"/>
+      <c r="AF324" s="73"/>
+      <c r="AG324" s="73"/>
       <c r="AH324" s="73"/>
       <c r="AI324" s="73"/>
       <c r="AJ324" s="76"/>
@@ -13143,14 +13202,14 @@
       <c r="AM324" s="4"/>
       <c r="AN324" s="4"/>
     </row>
-    <row r="325" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="325" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA325" s="73"/>
       <c r="AB325" s="73"/>
       <c r="AC325" s="73"/>
       <c r="AD325" s="73"/>
-      <c r="AE325" s="55"/>
-      <c r="AF325" s="55"/>
-      <c r="AG325" s="55"/>
+      <c r="AE325" s="73"/>
+      <c r="AF325" s="73"/>
+      <c r="AG325" s="73"/>
       <c r="AH325" s="73"/>
       <c r="AI325" s="73"/>
       <c r="AJ325" s="76"/>
@@ -13159,14 +13218,14 @@
       <c r="AM325" s="4"/>
       <c r="AN325" s="4"/>
     </row>
-    <row r="326" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="326" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA326" s="73"/>
       <c r="AB326" s="73"/>
       <c r="AC326" s="73"/>
       <c r="AD326" s="73"/>
-      <c r="AE326" s="55"/>
-      <c r="AF326" s="55"/>
-      <c r="AG326" s="55"/>
+      <c r="AE326" s="73"/>
+      <c r="AF326" s="73"/>
+      <c r="AG326" s="73"/>
       <c r="AH326" s="73"/>
       <c r="AI326" s="73"/>
       <c r="AJ326" s="76"/>
@@ -13175,14 +13234,14 @@
       <c r="AM326" s="4"/>
       <c r="AN326" s="4"/>
     </row>
-    <row r="327" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="327" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA327" s="73"/>
       <c r="AB327" s="73"/>
       <c r="AC327" s="73"/>
       <c r="AD327" s="73"/>
-      <c r="AE327" s="55"/>
-      <c r="AF327" s="55"/>
-      <c r="AG327" s="55"/>
+      <c r="AE327" s="73"/>
+      <c r="AF327" s="73"/>
+      <c r="AG327" s="73"/>
       <c r="AH327" s="73"/>
       <c r="AI327" s="73"/>
       <c r="AJ327" s="76"/>
@@ -13191,14 +13250,14 @@
       <c r="AM327" s="4"/>
       <c r="AN327" s="4"/>
     </row>
-    <row r="328" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="328" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA328" s="73"/>
       <c r="AB328" s="73"/>
       <c r="AC328" s="73"/>
       <c r="AD328" s="73"/>
-      <c r="AE328" s="55"/>
-      <c r="AF328" s="55"/>
-      <c r="AG328" s="55"/>
+      <c r="AE328" s="73"/>
+      <c r="AF328" s="73"/>
+      <c r="AG328" s="73"/>
       <c r="AH328" s="73"/>
       <c r="AI328" s="73"/>
       <c r="AJ328" s="76"/>
@@ -13207,14 +13266,14 @@
       <c r="AM328" s="4"/>
       <c r="AN328" s="4"/>
     </row>
-    <row r="329" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="329" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA329" s="73"/>
       <c r="AB329" s="73"/>
       <c r="AC329" s="73"/>
       <c r="AD329" s="73"/>
-      <c r="AE329" s="55"/>
-      <c r="AF329" s="55"/>
-      <c r="AG329" s="55"/>
+      <c r="AE329" s="73"/>
+      <c r="AF329" s="73"/>
+      <c r="AG329" s="73"/>
       <c r="AH329" s="73"/>
       <c r="AI329" s="73"/>
       <c r="AJ329" s="76"/>
@@ -13223,14 +13282,14 @@
       <c r="AM329" s="4"/>
       <c r="AN329" s="4"/>
     </row>
-    <row r="330" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="330" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA330" s="73"/>
       <c r="AB330" s="73"/>
       <c r="AC330" s="73"/>
       <c r="AD330" s="73"/>
-      <c r="AE330" s="55"/>
-      <c r="AF330" s="55"/>
-      <c r="AG330" s="55"/>
+      <c r="AE330" s="73"/>
+      <c r="AF330" s="73"/>
+      <c r="AG330" s="73"/>
       <c r="AH330" s="73"/>
       <c r="AI330" s="73"/>
       <c r="AJ330" s="76"/>
@@ -13239,16 +13298,7 @@
       <c r="AM330" s="4"/>
       <c r="AN330" s="4"/>
     </row>
-    <row r="331" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="I331" s="35"/>
-      <c r="J331" s="35"/>
-      <c r="K331" s="35"/>
-      <c r="O331" s="35"/>
-      <c r="P331" s="35"/>
-      <c r="Q331" s="35"/>
-      <c r="R331" s="57"/>
-      <c r="S331" s="35"/>
-      <c r="T331" s="25"/>
+    <row r="331" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA331" s="73"/>
       <c r="AB331" s="73"/>
       <c r="AC331" s="73"/>
@@ -13264,16 +13314,7 @@
       <c r="AM331" s="4"/>
       <c r="AN331" s="4"/>
     </row>
-    <row r="332" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="I332" s="13"/>
-      <c r="J332" s="13"/>
-      <c r="K332" s="13"/>
-      <c r="L332" s="19"/>
-      <c r="M332" s="13"/>
-      <c r="N332" s="2"/>
-      <c r="R332" s="46"/>
-      <c r="S332" s="24"/>
-      <c r="T332" s="25"/>
+    <row r="332" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA332" s="73"/>
       <c r="AB332" s="73"/>
       <c r="AC332" s="73"/>
@@ -13289,7 +13330,7 @@
       <c r="AM332" s="4"/>
       <c r="AN332" s="4"/>
     </row>
-    <row r="333" spans="9:40" x14ac:dyDescent="0.2">
+    <row r="333" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA333" s="73"/>
       <c r="AB333" s="73"/>
       <c r="AC333" s="73"/>
@@ -13305,10 +13346,7 @@
       <c r="AM333" s="4"/>
       <c r="AN333" s="4"/>
     </row>
-    <row r="334" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="W334" s="30"/>
-      <c r="Y334" s="30"/>
-      <c r="Z334" s="32"/>
+    <row r="334" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA334" s="73"/>
       <c r="AB334" s="73"/>
       <c r="AC334" s="73"/>
@@ -13324,14 +13362,11 @@
       <c r="AM334" s="4"/>
       <c r="AN334" s="4"/>
     </row>
-    <row r="335" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="W335" s="30"/>
-      <c r="Y335" s="30"/>
-      <c r="Z335" s="32"/>
+    <row r="335" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA335" s="73"/>
       <c r="AB335" s="73"/>
       <c r="AC335" s="73"/>
-      <c r="AD335" s="68"/>
+      <c r="AD335" s="73"/>
       <c r="AE335" s="55"/>
       <c r="AF335" s="55"/>
       <c r="AG335" s="55"/>
@@ -13343,11 +13378,7 @@
       <c r="AM335" s="4"/>
       <c r="AN335" s="4"/>
     </row>
-    <row r="336" spans="9:40" x14ac:dyDescent="0.2">
-      <c r="W336" s="30"/>
-      <c r="X336" s="69"/>
-      <c r="Y336" s="30"/>
-      <c r="Z336" s="32"/>
+    <row r="336" spans="8:40" x14ac:dyDescent="0.2">
       <c r="AA336" s="73"/>
       <c r="AB336" s="73"/>
       <c r="AC336" s="73"/>
@@ -13363,11 +13394,7 @@
       <c r="AM336" s="4"/>
       <c r="AN336" s="4"/>
     </row>
-    <row r="337" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="W337" s="30"/>
-      <c r="X337" s="69"/>
-      <c r="Y337" s="30"/>
-      <c r="Z337" s="32"/>
+    <row r="337" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA337" s="73"/>
       <c r="AB337" s="73"/>
       <c r="AC337" s="73"/>
@@ -13383,18 +13410,14 @@
       <c r="AM337" s="4"/>
       <c r="AN337" s="4"/>
     </row>
-    <row r="338" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="W338" s="30"/>
-      <c r="X338" s="69"/>
-      <c r="Y338" s="30"/>
-      <c r="Z338" s="32"/>
+    <row r="338" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA338" s="73"/>
       <c r="AB338" s="73"/>
       <c r="AC338" s="73"/>
       <c r="AD338" s="73"/>
-      <c r="AE338" s="73"/>
-      <c r="AF338" s="73"/>
-      <c r="AG338" s="73"/>
+      <c r="AE338" s="55"/>
+      <c r="AF338" s="55"/>
+      <c r="AG338" s="55"/>
       <c r="AH338" s="73"/>
       <c r="AI338" s="73"/>
       <c r="AJ338" s="76"/>
@@ -13403,18 +13426,14 @@
       <c r="AM338" s="4"/>
       <c r="AN338" s="4"/>
     </row>
-    <row r="339" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="W339" s="30"/>
-      <c r="X339" s="69"/>
-      <c r="Y339" s="30"/>
-      <c r="Z339" s="32"/>
+    <row r="339" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA339" s="73"/>
       <c r="AB339" s="73"/>
       <c r="AC339" s="73"/>
       <c r="AD339" s="73"/>
-      <c r="AE339" s="73"/>
-      <c r="AF339" s="73"/>
-      <c r="AG339" s="73"/>
+      <c r="AE339" s="55"/>
+      <c r="AF339" s="55"/>
+      <c r="AG339" s="55"/>
       <c r="AH339" s="73"/>
       <c r="AI339" s="73"/>
       <c r="AJ339" s="76"/>
@@ -13423,18 +13442,14 @@
       <c r="AM339" s="4"/>
       <c r="AN339" s="4"/>
     </row>
-    <row r="340" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="W340" s="30"/>
-      <c r="X340" s="69"/>
-      <c r="Y340" s="30"/>
-      <c r="Z340" s="32"/>
+    <row r="340" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA340" s="73"/>
       <c r="AB340" s="73"/>
       <c r="AC340" s="73"/>
       <c r="AD340" s="73"/>
-      <c r="AE340" s="73"/>
-      <c r="AF340" s="73"/>
-      <c r="AG340" s="73"/>
+      <c r="AE340" s="55"/>
+      <c r="AF340" s="55"/>
+      <c r="AG340" s="55"/>
       <c r="AH340" s="73"/>
       <c r="AI340" s="73"/>
       <c r="AJ340" s="76"/>
@@ -13443,18 +13458,23 @@
       <c r="AM340" s="4"/>
       <c r="AN340" s="4"/>
     </row>
-    <row r="341" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="W341" s="30"/>
-      <c r="X341" s="69"/>
-      <c r="Y341" s="30"/>
-      <c r="Z341" s="32"/>
+    <row r="341" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="I341" s="35"/>
+      <c r="J341" s="35"/>
+      <c r="K341" s="35"/>
+      <c r="O341" s="35"/>
+      <c r="P341" s="35"/>
+      <c r="Q341" s="35"/>
+      <c r="R341" s="57"/>
+      <c r="S341" s="35"/>
+      <c r="T341" s="25"/>
       <c r="AA341" s="73"/>
       <c r="AB341" s="73"/>
       <c r="AC341" s="73"/>
       <c r="AD341" s="73"/>
-      <c r="AE341" s="73"/>
-      <c r="AF341" s="73"/>
-      <c r="AG341" s="73"/>
+      <c r="AE341" s="55"/>
+      <c r="AF341" s="55"/>
+      <c r="AG341" s="55"/>
       <c r="AH341" s="73"/>
       <c r="AI341" s="73"/>
       <c r="AJ341" s="76"/>
@@ -13463,18 +13483,23 @@
       <c r="AM341" s="4"/>
       <c r="AN341" s="4"/>
     </row>
-    <row r="342" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="W342" s="30"/>
-      <c r="X342" s="69"/>
-      <c r="Y342" s="30"/>
-      <c r="Z342" s="32"/>
+    <row r="342" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="I342" s="13"/>
+      <c r="J342" s="13"/>
+      <c r="K342" s="13"/>
+      <c r="L342" s="19"/>
+      <c r="M342" s="13"/>
+      <c r="N342" s="2"/>
+      <c r="R342" s="46"/>
+      <c r="S342" s="24"/>
+      <c r="T342" s="25"/>
       <c r="AA342" s="73"/>
       <c r="AB342" s="73"/>
       <c r="AC342" s="73"/>
       <c r="AD342" s="73"/>
-      <c r="AE342" s="73"/>
-      <c r="AF342" s="73"/>
-      <c r="AG342" s="73"/>
+      <c r="AE342" s="55"/>
+      <c r="AF342" s="55"/>
+      <c r="AG342" s="55"/>
       <c r="AH342" s="73"/>
       <c r="AI342" s="73"/>
       <c r="AJ342" s="76"/>
@@ -13483,58 +13508,33 @@
       <c r="AM342" s="4"/>
       <c r="AN342" s="4"/>
     </row>
-    <row r="343" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="I343" s="35"/>
-      <c r="J343" s="35"/>
-      <c r="K343" s="35"/>
-      <c r="O343" s="35"/>
-      <c r="P343" s="35"/>
-      <c r="Q343" s="35"/>
-      <c r="R343" s="57"/>
-      <c r="S343" s="35"/>
-      <c r="T343" s="35"/>
-      <c r="U343" s="35"/>
-      <c r="V343" s="60"/>
-      <c r="W343" s="35"/>
-      <c r="X343" s="69"/>
-      <c r="Y343" s="35"/>
-      <c r="Z343" s="60"/>
+    <row r="343" spans="9:40" x14ac:dyDescent="0.2">
       <c r="AA343" s="73"/>
       <c r="AB343" s="73"/>
       <c r="AC343" s="73"/>
-      <c r="AD343" s="68" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE343" s="73"/>
-      <c r="AF343" s="73"/>
-      <c r="AG343" s="73"/>
+      <c r="AD343" s="73"/>
+      <c r="AE343" s="55"/>
+      <c r="AF343" s="55"/>
+      <c r="AG343" s="55"/>
       <c r="AH343" s="73"/>
-      <c r="AI343" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ343" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK343" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL343" s="82" t="s">
-        <v>269</v>
-      </c>
+      <c r="AI343" s="73"/>
+      <c r="AJ343" s="76"/>
+      <c r="AK343" s="73"/>
+      <c r="AL343" s="4"/>
       <c r="AM343" s="4"/>
       <c r="AN343" s="4"/>
     </row>
-    <row r="344" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="G344" s="35"/>
-      <c r="H344" s="35"/>
-      <c r="X344" s="69"/>
+    <row r="344" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="W344" s="30"/>
+      <c r="Y344" s="30"/>
+      <c r="Z344" s="32"/>
       <c r="AA344" s="73"/>
       <c r="AB344" s="73"/>
       <c r="AC344" s="73"/>
       <c r="AD344" s="73"/>
-      <c r="AE344" s="73"/>
-      <c r="AF344" s="73"/>
-      <c r="AG344" s="73"/>
+      <c r="AE344" s="55"/>
+      <c r="AF344" s="55"/>
+      <c r="AG344" s="55"/>
       <c r="AH344" s="73"/>
       <c r="AI344" s="73"/>
       <c r="AJ344" s="76"/>
@@ -13543,17 +13543,17 @@
       <c r="AM344" s="4"/>
       <c r="AN344" s="4"/>
     </row>
-    <row r="345" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="G345" s="24"/>
-      <c r="H345" s="13"/>
-      <c r="X345" s="71"/>
+    <row r="345" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="W345" s="30"/>
+      <c r="Y345" s="30"/>
+      <c r="Z345" s="32"/>
       <c r="AA345" s="73"/>
       <c r="AB345" s="73"/>
       <c r="AC345" s="73"/>
-      <c r="AD345" s="73"/>
-      <c r="AE345" s="73"/>
-      <c r="AF345" s="73"/>
-      <c r="AG345" s="73"/>
+      <c r="AD345" s="68"/>
+      <c r="AE345" s="55"/>
+      <c r="AF345" s="55"/>
+      <c r="AG345" s="55"/>
       <c r="AH345" s="73"/>
       <c r="AI345" s="73"/>
       <c r="AJ345" s="76"/>
@@ -13562,14 +13562,18 @@
       <c r="AM345" s="4"/>
       <c r="AN345" s="4"/>
     </row>
-    <row r="346" spans="6:40" x14ac:dyDescent="0.2">
+    <row r="346" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="W346" s="30"/>
+      <c r="X346" s="69"/>
+      <c r="Y346" s="30"/>
+      <c r="Z346" s="32"/>
       <c r="AA346" s="73"/>
       <c r="AB346" s="73"/>
       <c r="AC346" s="73"/>
       <c r="AD346" s="73"/>
-      <c r="AE346" s="73"/>
-      <c r="AF346" s="73"/>
-      <c r="AG346" s="73"/>
+      <c r="AE346" s="55"/>
+      <c r="AF346" s="55"/>
+      <c r="AG346" s="55"/>
       <c r="AH346" s="73"/>
       <c r="AI346" s="73"/>
       <c r="AJ346" s="76"/>
@@ -13578,15 +13582,18 @@
       <c r="AM346" s="4"/>
       <c r="AN346" s="4"/>
     </row>
-    <row r="347" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="F347" s="30"/>
+    <row r="347" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="W347" s="30"/>
+      <c r="X347" s="69"/>
+      <c r="Y347" s="30"/>
+      <c r="Z347" s="32"/>
       <c r="AA347" s="73"/>
       <c r="AB347" s="73"/>
       <c r="AC347" s="73"/>
       <c r="AD347" s="73"/>
-      <c r="AE347" s="73"/>
-      <c r="AF347" s="73"/>
-      <c r="AG347" s="73"/>
+      <c r="AE347" s="55"/>
+      <c r="AF347" s="55"/>
+      <c r="AG347" s="55"/>
       <c r="AH347" s="73"/>
       <c r="AI347" s="73"/>
       <c r="AJ347" s="76"/>
@@ -13595,8 +13602,11 @@
       <c r="AM347" s="4"/>
       <c r="AN347" s="4"/>
     </row>
-    <row r="348" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="F348" s="30"/>
+    <row r="348" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="W348" s="30"/>
+      <c r="X348" s="69"/>
+      <c r="Y348" s="30"/>
+      <c r="Z348" s="32"/>
       <c r="AA348" s="73"/>
       <c r="AB348" s="73"/>
       <c r="AC348" s="73"/>
@@ -13612,8 +13622,11 @@
       <c r="AM348" s="4"/>
       <c r="AN348" s="4"/>
     </row>
-    <row r="349" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="F349" s="30"/>
+    <row r="349" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="W349" s="30"/>
+      <c r="X349" s="69"/>
+      <c r="Y349" s="30"/>
+      <c r="Z349" s="32"/>
       <c r="AA349" s="73"/>
       <c r="AB349" s="73"/>
       <c r="AC349" s="73"/>
@@ -13629,8 +13642,11 @@
       <c r="AM349" s="4"/>
       <c r="AN349" s="4"/>
     </row>
-    <row r="350" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="F350" s="30"/>
+    <row r="350" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="W350" s="30"/>
+      <c r="X350" s="69"/>
+      <c r="Y350" s="30"/>
+      <c r="Z350" s="32"/>
       <c r="AA350" s="73"/>
       <c r="AB350" s="73"/>
       <c r="AC350" s="73"/>
@@ -13646,8 +13662,11 @@
       <c r="AM350" s="4"/>
       <c r="AN350" s="4"/>
     </row>
-    <row r="351" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="F351" s="30"/>
+    <row r="351" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="W351" s="30"/>
+      <c r="X351" s="69"/>
+      <c r="Y351" s="30"/>
+      <c r="Z351" s="32"/>
       <c r="AA351" s="73"/>
       <c r="AB351" s="73"/>
       <c r="AC351" s="73"/>
@@ -13663,8 +13682,11 @@
       <c r="AM351" s="4"/>
       <c r="AN351" s="4"/>
     </row>
-    <row r="352" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="F352" s="30"/>
+    <row r="352" spans="9:40" x14ac:dyDescent="0.2">
+      <c r="W352" s="30"/>
+      <c r="X352" s="69"/>
+      <c r="Y352" s="30"/>
+      <c r="Z352" s="32"/>
       <c r="AA352" s="73"/>
       <c r="AB352" s="73"/>
       <c r="AC352" s="73"/>
@@ -13681,24 +13703,50 @@
       <c r="AN352" s="4"/>
     </row>
     <row r="353" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="F353" s="30"/>
+      <c r="I353" s="35"/>
+      <c r="J353" s="35"/>
+      <c r="K353" s="35"/>
+      <c r="O353" s="35"/>
+      <c r="P353" s="35"/>
+      <c r="Q353" s="35"/>
+      <c r="R353" s="57"/>
+      <c r="S353" s="35"/>
+      <c r="T353" s="35"/>
+      <c r="U353" s="35"/>
+      <c r="V353" s="60"/>
+      <c r="W353" s="35"/>
+      <c r="X353" s="69"/>
+      <c r="Y353" s="35"/>
+      <c r="Z353" s="60"/>
       <c r="AA353" s="73"/>
       <c r="AB353" s="73"/>
       <c r="AC353" s="73"/>
-      <c r="AD353" s="73"/>
+      <c r="AD353" s="68" t="s">
+        <v>267</v>
+      </c>
       <c r="AE353" s="73"/>
       <c r="AF353" s="73"/>
       <c r="AG353" s="73"/>
       <c r="AH353" s="73"/>
-      <c r="AI353" s="73"/>
-      <c r="AJ353" s="76"/>
-      <c r="AK353" s="73"/>
-      <c r="AL353" s="4"/>
+      <c r="AI353" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ353" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK353" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL353" s="82" t="s">
+        <v>268</v>
+      </c>
       <c r="AM353" s="4"/>
       <c r="AN353" s="4"/>
     </row>
     <row r="354" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="F354" s="30"/>
+      <c r="G354" s="35"/>
+      <c r="H354" s="35"/>
+      <c r="X354" s="69"/>
       <c r="AA354" s="73"/>
       <c r="AB354" s="73"/>
       <c r="AC354" s="73"/>
@@ -13715,7 +13763,9 @@
       <c r="AN354" s="4"/>
     </row>
     <row r="355" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="F355" s="30"/>
+      <c r="G355" s="24"/>
+      <c r="H355" s="13"/>
+      <c r="X355" s="71"/>
       <c r="AA355" s="73"/>
       <c r="AB355" s="73"/>
       <c r="AC355" s="73"/>
@@ -13732,8 +13782,6 @@
       <c r="AN355" s="4"/>
     </row>
     <row r="356" spans="6:40" x14ac:dyDescent="0.2">
-      <c r="G356" s="35"/>
-      <c r="H356" s="35"/>
       <c r="AA356" s="73"/>
       <c r="AB356" s="73"/>
       <c r="AC356" s="73"/>
@@ -13750,6 +13798,7 @@
       <c r="AN356" s="4"/>
     </row>
     <row r="357" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="F357" s="30"/>
       <c r="AA357" s="73"/>
       <c r="AB357" s="73"/>
       <c r="AC357" s="73"/>
@@ -13766,6 +13815,7 @@
       <c r="AN357" s="4"/>
     </row>
     <row r="358" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="F358" s="30"/>
       <c r="AA358" s="73"/>
       <c r="AB358" s="73"/>
       <c r="AC358" s="73"/>
@@ -13782,6 +13832,7 @@
       <c r="AN358" s="4"/>
     </row>
     <row r="359" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="F359" s="30"/>
       <c r="AA359" s="73"/>
       <c r="AB359" s="73"/>
       <c r="AC359" s="73"/>
@@ -13798,6 +13849,7 @@
       <c r="AN359" s="4"/>
     </row>
     <row r="360" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="F360" s="30"/>
       <c r="AA360" s="73"/>
       <c r="AB360" s="73"/>
       <c r="AC360" s="73"/>
@@ -13814,6 +13866,7 @@
       <c r="AN360" s="4"/>
     </row>
     <row r="361" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="F361" s="30"/>
       <c r="AA361" s="73"/>
       <c r="AB361" s="73"/>
       <c r="AC361" s="73"/>
@@ -13830,6 +13883,7 @@
       <c r="AN361" s="4"/>
     </row>
     <row r="362" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="F362" s="30"/>
       <c r="AA362" s="73"/>
       <c r="AB362" s="73"/>
       <c r="AC362" s="73"/>
@@ -13846,6 +13900,7 @@
       <c r="AN362" s="4"/>
     </row>
     <row r="363" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="F363" s="30"/>
       <c r="AA363" s="73"/>
       <c r="AB363" s="73"/>
       <c r="AC363" s="73"/>
@@ -13862,6 +13917,7 @@
       <c r="AN363" s="4"/>
     </row>
     <row r="364" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="F364" s="30"/>
       <c r="AA364" s="73"/>
       <c r="AB364" s="73"/>
       <c r="AC364" s="73"/>
@@ -13877,10 +13933,173 @@
       <c r="AM364" s="4"/>
       <c r="AN364" s="4"/>
     </row>
+    <row r="365" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="F365" s="30"/>
+      <c r="AA365" s="73"/>
+      <c r="AB365" s="73"/>
+      <c r="AC365" s="73"/>
+      <c r="AD365" s="73"/>
+      <c r="AE365" s="73"/>
+      <c r="AF365" s="73"/>
+      <c r="AG365" s="73"/>
+      <c r="AH365" s="73"/>
+      <c r="AI365" s="73"/>
+      <c r="AJ365" s="76"/>
+      <c r="AK365" s="73"/>
+      <c r="AL365" s="4"/>
+      <c r="AM365" s="4"/>
+      <c r="AN365" s="4"/>
+    </row>
+    <row r="366" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="G366" s="35"/>
+      <c r="H366" s="35"/>
+      <c r="AA366" s="73"/>
+      <c r="AB366" s="73"/>
+      <c r="AC366" s="73"/>
+      <c r="AD366" s="73"/>
+      <c r="AE366" s="73"/>
+      <c r="AF366" s="73"/>
+      <c r="AG366" s="73"/>
+      <c r="AH366" s="73"/>
+      <c r="AI366" s="73"/>
+      <c r="AJ366" s="76"/>
+      <c r="AK366" s="73"/>
+      <c r="AL366" s="4"/>
+      <c r="AM366" s="4"/>
+      <c r="AN366" s="4"/>
+    </row>
+    <row r="367" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AA367" s="73"/>
+      <c r="AB367" s="73"/>
+      <c r="AC367" s="73"/>
+      <c r="AD367" s="73"/>
+      <c r="AE367" s="73"/>
+      <c r="AF367" s="73"/>
+      <c r="AG367" s="73"/>
+      <c r="AH367" s="73"/>
+      <c r="AI367" s="73"/>
+      <c r="AJ367" s="76"/>
+      <c r="AK367" s="73"/>
+      <c r="AL367" s="4"/>
+      <c r="AM367" s="4"/>
+      <c r="AN367" s="4"/>
+    </row>
+    <row r="368" spans="6:40" x14ac:dyDescent="0.2">
+      <c r="AA368" s="73"/>
+      <c r="AB368" s="73"/>
+      <c r="AC368" s="73"/>
+      <c r="AD368" s="73"/>
+      <c r="AE368" s="73"/>
+      <c r="AF368" s="73"/>
+      <c r="AG368" s="73"/>
+      <c r="AH368" s="73"/>
+      <c r="AI368" s="73"/>
+      <c r="AJ368" s="76"/>
+      <c r="AK368" s="73"/>
+      <c r="AL368" s="4"/>
+      <c r="AM368" s="4"/>
+      <c r="AN368" s="4"/>
+    </row>
+    <row r="369" spans="27:40" x14ac:dyDescent="0.2">
+      <c r="AA369" s="73"/>
+      <c r="AB369" s="73"/>
+      <c r="AC369" s="73"/>
+      <c r="AD369" s="73"/>
+      <c r="AE369" s="73"/>
+      <c r="AF369" s="73"/>
+      <c r="AG369" s="73"/>
+      <c r="AH369" s="73"/>
+      <c r="AI369" s="73"/>
+      <c r="AJ369" s="76"/>
+      <c r="AK369" s="73"/>
+      <c r="AL369" s="4"/>
+      <c r="AM369" s="4"/>
+      <c r="AN369" s="4"/>
+    </row>
+    <row r="370" spans="27:40" x14ac:dyDescent="0.2">
+      <c r="AA370" s="73"/>
+      <c r="AB370" s="73"/>
+      <c r="AC370" s="73"/>
+      <c r="AD370" s="73"/>
+      <c r="AE370" s="73"/>
+      <c r="AF370" s="73"/>
+      <c r="AG370" s="73"/>
+      <c r="AH370" s="73"/>
+      <c r="AI370" s="73"/>
+      <c r="AJ370" s="76"/>
+      <c r="AK370" s="73"/>
+      <c r="AL370" s="4"/>
+      <c r="AM370" s="4"/>
+      <c r="AN370" s="4"/>
+    </row>
+    <row r="371" spans="27:40" x14ac:dyDescent="0.2">
+      <c r="AA371" s="73"/>
+      <c r="AB371" s="73"/>
+      <c r="AC371" s="73"/>
+      <c r="AD371" s="73"/>
+      <c r="AE371" s="73"/>
+      <c r="AF371" s="73"/>
+      <c r="AG371" s="73"/>
+      <c r="AH371" s="73"/>
+      <c r="AI371" s="73"/>
+      <c r="AJ371" s="76"/>
+      <c r="AK371" s="73"/>
+      <c r="AL371" s="4"/>
+      <c r="AM371" s="4"/>
+      <c r="AN371" s="4"/>
+    </row>
+    <row r="372" spans="27:40" x14ac:dyDescent="0.2">
+      <c r="AA372" s="73"/>
+      <c r="AB372" s="73"/>
+      <c r="AC372" s="73"/>
+      <c r="AD372" s="73"/>
+      <c r="AE372" s="73"/>
+      <c r="AF372" s="73"/>
+      <c r="AG372" s="73"/>
+      <c r="AH372" s="73"/>
+      <c r="AI372" s="73"/>
+      <c r="AJ372" s="76"/>
+      <c r="AK372" s="73"/>
+      <c r="AL372" s="4"/>
+      <c r="AM372" s="4"/>
+      <c r="AN372" s="4"/>
+    </row>
+    <row r="373" spans="27:40" x14ac:dyDescent="0.2">
+      <c r="AA373" s="73"/>
+      <c r="AB373" s="73"/>
+      <c r="AC373" s="73"/>
+      <c r="AD373" s="73"/>
+      <c r="AE373" s="73"/>
+      <c r="AF373" s="73"/>
+      <c r="AG373" s="73"/>
+      <c r="AH373" s="73"/>
+      <c r="AI373" s="73"/>
+      <c r="AJ373" s="76"/>
+      <c r="AK373" s="73"/>
+      <c r="AL373" s="4"/>
+      <c r="AM373" s="4"/>
+      <c r="AN373" s="4"/>
+    </row>
+    <row r="374" spans="27:40" x14ac:dyDescent="0.2">
+      <c r="AA374" s="73"/>
+      <c r="AB374" s="73"/>
+      <c r="AC374" s="73"/>
+      <c r="AD374" s="73"/>
+      <c r="AE374" s="73"/>
+      <c r="AF374" s="73"/>
+      <c r="AG374" s="73"/>
+      <c r="AH374" s="73"/>
+      <c r="AI374" s="73"/>
+      <c r="AJ374" s="76"/>
+      <c r="AK374" s="73"/>
+      <c r="AL374" s="4"/>
+      <c r="AM374" s="4"/>
+      <c r="AN374" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13904,7 +14123,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="93"/>
@@ -13913,85 +14132,85 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>182</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
